--- a/GGRL_Valles_Caldera BER_NH (1).xlsx
+++ b/GGRL_Valles_Caldera BER_NH (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/huck4481_vandals_uidaho_edu/Documents/Desktop/Sediment Traps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\carbon_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{E65B2A0B-8843-427E-AD13-86C59386D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD5C822-CA45-405E-BB47-2D1FCF527E1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284D45E-D762-4F41-937A-1AFD386454FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2289,30 +2289,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2336,6 +2312,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2621,9 +2621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA491" activeCellId="1" sqref="X491 AA491"/>
+      <selection pane="topRight" activeCell="AA102" sqref="AA102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2656,19 +2656,19 @@
     <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="166" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="168"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,19 +2687,19 @@
     <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="169">
+      <c r="C3" s="182">
         <v>44816</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171" t="s">
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
       <c r="L3" s="15"/>
       <c r="M3" s="7" t="s">
         <v>49</v>
@@ -8587,7 +8587,7 @@
       <c r="Y99" s="36"/>
       <c r="Z99" s="107"/>
       <c r="AA99" s="145">
-        <f t="shared" si="3"/>
+        <f>(X99/L99)*1000*1000</f>
         <v>57.726093867648203</v>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       <c r="Y102" s="36"/>
       <c r="Z102" s="107"/>
       <c r="AA102" s="145">
-        <f t="shared" si="3"/>
+        <f>(X102/L102)*1000*1000</f>
         <v>11.446324912108677</v>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       <c r="Y134" s="12"/>
       <c r="Z134" s="74"/>
       <c r="AA134" s="145">
-        <f t="shared" ref="AA134:AA194" si="5">(X134/L134)*1000*1000</f>
+        <f t="shared" ref="AA134:AA193" si="5">(X134/L134)*1000*1000</f>
         <v>5201.9164955509923</v>
       </c>
     </row>
@@ -14240,219 +14240,219 @@
       <c r="A194" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B194" s="175">
+      <c r="B194" s="167">
         <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="C194" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E194" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F194" s="174"/>
-      <c r="G194" s="174"/>
-      <c r="H194" s="174"/>
-      <c r="I194" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J194" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K194" s="174"/>
-      <c r="L194" s="178"/>
-      <c r="M194" s="174"/>
-      <c r="N194" s="174"/>
-      <c r="O194" s="182">
+      <c r="C194" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E194" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" s="166"/>
+      <c r="G194" s="166"/>
+      <c r="H194" s="166"/>
+      <c r="I194" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J194" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K194" s="166"/>
+      <c r="L194" s="170"/>
+      <c r="M194" s="166"/>
+      <c r="N194" s="166"/>
+      <c r="O194" s="174">
         <v>45131</v>
       </c>
-      <c r="P194" s="178"/>
-      <c r="Q194" s="174"/>
-      <c r="R194" s="174"/>
-      <c r="S194" s="174"/>
-      <c r="T194" s="174"/>
-      <c r="U194" s="174">
+      <c r="P194" s="170"/>
+      <c r="Q194" s="166"/>
+      <c r="R194" s="166"/>
+      <c r="S194" s="166"/>
+      <c r="T194" s="166"/>
+      <c r="U194" s="166">
         <v>0.23849999999999999</v>
       </c>
-      <c r="V194" s="174">
+      <c r="V194" s="166">
         <v>0.2417</v>
       </c>
-      <c r="W194" s="174"/>
-      <c r="X194" s="179">
+      <c r="W194" s="166"/>
+      <c r="X194" s="171">
         <f t="shared" si="4"/>
         <v>3.2000000000000084E-3</v>
       </c>
-      <c r="Y194" s="174"/>
-      <c r="Z194" s="180"/>
-      <c r="AA194" s="181"/>
+      <c r="Y194" s="166"/>
+      <c r="Z194" s="172"/>
+      <c r="AA194" s="173"/>
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B195" s="175">
+      <c r="B195" s="167">
         <f t="shared" si="6"/>
         <v>191</v>
       </c>
-      <c r="C195" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D195" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F195" s="174"/>
-      <c r="G195" s="174"/>
-      <c r="H195" s="174"/>
-      <c r="I195" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J195" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K195" s="174"/>
-      <c r="L195" s="178" t="s">
+      <c r="C195" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" s="166"/>
+      <c r="G195" s="166"/>
+      <c r="H195" s="166"/>
+      <c r="I195" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J195" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K195" s="166"/>
+      <c r="L195" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="M195" s="174"/>
-      <c r="N195" s="174"/>
-      <c r="O195" s="182">
+      <c r="M195" s="166"/>
+      <c r="N195" s="166"/>
+      <c r="O195" s="174">
         <v>45131</v>
       </c>
-      <c r="P195" s="178"/>
-      <c r="Q195" s="174"/>
-      <c r="R195" s="174"/>
-      <c r="S195" s="174"/>
-      <c r="T195" s="174"/>
-      <c r="U195" s="174">
+      <c r="P195" s="170"/>
+      <c r="Q195" s="166"/>
+      <c r="R195" s="166"/>
+      <c r="S195" s="166"/>
+      <c r="T195" s="166"/>
+      <c r="U195" s="166">
         <v>0.23760000000000001</v>
       </c>
-      <c r="V195" s="174">
+      <c r="V195" s="166">
         <v>0.23769999999999999</v>
       </c>
-      <c r="W195" s="174"/>
-      <c r="X195" s="179">
+      <c r="W195" s="166"/>
+      <c r="X195" s="171">
         <f t="shared" si="4"/>
         <v>9.9999999999988987E-5</v>
       </c>
-      <c r="Y195" s="174"/>
-      <c r="Z195" s="180"/>
-      <c r="AA195" s="181"/>
+      <c r="Y195" s="166"/>
+      <c r="Z195" s="172"/>
+      <c r="AA195" s="173"/>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B196" s="175">
+      <c r="B196" s="167">
         <f t="shared" si="6"/>
         <v>192</v>
       </c>
-      <c r="C196" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E196" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F196" s="174"/>
-      <c r="G196" s="174"/>
-      <c r="H196" s="174"/>
-      <c r="I196" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J196" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K196" s="174"/>
-      <c r="L196" s="178" t="s">
+      <c r="C196" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="166"/>
+      <c r="G196" s="166"/>
+      <c r="H196" s="166"/>
+      <c r="I196" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J196" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K196" s="166"/>
+      <c r="L196" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="M196" s="174"/>
-      <c r="N196" s="174"/>
-      <c r="O196" s="182">
+      <c r="M196" s="166"/>
+      <c r="N196" s="166"/>
+      <c r="O196" s="174">
         <v>45131</v>
       </c>
-      <c r="P196" s="178"/>
-      <c r="Q196" s="174"/>
-      <c r="R196" s="174"/>
-      <c r="S196" s="174"/>
-      <c r="T196" s="174"/>
-      <c r="U196" s="174">
+      <c r="P196" s="170"/>
+      <c r="Q196" s="166"/>
+      <c r="R196" s="166"/>
+      <c r="S196" s="166"/>
+      <c r="T196" s="166"/>
+      <c r="U196" s="166">
         <v>0.23649999999999999</v>
       </c>
-      <c r="V196" s="174">
+      <c r="V196" s="166">
         <v>0.23769999999999999</v>
       </c>
-      <c r="W196" s="174"/>
-      <c r="X196" s="179">
+      <c r="W196" s="166"/>
+      <c r="X196" s="171">
         <f t="shared" si="4"/>
         <v>1.2000000000000066E-3</v>
       </c>
-      <c r="Y196" s="174"/>
-      <c r="Z196" s="180"/>
-      <c r="AA196" s="181"/>
+      <c r="Y196" s="166"/>
+      <c r="Z196" s="172"/>
+      <c r="AA196" s="173"/>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B197" s="175">
+      <c r="B197" s="167">
         <f t="shared" si="6"/>
         <v>193</v>
       </c>
-      <c r="C197" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D197" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E197" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F197" s="174"/>
-      <c r="G197" s="174"/>
-      <c r="H197" s="174"/>
-      <c r="I197" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J197" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K197" s="174"/>
-      <c r="L197" s="178" t="s">
+      <c r="C197" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197" s="166"/>
+      <c r="G197" s="166"/>
+      <c r="H197" s="166"/>
+      <c r="I197" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J197" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K197" s="166"/>
+      <c r="L197" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="M197" s="174"/>
-      <c r="N197" s="174"/>
-      <c r="O197" s="182">
+      <c r="M197" s="166"/>
+      <c r="N197" s="166"/>
+      <c r="O197" s="174">
         <v>45131</v>
       </c>
-      <c r="P197" s="178"/>
-      <c r="Q197" s="174"/>
-      <c r="R197" s="174"/>
-      <c r="S197" s="174"/>
-      <c r="T197" s="174"/>
-      <c r="U197" s="174">
+      <c r="P197" s="170"/>
+      <c r="Q197" s="166"/>
+      <c r="R197" s="166"/>
+      <c r="S197" s="166"/>
+      <c r="T197" s="166"/>
+      <c r="U197" s="166">
         <v>0.23749999999999999</v>
       </c>
-      <c r="V197" s="174">
+      <c r="V197" s="166">
         <v>0.23780000000000001</v>
       </c>
-      <c r="W197" s="174"/>
-      <c r="X197" s="179">
+      <c r="W197" s="166"/>
+      <c r="X197" s="171">
         <f t="shared" si="4"/>
         <v>3.0000000000002247E-4</v>
       </c>
-      <c r="Y197" s="174"/>
-      <c r="Z197" s="180"/>
-      <c r="AA197" s="181"/>
+      <c r="Y197" s="166"/>
+      <c r="Z197" s="172"/>
+      <c r="AA197" s="173"/>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="45" t="s">
@@ -15037,56 +15037,56 @@
       <c r="A208" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B208" s="175">
+      <c r="B208" s="167">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
-      <c r="C208" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E208" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F208" s="174"/>
-      <c r="G208" s="174"/>
-      <c r="H208" s="174"/>
-      <c r="I208" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J208" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K208" s="174"/>
-      <c r="L208" s="178">
+      <c r="C208" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E208" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" s="166"/>
+      <c r="G208" s="166"/>
+      <c r="H208" s="166"/>
+      <c r="I208" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J208" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K208" s="166"/>
+      <c r="L208" s="170">
         <v>190</v>
       </c>
-      <c r="M208" s="174"/>
-      <c r="N208" s="174"/>
-      <c r="O208" s="182">
+      <c r="M208" s="166"/>
+      <c r="N208" s="166"/>
+      <c r="O208" s="174">
         <v>45131</v>
       </c>
-      <c r="P208" s="174"/>
-      <c r="Q208" s="174"/>
-      <c r="R208" s="174"/>
-      <c r="S208" s="174"/>
-      <c r="T208" s="174"/>
-      <c r="U208" s="174">
+      <c r="P208" s="166"/>
+      <c r="Q208" s="166"/>
+      <c r="R208" s="166"/>
+      <c r="S208" s="166"/>
+      <c r="T208" s="166"/>
+      <c r="U208" s="166">
         <v>0.23780000000000001</v>
       </c>
-      <c r="V208" s="174">
+      <c r="V208" s="166">
         <v>0.2422</v>
       </c>
-      <c r="W208" s="174"/>
-      <c r="X208" s="179">
+      <c r="W208" s="166"/>
+      <c r="X208" s="171">
         <f t="shared" si="4"/>
         <v>4.3999999999999873E-3</v>
       </c>
-      <c r="Y208" s="174"/>
-      <c r="Z208" s="180"/>
-      <c r="AA208" s="181">
+      <c r="Y208" s="166"/>
+      <c r="Z208" s="172"/>
+      <c r="AA208" s="173">
         <f t="shared" si="7"/>
         <v>23.157894736842042</v>
       </c>
@@ -15095,56 +15095,56 @@
       <c r="A209" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B209" s="175">
+      <c r="B209" s="167">
         <f t="shared" si="6"/>
         <v>206</v>
       </c>
-      <c r="C209" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E209" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F209" s="174"/>
-      <c r="G209" s="174"/>
-      <c r="H209" s="174"/>
-      <c r="I209" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J209" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K209" s="174"/>
-      <c r="L209" s="178">
+      <c r="C209" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E209" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F209" s="166"/>
+      <c r="G209" s="166"/>
+      <c r="H209" s="166"/>
+      <c r="I209" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J209" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K209" s="166"/>
+      <c r="L209" s="170">
         <v>200</v>
       </c>
-      <c r="M209" s="174"/>
-      <c r="N209" s="174"/>
-      <c r="O209" s="182">
+      <c r="M209" s="166"/>
+      <c r="N209" s="166"/>
+      <c r="O209" s="174">
         <v>45131</v>
       </c>
-      <c r="P209" s="174"/>
-      <c r="Q209" s="174"/>
-      <c r="R209" s="174"/>
-      <c r="S209" s="174"/>
-      <c r="T209" s="174"/>
-      <c r="U209" s="174">
+      <c r="P209" s="166"/>
+      <c r="Q209" s="166"/>
+      <c r="R209" s="166"/>
+      <c r="S209" s="166"/>
+      <c r="T209" s="166"/>
+      <c r="U209" s="166">
         <v>0.23519999999999999</v>
       </c>
-      <c r="V209" s="174">
+      <c r="V209" s="166">
         <v>0.2382</v>
       </c>
-      <c r="W209" s="174"/>
-      <c r="X209" s="179">
+      <c r="W209" s="166"/>
+      <c r="X209" s="171">
         <f t="shared" si="4"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="Y209" s="174"/>
-      <c r="Z209" s="180"/>
-      <c r="AA209" s="181">
+      <c r="Y209" s="166"/>
+      <c r="Z209" s="172"/>
+      <c r="AA209" s="173">
         <f t="shared" si="7"/>
         <v>15.000000000000014</v>
       </c>
@@ -15153,56 +15153,56 @@
       <c r="A210" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B210" s="175">
+      <c r="B210" s="167">
         <f t="shared" si="6"/>
         <v>207</v>
       </c>
-      <c r="C210" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E210" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="174"/>
-      <c r="G210" s="174"/>
-      <c r="H210" s="174"/>
-      <c r="I210" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J210" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K210" s="174"/>
-      <c r="L210" s="178">
+      <c r="C210" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E210" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="166"/>
+      <c r="G210" s="166"/>
+      <c r="H210" s="166"/>
+      <c r="I210" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J210" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K210" s="166"/>
+      <c r="L210" s="170">
         <v>200</v>
       </c>
-      <c r="M210" s="174"/>
-      <c r="N210" s="174"/>
-      <c r="O210" s="182">
+      <c r="M210" s="166"/>
+      <c r="N210" s="166"/>
+      <c r="O210" s="174">
         <v>45131</v>
       </c>
-      <c r="P210" s="174"/>
-      <c r="Q210" s="174"/>
-      <c r="R210" s="174"/>
-      <c r="S210" s="174"/>
-      <c r="T210" s="174"/>
-      <c r="U210" s="174">
+      <c r="P210" s="166"/>
+      <c r="Q210" s="166"/>
+      <c r="R210" s="166"/>
+      <c r="S210" s="166"/>
+      <c r="T210" s="166"/>
+      <c r="U210" s="166">
         <v>0.2341</v>
       </c>
-      <c r="V210" s="174">
+      <c r="V210" s="166">
         <v>0.23599999999999999</v>
       </c>
-      <c r="W210" s="174"/>
-      <c r="X210" s="179">
+      <c r="W210" s="166"/>
+      <c r="X210" s="171">
         <f t="shared" si="4"/>
         <v>1.899999999999985E-3</v>
       </c>
-      <c r="Y210" s="174"/>
-      <c r="Z210" s="180"/>
-      <c r="AA210" s="181">
+      <c r="Y210" s="166"/>
+      <c r="Z210" s="172"/>
+      <c r="AA210" s="173">
         <f t="shared" si="7"/>
         <v>9.4999999999999254</v>
       </c>
@@ -15498,56 +15498,56 @@
       <c r="A216" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="B216" s="175">
+      <c r="B216" s="167">
         <f t="shared" si="6"/>
         <v>213</v>
       </c>
-      <c r="C216" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E216" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F216" s="174"/>
-      <c r="G216" s="174"/>
-      <c r="H216" s="174"/>
-      <c r="I216" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J216" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K216" s="174"/>
-      <c r="L216" s="178">
+      <c r="C216" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F216" s="166"/>
+      <c r="G216" s="166"/>
+      <c r="H216" s="166"/>
+      <c r="I216" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J216" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K216" s="166"/>
+      <c r="L216" s="170">
         <v>200</v>
       </c>
-      <c r="M216" s="174"/>
-      <c r="N216" s="174"/>
-      <c r="O216" s="182">
+      <c r="M216" s="166"/>
+      <c r="N216" s="166"/>
+      <c r="O216" s="174">
         <v>45131</v>
       </c>
-      <c r="P216" s="174"/>
-      <c r="Q216" s="174"/>
-      <c r="R216" s="174"/>
-      <c r="S216" s="174"/>
-      <c r="T216" s="174"/>
-      <c r="U216" s="174">
+      <c r="P216" s="166"/>
+      <c r="Q216" s="166"/>
+      <c r="R216" s="166"/>
+      <c r="S216" s="166"/>
+      <c r="T216" s="166"/>
+      <c r="U216" s="166">
         <v>0.23100000000000001</v>
       </c>
-      <c r="V216" s="174">
+      <c r="V216" s="166">
         <v>0.23530000000000001</v>
       </c>
-      <c r="W216" s="174"/>
-      <c r="X216" s="179">
+      <c r="W216" s="166"/>
+      <c r="X216" s="171">
         <f t="shared" si="4"/>
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="Y216" s="174"/>
-      <c r="Z216" s="180"/>
-      <c r="AA216" s="181">
+      <c r="Y216" s="166"/>
+      <c r="Z216" s="172"/>
+      <c r="AA216" s="173">
         <f t="shared" si="7"/>
         <v>21.499999999999993</v>
       </c>
@@ -15556,56 +15556,56 @@
       <c r="A217" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B217" s="175">
+      <c r="B217" s="167">
         <f t="shared" si="6"/>
         <v>214</v>
       </c>
-      <c r="C217" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E217" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F217" s="174"/>
-      <c r="G217" s="174"/>
-      <c r="H217" s="174"/>
-      <c r="I217" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J217" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K217" s="174"/>
-      <c r="L217" s="178">
+      <c r="C217" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F217" s="166"/>
+      <c r="G217" s="166"/>
+      <c r="H217" s="166"/>
+      <c r="I217" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J217" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K217" s="166"/>
+      <c r="L217" s="170">
         <v>190</v>
       </c>
-      <c r="M217" s="174"/>
-      <c r="N217" s="174"/>
-      <c r="O217" s="182">
+      <c r="M217" s="166"/>
+      <c r="N217" s="166"/>
+      <c r="O217" s="174">
         <v>45131</v>
       </c>
-      <c r="P217" s="174"/>
-      <c r="Q217" s="174"/>
-      <c r="R217" s="174"/>
-      <c r="S217" s="174"/>
-      <c r="T217" s="174"/>
-      <c r="U217" s="174">
+      <c r="P217" s="166"/>
+      <c r="Q217" s="166"/>
+      <c r="R217" s="166"/>
+      <c r="S217" s="166"/>
+      <c r="T217" s="166"/>
+      <c r="U217" s="166">
         <v>0.2281</v>
       </c>
-      <c r="V217" s="174">
+      <c r="V217" s="166">
         <v>0.23019999999999999</v>
       </c>
-      <c r="W217" s="174"/>
-      <c r="X217" s="179">
+      <c r="W217" s="166"/>
+      <c r="X217" s="171">
         <f t="shared" si="4"/>
         <v>2.0999999999999908E-3</v>
       </c>
-      <c r="Y217" s="174"/>
-      <c r="Z217" s="180"/>
-      <c r="AA217" s="181">
+      <c r="Y217" s="166"/>
+      <c r="Z217" s="172"/>
+      <c r="AA217" s="173">
         <f t="shared" si="7"/>
         <v>11.05263157894732</v>
       </c>
@@ -15614,56 +15614,56 @@
       <c r="A218" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="B218" s="175">
+      <c r="B218" s="167">
         <f t="shared" si="6"/>
         <v>215</v>
       </c>
-      <c r="C218" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E218" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F218" s="174"/>
-      <c r="G218" s="174"/>
-      <c r="H218" s="174"/>
-      <c r="I218" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J218" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K218" s="174"/>
-      <c r="L218" s="178">
+      <c r="C218" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E218" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="166"/>
+      <c r="G218" s="166"/>
+      <c r="H218" s="166"/>
+      <c r="I218" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J218" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K218" s="166"/>
+      <c r="L218" s="170">
         <v>200</v>
       </c>
-      <c r="M218" s="174"/>
-      <c r="N218" s="174"/>
-      <c r="O218" s="182">
+      <c r="M218" s="166"/>
+      <c r="N218" s="166"/>
+      <c r="O218" s="174">
         <v>45131</v>
       </c>
-      <c r="P218" s="174"/>
-      <c r="Q218" s="174"/>
-      <c r="R218" s="174"/>
-      <c r="S218" s="174"/>
-      <c r="T218" s="174"/>
-      <c r="U218" s="174">
+      <c r="P218" s="166"/>
+      <c r="Q218" s="166"/>
+      <c r="R218" s="166"/>
+      <c r="S218" s="166"/>
+      <c r="T218" s="166"/>
+      <c r="U218" s="166">
         <v>0.22850000000000001</v>
       </c>
-      <c r="V218" s="174">
+      <c r="V218" s="166">
         <v>0.2321</v>
       </c>
-      <c r="W218" s="174"/>
-      <c r="X218" s="179">
+      <c r="W218" s="166"/>
+      <c r="X218" s="171">
         <f t="shared" si="4"/>
         <v>3.5999999999999921E-3</v>
       </c>
-      <c r="Y218" s="174"/>
-      <c r="Z218" s="180"/>
-      <c r="AA218" s="181">
+      <c r="Y218" s="166"/>
+      <c r="Z218" s="172"/>
+      <c r="AA218" s="173">
         <f t="shared" si="7"/>
         <v>17.999999999999961</v>
       </c>
@@ -15672,56 +15672,56 @@
       <c r="A219" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="B219" s="175">
+      <c r="B219" s="167">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="C219" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E219" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F219" s="174"/>
-      <c r="G219" s="174"/>
-      <c r="H219" s="174"/>
-      <c r="I219" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J219" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K219" s="174"/>
-      <c r="L219" s="178">
+      <c r="C219" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E219" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F219" s="166"/>
+      <c r="G219" s="166"/>
+      <c r="H219" s="166"/>
+      <c r="I219" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J219" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K219" s="166"/>
+      <c r="L219" s="170">
         <v>200</v>
       </c>
-      <c r="M219" s="174"/>
-      <c r="N219" s="174"/>
-      <c r="O219" s="182">
+      <c r="M219" s="166"/>
+      <c r="N219" s="166"/>
+      <c r="O219" s="174">
         <v>45131</v>
       </c>
-      <c r="P219" s="174"/>
-      <c r="Q219" s="174"/>
-      <c r="R219" s="174"/>
-      <c r="S219" s="174"/>
-      <c r="T219" s="174"/>
-      <c r="U219" s="174">
+      <c r="P219" s="166"/>
+      <c r="Q219" s="166"/>
+      <c r="R219" s="166"/>
+      <c r="S219" s="166"/>
+      <c r="T219" s="166"/>
+      <c r="U219" s="166">
         <v>0.2339</v>
       </c>
-      <c r="V219" s="174">
+      <c r="V219" s="166">
         <v>0.23519999999999999</v>
       </c>
-      <c r="W219" s="174"/>
-      <c r="X219" s="179">
+      <c r="W219" s="166"/>
+      <c r="X219" s="171">
         <f t="shared" si="4"/>
         <v>1.2999999999999956E-3</v>
       </c>
-      <c r="Y219" s="174"/>
-      <c r="Z219" s="180"/>
-      <c r="AA219" s="181">
+      <c r="Y219" s="166"/>
+      <c r="Z219" s="172"/>
+      <c r="AA219" s="173">
         <f t="shared" si="7"/>
         <v>6.4999999999999778</v>
       </c>
@@ -15846,56 +15846,56 @@
       <c r="A222" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="B222" s="175">
+      <c r="B222" s="167">
         <f t="shared" si="6"/>
         <v>219</v>
       </c>
-      <c r="C222" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E222" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F222" s="174"/>
-      <c r="G222" s="174"/>
-      <c r="H222" s="174"/>
-      <c r="I222" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J222" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K222" s="174"/>
-      <c r="L222" s="178">
+      <c r="C222" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F222" s="166"/>
+      <c r="G222" s="166"/>
+      <c r="H222" s="166"/>
+      <c r="I222" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J222" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K222" s="166"/>
+      <c r="L222" s="170">
         <v>100</v>
       </c>
-      <c r="M222" s="174"/>
-      <c r="N222" s="174"/>
-      <c r="O222" s="182">
+      <c r="M222" s="166"/>
+      <c r="N222" s="166"/>
+      <c r="O222" s="174">
         <v>45131</v>
       </c>
-      <c r="P222" s="174"/>
-      <c r="Q222" s="174"/>
-      <c r="R222" s="174"/>
-      <c r="S222" s="174"/>
-      <c r="T222" s="174"/>
-      <c r="U222" s="174">
+      <c r="P222" s="166"/>
+      <c r="Q222" s="166"/>
+      <c r="R222" s="166"/>
+      <c r="S222" s="166"/>
+      <c r="T222" s="166"/>
+      <c r="U222" s="166">
         <v>0.23530000000000001</v>
       </c>
-      <c r="V222" s="174">
+      <c r="V222" s="166">
         <v>0.2359</v>
       </c>
-      <c r="W222" s="174"/>
-      <c r="X222" s="179">
+      <c r="W222" s="166"/>
+      <c r="X222" s="171">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-4</v>
       </c>
-      <c r="Y222" s="174"/>
-      <c r="Z222" s="180"/>
-      <c r="AA222" s="181">
+      <c r="Y222" s="166"/>
+      <c r="Z222" s="172"/>
+      <c r="AA222" s="173">
         <f t="shared" si="7"/>
         <v>5.9999999999998943</v>
       </c>
@@ -15904,56 +15904,56 @@
       <c r="A223" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="B223" s="175">
+      <c r="B223" s="167">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="C223" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D223" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E223" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F223" s="174"/>
-      <c r="G223" s="174"/>
-      <c r="H223" s="174"/>
-      <c r="I223" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J223" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K223" s="174"/>
-      <c r="L223" s="178">
+      <c r="C223" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E223" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F223" s="166"/>
+      <c r="G223" s="166"/>
+      <c r="H223" s="166"/>
+      <c r="I223" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J223" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K223" s="166"/>
+      <c r="L223" s="170">
         <v>90</v>
       </c>
-      <c r="M223" s="174"/>
-      <c r="N223" s="174"/>
-      <c r="O223" s="182">
+      <c r="M223" s="166"/>
+      <c r="N223" s="166"/>
+      <c r="O223" s="174">
         <v>45131</v>
       </c>
-      <c r="P223" s="174"/>
-      <c r="Q223" s="174"/>
-      <c r="R223" s="174"/>
-      <c r="S223" s="174"/>
-      <c r="T223" s="174"/>
-      <c r="U223" s="174">
+      <c r="P223" s="166"/>
+      <c r="Q223" s="166"/>
+      <c r="R223" s="166"/>
+      <c r="S223" s="166"/>
+      <c r="T223" s="166"/>
+      <c r="U223" s="166">
         <v>0.2346</v>
       </c>
-      <c r="V223" s="174">
+      <c r="V223" s="166">
         <v>0.2354</v>
       </c>
-      <c r="W223" s="174"/>
-      <c r="X223" s="179">
+      <c r="W223" s="166"/>
+      <c r="X223" s="171">
         <f t="shared" si="4"/>
         <v>7.9999999999999516E-4</v>
       </c>
-      <c r="Y223" s="174"/>
-      <c r="Z223" s="180"/>
-      <c r="AA223" s="181">
+      <c r="Y223" s="166"/>
+      <c r="Z223" s="172"/>
+      <c r="AA223" s="173">
         <f t="shared" si="7"/>
         <v>8.888888888888836</v>
       </c>
@@ -16020,56 +16020,56 @@
       <c r="A225" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B225" s="175">
+      <c r="B225" s="167">
         <f t="shared" si="6"/>
         <v>222</v>
       </c>
-      <c r="C225" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E225" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F225" s="174"/>
-      <c r="G225" s="174"/>
-      <c r="H225" s="174"/>
-      <c r="I225" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J225" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K225" s="174"/>
-      <c r="L225" s="178">
+      <c r="C225" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E225" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F225" s="166"/>
+      <c r="G225" s="166"/>
+      <c r="H225" s="166"/>
+      <c r="I225" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J225" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K225" s="166"/>
+      <c r="L225" s="170">
         <v>190</v>
       </c>
-      <c r="M225" s="174"/>
-      <c r="N225" s="174"/>
-      <c r="O225" s="182">
+      <c r="M225" s="166"/>
+      <c r="N225" s="166"/>
+      <c r="O225" s="174">
         <v>45131</v>
       </c>
-      <c r="P225" s="174"/>
-      <c r="Q225" s="174"/>
-      <c r="R225" s="174"/>
-      <c r="S225" s="174"/>
-      <c r="T225" s="174"/>
-      <c r="U225" s="174">
+      <c r="P225" s="166"/>
+      <c r="Q225" s="166"/>
+      <c r="R225" s="166"/>
+      <c r="S225" s="166"/>
+      <c r="T225" s="166"/>
+      <c r="U225" s="166">
         <v>0.23599999999999999</v>
       </c>
-      <c r="V225" s="174">
+      <c r="V225" s="166">
         <v>0.23769999999999999</v>
       </c>
-      <c r="W225" s="174"/>
-      <c r="X225" s="179">
+      <c r="W225" s="166"/>
+      <c r="X225" s="171">
         <f t="shared" si="4"/>
         <v>1.7000000000000071E-3</v>
       </c>
-      <c r="Y225" s="174"/>
-      <c r="Z225" s="180"/>
-      <c r="AA225" s="181">
+      <c r="Y225" s="166"/>
+      <c r="Z225" s="172"/>
+      <c r="AA225" s="173">
         <f t="shared" si="7"/>
         <v>8.9473684210526692</v>
       </c>
@@ -16184,56 +16184,56 @@
       <c r="A228" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="B228" s="175">
+      <c r="B228" s="167">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
-      <c r="C228" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E228" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F228" s="174"/>
-      <c r="G228" s="174"/>
-      <c r="H228" s="174"/>
-      <c r="I228" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J228" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K228" s="174"/>
-      <c r="L228" s="178">
+      <c r="C228" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F228" s="166"/>
+      <c r="G228" s="166"/>
+      <c r="H228" s="166"/>
+      <c r="I228" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J228" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K228" s="166"/>
+      <c r="L228" s="170">
         <v>200</v>
       </c>
-      <c r="M228" s="174"/>
-      <c r="N228" s="174"/>
-      <c r="O228" s="182">
+      <c r="M228" s="166"/>
+      <c r="N228" s="166"/>
+      <c r="O228" s="174">
         <v>45131</v>
       </c>
-      <c r="P228" s="174"/>
-      <c r="Q228" s="174"/>
-      <c r="R228" s="174"/>
-      <c r="S228" s="174"/>
-      <c r="T228" s="174"/>
-      <c r="U228" s="174">
+      <c r="P228" s="166"/>
+      <c r="Q228" s="166"/>
+      <c r="R228" s="166"/>
+      <c r="S228" s="166"/>
+      <c r="T228" s="166"/>
+      <c r="U228" s="166">
         <v>0.23069999999999999</v>
       </c>
-      <c r="V228" s="174">
+      <c r="V228" s="166">
         <v>0.23530000000000001</v>
       </c>
-      <c r="W228" s="174"/>
-      <c r="X228" s="179">
+      <c r="W228" s="166"/>
+      <c r="X228" s="171">
         <f t="shared" ref="X228:X291" si="8">V228-U228</f>
         <v>4.6000000000000207E-3</v>
       </c>
-      <c r="Y228" s="174"/>
-      <c r="Z228" s="180"/>
-      <c r="AA228" s="181">
+      <c r="Y228" s="166"/>
+      <c r="Z228" s="172"/>
+      <c r="AA228" s="173">
         <f t="shared" ref="AA228" si="9">(X228/L228)*1000*1000</f>
         <v>23.000000000000103</v>
       </c>
@@ -16242,56 +16242,56 @@
       <c r="A229" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="B229" s="175">
+      <c r="B229" s="167">
         <f t="shared" si="6"/>
         <v>226</v>
       </c>
-      <c r="C229" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E229" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F229" s="174"/>
-      <c r="G229" s="174"/>
-      <c r="H229" s="174"/>
-      <c r="I229" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J229" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K229" s="174"/>
-      <c r="L229" s="178">
+      <c r="C229" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E229" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" s="166"/>
+      <c r="G229" s="166"/>
+      <c r="H229" s="166"/>
+      <c r="I229" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J229" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K229" s="166"/>
+      <c r="L229" s="170">
         <v>200</v>
       </c>
-      <c r="M229" s="174"/>
-      <c r="N229" s="174"/>
-      <c r="O229" s="182">
+      <c r="M229" s="166"/>
+      <c r="N229" s="166"/>
+      <c r="O229" s="174">
         <v>45131</v>
       </c>
-      <c r="P229" s="174"/>
-      <c r="Q229" s="174"/>
-      <c r="R229" s="174"/>
-      <c r="S229" s="174"/>
-      <c r="T229" s="174"/>
-      <c r="U229" s="174">
+      <c r="P229" s="166"/>
+      <c r="Q229" s="166"/>
+      <c r="R229" s="166"/>
+      <c r="S229" s="166"/>
+      <c r="T229" s="166"/>
+      <c r="U229" s="166">
         <v>0.22900000000000001</v>
       </c>
-      <c r="V229" s="174">
+      <c r="V229" s="166">
         <v>0.23200000000000001</v>
       </c>
-      <c r="W229" s="174"/>
-      <c r="X229" s="179">
+      <c r="W229" s="166"/>
+      <c r="X229" s="171">
         <f t="shared" si="8"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="Y229" s="174"/>
-      <c r="Z229" s="180"/>
-      <c r="AA229" s="181">
+      <c r="Y229" s="166"/>
+      <c r="Z229" s="172"/>
+      <c r="AA229" s="173">
         <f t="shared" si="7"/>
         <v>15.000000000000014</v>
       </c>
@@ -16300,56 +16300,56 @@
       <c r="A230" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="B230" s="175">
+      <c r="B230" s="167">
         <f>B229+1</f>
         <v>227</v>
       </c>
-      <c r="C230" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E230" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F230" s="174"/>
-      <c r="G230" s="174"/>
-      <c r="H230" s="174"/>
-      <c r="I230" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J230" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K230" s="174"/>
-      <c r="L230" s="178">
+      <c r="C230" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F230" s="166"/>
+      <c r="G230" s="166"/>
+      <c r="H230" s="166"/>
+      <c r="I230" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J230" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K230" s="166"/>
+      <c r="L230" s="170">
         <v>200</v>
       </c>
-      <c r="M230" s="174"/>
-      <c r="N230" s="174"/>
-      <c r="O230" s="182">
+      <c r="M230" s="166"/>
+      <c r="N230" s="166"/>
+      <c r="O230" s="174">
         <v>45131</v>
       </c>
-      <c r="P230" s="174"/>
-      <c r="Q230" s="174"/>
-      <c r="R230" s="174"/>
-      <c r="S230" s="174"/>
-      <c r="T230" s="174"/>
-      <c r="U230" s="174">
+      <c r="P230" s="166"/>
+      <c r="Q230" s="166"/>
+      <c r="R230" s="166"/>
+      <c r="S230" s="166"/>
+      <c r="T230" s="166"/>
+      <c r="U230" s="166">
         <v>0.22850000000000001</v>
       </c>
-      <c r="V230" s="174">
+      <c r="V230" s="166">
         <v>0.23050000000000001</v>
       </c>
-      <c r="W230" s="174"/>
-      <c r="X230" s="179">
+      <c r="W230" s="166"/>
+      <c r="X230" s="171">
         <f t="shared" si="8"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="Y230" s="174"/>
-      <c r="Z230" s="180"/>
-      <c r="AA230" s="181">
+      <c r="Y230" s="166"/>
+      <c r="Z230" s="172"/>
+      <c r="AA230" s="173">
         <f t="shared" si="7"/>
         <v>10.000000000000009</v>
       </c>
@@ -16416,56 +16416,56 @@
       <c r="A232" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="B232" s="175">
+      <c r="B232" s="167">
         <f t="shared" ref="B232:B295" si="10">B231+1</f>
         <v>229</v>
       </c>
-      <c r="C232" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E232" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F232" s="174"/>
-      <c r="G232" s="174"/>
-      <c r="H232" s="174"/>
-      <c r="I232" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J232" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K232" s="174"/>
-      <c r="L232" s="178">
+      <c r="C232" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E232" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" s="166"/>
+      <c r="G232" s="166"/>
+      <c r="H232" s="166"/>
+      <c r="I232" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J232" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K232" s="166"/>
+      <c r="L232" s="170">
         <v>200</v>
       </c>
-      <c r="M232" s="174"/>
-      <c r="N232" s="174"/>
-      <c r="O232" s="182">
+      <c r="M232" s="166"/>
+      <c r="N232" s="166"/>
+      <c r="O232" s="174">
         <v>45131</v>
       </c>
-      <c r="P232" s="174"/>
-      <c r="Q232" s="174"/>
-      <c r="R232" s="174"/>
-      <c r="S232" s="174"/>
-      <c r="T232" s="174"/>
-      <c r="U232" s="174">
+      <c r="P232" s="166"/>
+      <c r="Q232" s="166"/>
+      <c r="R232" s="166"/>
+      <c r="S232" s="166"/>
+      <c r="T232" s="166"/>
+      <c r="U232" s="166">
         <v>0.2354</v>
       </c>
-      <c r="V232" s="174">
+      <c r="V232" s="166">
         <v>0.2361</v>
       </c>
-      <c r="W232" s="174"/>
-      <c r="X232" s="179">
+      <c r="W232" s="166"/>
+      <c r="X232" s="171">
         <f t="shared" si="8"/>
         <v>7.0000000000000617E-4</v>
       </c>
-      <c r="Y232" s="174"/>
-      <c r="Z232" s="180"/>
-      <c r="AA232" s="181">
+      <c r="Y232" s="166"/>
+      <c r="Z232" s="172"/>
+      <c r="AA232" s="173">
         <f t="shared" si="7"/>
         <v>3.5000000000000311</v>
       </c>
@@ -16701,56 +16701,56 @@
       <c r="A237" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="B237" s="175">
+      <c r="B237" s="167">
         <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="C237" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E237" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F237" s="174"/>
-      <c r="G237" s="174"/>
-      <c r="H237" s="174"/>
-      <c r="I237" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J237" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K237" s="174"/>
-      <c r="L237" s="178">
+      <c r="C237" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F237" s="166"/>
+      <c r="G237" s="166"/>
+      <c r="H237" s="166"/>
+      <c r="I237" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J237" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K237" s="166"/>
+      <c r="L237" s="170">
         <v>160</v>
       </c>
-      <c r="M237" s="174"/>
-      <c r="N237" s="174"/>
-      <c r="O237" s="182">
+      <c r="M237" s="166"/>
+      <c r="N237" s="166"/>
+      <c r="O237" s="174">
         <v>45131</v>
       </c>
-      <c r="P237" s="174"/>
-      <c r="Q237" s="174"/>
-      <c r="R237" s="174"/>
-      <c r="S237" s="174"/>
-      <c r="T237" s="174"/>
-      <c r="U237" s="174">
+      <c r="P237" s="166"/>
+      <c r="Q237" s="166"/>
+      <c r="R237" s="166"/>
+      <c r="S237" s="166"/>
+      <c r="T237" s="166"/>
+      <c r="U237" s="166">
         <v>0.23780000000000001</v>
       </c>
-      <c r="V237" s="174">
+      <c r="V237" s="166">
         <v>0.23880000000000001</v>
       </c>
-      <c r="W237" s="174"/>
-      <c r="X237" s="179">
+      <c r="W237" s="166"/>
+      <c r="X237" s="171">
         <f t="shared" si="8"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="Y237" s="174"/>
-      <c r="Z237" s="180"/>
-      <c r="AA237" s="181">
+      <c r="Y237" s="166"/>
+      <c r="Z237" s="172"/>
+      <c r="AA237" s="173">
         <f t="shared" si="7"/>
         <v>6.2500000000000053</v>
       </c>
@@ -16872,56 +16872,56 @@
       <c r="A240" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="B240" s="175">
+      <c r="B240" s="167">
         <f t="shared" si="10"/>
         <v>237</v>
       </c>
-      <c r="C240" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E240" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F240" s="174"/>
-      <c r="G240" s="174"/>
-      <c r="H240" s="174"/>
-      <c r="I240" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J240" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K240" s="174"/>
-      <c r="L240" s="178">
+      <c r="C240" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" s="166"/>
+      <c r="G240" s="166"/>
+      <c r="H240" s="166"/>
+      <c r="I240" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J240" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K240" s="166"/>
+      <c r="L240" s="170">
         <v>150</v>
       </c>
-      <c r="M240" s="174"/>
-      <c r="N240" s="174"/>
-      <c r="O240" s="182">
+      <c r="M240" s="166"/>
+      <c r="N240" s="166"/>
+      <c r="O240" s="174">
         <v>45131</v>
       </c>
-      <c r="P240" s="174"/>
-      <c r="Q240" s="174"/>
-      <c r="R240" s="174"/>
-      <c r="S240" s="174"/>
-      <c r="T240" s="174"/>
-      <c r="U240" s="174">
+      <c r="P240" s="166"/>
+      <c r="Q240" s="166"/>
+      <c r="R240" s="166"/>
+      <c r="S240" s="166"/>
+      <c r="T240" s="166"/>
+      <c r="U240" s="166">
         <v>0.23280000000000001</v>
       </c>
-      <c r="V240" s="174">
+      <c r="V240" s="166">
         <v>0.23350000000000001</v>
       </c>
-      <c r="W240" s="174"/>
-      <c r="X240" s="179">
+      <c r="W240" s="166"/>
+      <c r="X240" s="171">
         <f t="shared" si="8"/>
         <v>7.0000000000000617E-4</v>
       </c>
-      <c r="Y240" s="174"/>
-      <c r="Z240" s="180"/>
-      <c r="AA240" s="181">
+      <c r="Y240" s="166"/>
+      <c r="Z240" s="172"/>
+      <c r="AA240" s="173">
         <f t="shared" si="7"/>
         <v>4.6666666666667078</v>
       </c>
@@ -17046,56 +17046,56 @@
       <c r="A243" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="B243" s="175">
+      <c r="B243" s="167">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="C243" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E243" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F243" s="174"/>
-      <c r="G243" s="174"/>
-      <c r="H243" s="174"/>
-      <c r="I243" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J243" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K243" s="174"/>
-      <c r="L243" s="178">
+      <c r="C243" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" s="166"/>
+      <c r="G243" s="166"/>
+      <c r="H243" s="166"/>
+      <c r="I243" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J243" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K243" s="166"/>
+      <c r="L243" s="170">
         <v>140</v>
       </c>
-      <c r="M243" s="174"/>
-      <c r="N243" s="174"/>
-      <c r="O243" s="182">
+      <c r="M243" s="166"/>
+      <c r="N243" s="166"/>
+      <c r="O243" s="174">
         <v>45131</v>
       </c>
-      <c r="P243" s="174"/>
-      <c r="Q243" s="174"/>
-      <c r="R243" s="174"/>
-      <c r="S243" s="174"/>
-      <c r="T243" s="174"/>
-      <c r="U243" s="174">
+      <c r="P243" s="166"/>
+      <c r="Q243" s="166"/>
+      <c r="R243" s="166"/>
+      <c r="S243" s="166"/>
+      <c r="T243" s="166"/>
+      <c r="U243" s="166">
         <v>0.23400000000000001</v>
       </c>
-      <c r="V243" s="174">
+      <c r="V243" s="166">
         <v>0.23649999999999999</v>
       </c>
-      <c r="W243" s="174"/>
-      <c r="X243" s="179">
+      <c r="W243" s="166"/>
+      <c r="X243" s="171">
         <f t="shared" si="8"/>
         <v>2.4999999999999745E-3</v>
       </c>
-      <c r="Y243" s="174"/>
-      <c r="Z243" s="180"/>
-      <c r="AA243" s="181">
+      <c r="Y243" s="166"/>
+      <c r="Z243" s="172"/>
+      <c r="AA243" s="173">
         <f t="shared" si="7"/>
         <v>17.857142857142676</v>
       </c>
@@ -17162,56 +17162,56 @@
       <c r="A245" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="B245" s="175">
+      <c r="B245" s="167">
         <f t="shared" si="10"/>
         <v>242</v>
       </c>
-      <c r="C245" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D245" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E245" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F245" s="174"/>
-      <c r="G245" s="174"/>
-      <c r="H245" s="174"/>
-      <c r="I245" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J245" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K245" s="174"/>
-      <c r="L245" s="178">
+      <c r="C245" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245" s="166"/>
+      <c r="G245" s="166"/>
+      <c r="H245" s="166"/>
+      <c r="I245" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J245" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K245" s="166"/>
+      <c r="L245" s="170">
         <v>150</v>
       </c>
-      <c r="M245" s="174"/>
-      <c r="N245" s="174"/>
-      <c r="O245" s="182">
+      <c r="M245" s="166"/>
+      <c r="N245" s="166"/>
+      <c r="O245" s="174">
         <v>45131</v>
       </c>
-      <c r="P245" s="174"/>
-      <c r="Q245" s="174"/>
-      <c r="R245" s="174"/>
-      <c r="S245" s="174"/>
-      <c r="T245" s="174"/>
-      <c r="U245" s="174">
+      <c r="P245" s="166"/>
+      <c r="Q245" s="166"/>
+      <c r="R245" s="166"/>
+      <c r="S245" s="166"/>
+      <c r="T245" s="166"/>
+      <c r="U245" s="166">
         <v>0.23469999999999999</v>
       </c>
-      <c r="V245" s="174">
+      <c r="V245" s="166">
         <v>0.23569999999999999</v>
       </c>
-      <c r="W245" s="174"/>
-      <c r="X245" s="179">
+      <c r="W245" s="166"/>
+      <c r="X245" s="171">
         <f t="shared" si="8"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="Y245" s="174"/>
-      <c r="Z245" s="180"/>
-      <c r="AA245" s="181">
+      <c r="Y245" s="166"/>
+      <c r="Z245" s="172"/>
+      <c r="AA245" s="173">
         <f t="shared" si="7"/>
         <v>6.6666666666666723</v>
       </c>
@@ -17278,56 +17278,56 @@
       <c r="A247" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="B247" s="175">
+      <c r="B247" s="167">
         <f t="shared" si="10"/>
         <v>244</v>
       </c>
-      <c r="C247" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E247" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F247" s="174"/>
-      <c r="G247" s="174"/>
-      <c r="H247" s="174"/>
-      <c r="I247" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J247" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K247" s="174"/>
-      <c r="L247" s="178">
+      <c r="C247" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E247" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="166"/>
+      <c r="G247" s="166"/>
+      <c r="H247" s="166"/>
+      <c r="I247" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J247" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K247" s="166"/>
+      <c r="L247" s="170">
         <v>150</v>
       </c>
-      <c r="M247" s="174"/>
-      <c r="N247" s="174"/>
-      <c r="O247" s="182">
+      <c r="M247" s="166"/>
+      <c r="N247" s="166"/>
+      <c r="O247" s="174">
         <v>45131</v>
       </c>
-      <c r="P247" s="174"/>
-      <c r="Q247" s="174"/>
-      <c r="R247" s="174"/>
-      <c r="S247" s="174"/>
-      <c r="T247" s="174"/>
-      <c r="U247" s="174">
+      <c r="P247" s="166"/>
+      <c r="Q247" s="166"/>
+      <c r="R247" s="166"/>
+      <c r="S247" s="166"/>
+      <c r="T247" s="166"/>
+      <c r="U247" s="166">
         <v>0.23799999999999999</v>
       </c>
-      <c r="V247" s="174">
+      <c r="V247" s="166">
         <v>0.23880000000000001</v>
       </c>
-      <c r="W247" s="174"/>
-      <c r="X247" s="179">
+      <c r="W247" s="166"/>
+      <c r="X247" s="171">
         <f t="shared" si="8"/>
         <v>8.0000000000002292E-4</v>
       </c>
-      <c r="Y247" s="174"/>
-      <c r="Z247" s="180"/>
-      <c r="AA247" s="181">
+      <c r="Y247" s="166"/>
+      <c r="Z247" s="172"/>
+      <c r="AA247" s="173">
         <f t="shared" si="7"/>
         <v>5.3333333333334858</v>
       </c>
@@ -17336,56 +17336,56 @@
       <c r="A248" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="B248" s="175">
+      <c r="B248" s="167">
         <f t="shared" si="10"/>
         <v>245</v>
       </c>
-      <c r="C248" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E248" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F248" s="174"/>
-      <c r="G248" s="174"/>
-      <c r="H248" s="174"/>
-      <c r="I248" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J248" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K248" s="174"/>
-      <c r="L248" s="178">
+      <c r="C248" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E248" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F248" s="166"/>
+      <c r="G248" s="166"/>
+      <c r="H248" s="166"/>
+      <c r="I248" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J248" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K248" s="166"/>
+      <c r="L248" s="170">
         <v>150</v>
       </c>
-      <c r="M248" s="174"/>
-      <c r="N248" s="174"/>
-      <c r="O248" s="182">
+      <c r="M248" s="166"/>
+      <c r="N248" s="166"/>
+      <c r="O248" s="174">
         <v>45131</v>
       </c>
-      <c r="P248" s="174"/>
-      <c r="Q248" s="174"/>
-      <c r="R248" s="174"/>
-      <c r="S248" s="174"/>
-      <c r="T248" s="174"/>
-      <c r="U248" s="174">
+      <c r="P248" s="166"/>
+      <c r="Q248" s="166"/>
+      <c r="R248" s="166"/>
+      <c r="S248" s="166"/>
+      <c r="T248" s="166"/>
+      <c r="U248" s="166">
         <v>0.23319999999999999</v>
       </c>
-      <c r="V248" s="174">
+      <c r="V248" s="166">
         <v>0.2344</v>
       </c>
-      <c r="W248" s="174"/>
-      <c r="X248" s="179">
+      <c r="W248" s="166"/>
+      <c r="X248" s="171">
         <f t="shared" si="8"/>
         <v>1.2000000000000066E-3</v>
       </c>
-      <c r="Y248" s="174"/>
-      <c r="Z248" s="180"/>
-      <c r="AA248" s="181">
+      <c r="Y248" s="166"/>
+      <c r="Z248" s="172"/>
+      <c r="AA248" s="173">
         <f t="shared" si="7"/>
         <v>8.0000000000000444</v>
       </c>
@@ -17623,56 +17623,56 @@
       <c r="A253" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="B253" s="175">
+      <c r="B253" s="167">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="C253" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E253" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F253" s="174"/>
-      <c r="G253" s="174"/>
-      <c r="H253" s="174"/>
-      <c r="I253" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J253" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K253" s="174"/>
-      <c r="L253" s="178">
+      <c r="C253" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E253" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="166"/>
+      <c r="G253" s="166"/>
+      <c r="H253" s="166"/>
+      <c r="I253" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J253" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K253" s="166"/>
+      <c r="L253" s="170">
         <v>150</v>
       </c>
-      <c r="M253" s="174"/>
-      <c r="N253" s="174"/>
-      <c r="O253" s="182">
+      <c r="M253" s="166"/>
+      <c r="N253" s="166"/>
+      <c r="O253" s="174">
         <v>45131</v>
       </c>
-      <c r="P253" s="174"/>
-      <c r="Q253" s="174"/>
-      <c r="R253" s="174"/>
-      <c r="S253" s="174"/>
-      <c r="T253" s="174"/>
-      <c r="U253" s="174">
+      <c r="P253" s="166"/>
+      <c r="Q253" s="166"/>
+      <c r="R253" s="166"/>
+      <c r="S253" s="166"/>
+      <c r="T253" s="166"/>
+      <c r="U253" s="166">
         <v>0.23519999999999999</v>
       </c>
-      <c r="V253" s="174">
+      <c r="V253" s="166">
         <v>0.23649999999999999</v>
       </c>
-      <c r="W253" s="174"/>
-      <c r="X253" s="179">
+      <c r="W253" s="166"/>
+      <c r="X253" s="171">
         <f t="shared" si="8"/>
         <v>1.2999999999999956E-3</v>
       </c>
-      <c r="Y253" s="174"/>
-      <c r="Z253" s="180"/>
-      <c r="AA253" s="181">
+      <c r="Y253" s="166"/>
+      <c r="Z253" s="172"/>
+      <c r="AA253" s="173">
         <f t="shared" si="7"/>
         <v>8.6666666666666377</v>
       </c>
@@ -17739,106 +17739,106 @@
       <c r="A255" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="B255" s="175">
+      <c r="B255" s="167">
         <f t="shared" si="10"/>
         <v>252</v>
       </c>
-      <c r="C255" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D255" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E255" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F255" s="174"/>
-      <c r="G255" s="174"/>
-      <c r="H255" s="174"/>
-      <c r="I255" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J255" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K255" s="174"/>
-      <c r="L255" s="178">
+      <c r="C255" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E255" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" s="166"/>
+      <c r="G255" s="166"/>
+      <c r="H255" s="166"/>
+      <c r="I255" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J255" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K255" s="166"/>
+      <c r="L255" s="170">
         <v>150</v>
       </c>
-      <c r="M255" s="174"/>
-      <c r="N255" s="174"/>
-      <c r="O255" s="182">
+      <c r="M255" s="166"/>
+      <c r="N255" s="166"/>
+      <c r="O255" s="174">
         <v>45131</v>
       </c>
-      <c r="P255" s="174"/>
-      <c r="Q255" s="174"/>
-      <c r="R255" s="174"/>
-      <c r="S255" s="174"/>
-      <c r="T255" s="174"/>
-      <c r="U255" s="174">
+      <c r="P255" s="166"/>
+      <c r="Q255" s="166"/>
+      <c r="R255" s="166"/>
+      <c r="S255" s="166"/>
+      <c r="T255" s="166"/>
+      <c r="U255" s="166">
         <v>0.23319999999999999</v>
       </c>
-      <c r="V255" s="174"/>
-      <c r="W255" s="174"/>
-      <c r="X255" s="179"/>
-      <c r="Y255" s="174"/>
-      <c r="Z255" s="180"/>
-      <c r="AA255" s="181"/>
+      <c r="V255" s="166"/>
+      <c r="W255" s="166"/>
+      <c r="X255" s="171"/>
+      <c r="Y255" s="166"/>
+      <c r="Z255" s="172"/>
+      <c r="AA255" s="173"/>
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="B256" s="175">
+      <c r="B256" s="167">
         <f t="shared" si="10"/>
         <v>253</v>
       </c>
-      <c r="C256" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E256" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F256" s="174"/>
-      <c r="G256" s="174"/>
-      <c r="H256" s="174"/>
-      <c r="I256" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J256" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K256" s="174"/>
-      <c r="L256" s="178">
+      <c r="C256" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E256" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" s="166"/>
+      <c r="G256" s="166"/>
+      <c r="H256" s="166"/>
+      <c r="I256" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J256" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K256" s="166"/>
+      <c r="L256" s="170">
         <v>160</v>
       </c>
-      <c r="M256" s="174"/>
-      <c r="N256" s="174"/>
-      <c r="O256" s="182">
+      <c r="M256" s="166"/>
+      <c r="N256" s="166"/>
+      <c r="O256" s="174">
         <v>45131</v>
       </c>
-      <c r="P256" s="174"/>
-      <c r="Q256" s="174"/>
-      <c r="R256" s="174"/>
-      <c r="S256" s="174"/>
-      <c r="T256" s="174"/>
-      <c r="U256" s="174">
+      <c r="P256" s="166"/>
+      <c r="Q256" s="166"/>
+      <c r="R256" s="166"/>
+      <c r="S256" s="166"/>
+      <c r="T256" s="166"/>
+      <c r="U256" s="166">
         <v>0.2311</v>
       </c>
-      <c r="V256" s="174">
+      <c r="V256" s="166">
         <v>0.23350000000000001</v>
       </c>
-      <c r="W256" s="174"/>
-      <c r="X256" s="179">
+      <c r="W256" s="166"/>
+      <c r="X256" s="171">
         <f t="shared" si="8"/>
         <v>2.4000000000000132E-3</v>
       </c>
-      <c r="Y256" s="174"/>
-      <c r="Z256" s="180"/>
-      <c r="AA256" s="181">
+      <c r="Y256" s="166"/>
+      <c r="Z256" s="172"/>
+      <c r="AA256" s="173">
         <f t="shared" si="7"/>
         <v>15.000000000000083</v>
       </c>
@@ -18700,54 +18700,54 @@
       <c r="A272" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="B272" s="175">
+      <c r="B272" s="167">
         <f t="shared" si="10"/>
         <v>269</v>
       </c>
-      <c r="C272" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E272" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F272" s="174"/>
-      <c r="G272" s="174"/>
-      <c r="H272" s="174"/>
-      <c r="I272" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J272" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K272" s="174"/>
-      <c r="L272" s="178">
+      <c r="C272" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E272" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F272" s="166"/>
+      <c r="G272" s="166"/>
+      <c r="H272" s="166"/>
+      <c r="I272" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J272" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K272" s="166"/>
+      <c r="L272" s="170">
         <v>140</v>
       </c>
-      <c r="M272" s="174"/>
-      <c r="N272" s="174"/>
-      <c r="O272" s="174"/>
-      <c r="P272" s="174"/>
-      <c r="Q272" s="174"/>
-      <c r="R272" s="174"/>
-      <c r="S272" s="174"/>
-      <c r="T272" s="174"/>
-      <c r="U272" s="174">
+      <c r="M272" s="166"/>
+      <c r="N272" s="166"/>
+      <c r="O272" s="166"/>
+      <c r="P272" s="166"/>
+      <c r="Q272" s="166"/>
+      <c r="R272" s="166"/>
+      <c r="S272" s="166"/>
+      <c r="T272" s="166"/>
+      <c r="U272" s="166">
         <v>0.23089999999999999</v>
       </c>
-      <c r="V272" s="174">
+      <c r="V272" s="166">
         <v>0.2319</v>
       </c>
-      <c r="W272" s="174"/>
-      <c r="X272" s="179">
+      <c r="W272" s="166"/>
+      <c r="X272" s="171">
         <f t="shared" si="8"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="Y272" s="174"/>
-      <c r="Z272" s="180"/>
-      <c r="AA272" s="181">
+      <c r="Y272" s="166"/>
+      <c r="Z272" s="172"/>
+      <c r="AA272" s="173">
         <f t="shared" si="11"/>
         <v>7.1428571428571495</v>
       </c>
@@ -19916,54 +19916,54 @@
       <c r="A294" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="B294" s="175">
+      <c r="B294" s="167">
         <f t="shared" si="10"/>
         <v>291</v>
       </c>
-      <c r="C294" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D294" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E294" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F294" s="174"/>
-      <c r="G294" s="174"/>
-      <c r="H294" s="174"/>
-      <c r="I294" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J294" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K294" s="174"/>
-      <c r="L294" s="178">
+      <c r="C294" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E294" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F294" s="166"/>
+      <c r="G294" s="166"/>
+      <c r="H294" s="166"/>
+      <c r="I294" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J294" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K294" s="166"/>
+      <c r="L294" s="170">
         <v>150</v>
       </c>
-      <c r="M294" s="174"/>
-      <c r="N294" s="174"/>
-      <c r="O294" s="174"/>
-      <c r="P294" s="174"/>
-      <c r="Q294" s="174"/>
-      <c r="R294" s="174"/>
-      <c r="S294" s="174"/>
-      <c r="T294" s="174"/>
-      <c r="U294" s="174">
+      <c r="M294" s="166"/>
+      <c r="N294" s="166"/>
+      <c r="O294" s="166"/>
+      <c r="P294" s="166"/>
+      <c r="Q294" s="166"/>
+      <c r="R294" s="166"/>
+      <c r="S294" s="166"/>
+      <c r="T294" s="166"/>
+      <c r="U294" s="166">
         <v>0.2321</v>
       </c>
-      <c r="V294" s="174">
+      <c r="V294" s="166">
         <v>0.2331</v>
       </c>
-      <c r="W294" s="174"/>
-      <c r="X294" s="179">
+      <c r="W294" s="166"/>
+      <c r="X294" s="171">
         <f t="shared" si="12"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="Y294" s="174"/>
-      <c r="Z294" s="180"/>
-      <c r="AA294" s="181">
+      <c r="Y294" s="166"/>
+      <c r="Z294" s="172"/>
+      <c r="AA294" s="173">
         <f t="shared" si="11"/>
         <v>6.6666666666666723</v>
       </c>
@@ -20921,113 +20921,113 @@
       </c>
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A312" s="174" t="s">
+      <c r="A312" s="166" t="s">
         <v>346</v>
       </c>
-      <c r="B312" s="175">
+      <c r="B312" s="167">
         <f t="shared" si="13"/>
         <v>309</v>
       </c>
-      <c r="C312" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D312" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E312" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F312" s="174"/>
-      <c r="G312" s="174"/>
-      <c r="H312" s="174"/>
-      <c r="I312" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J312" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K312" s="174"/>
-      <c r="L312" s="178">
+      <c r="C312" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E312" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" s="166"/>
+      <c r="G312" s="166"/>
+      <c r="H312" s="166"/>
+      <c r="I312" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J312" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K312" s="166"/>
+      <c r="L312" s="170">
         <v>150</v>
       </c>
-      <c r="M312" s="174"/>
-      <c r="N312" s="174"/>
-      <c r="O312" s="174"/>
-      <c r="P312" s="174"/>
-      <c r="Q312" s="174"/>
-      <c r="R312" s="174"/>
-      <c r="S312" s="174"/>
-      <c r="T312" s="174"/>
-      <c r="U312" s="174">
+      <c r="M312" s="166"/>
+      <c r="N312" s="166"/>
+      <c r="O312" s="166"/>
+      <c r="P312" s="166"/>
+      <c r="Q312" s="166"/>
+      <c r="R312" s="166"/>
+      <c r="S312" s="166"/>
+      <c r="T312" s="166"/>
+      <c r="U312" s="166">
         <v>0.2354</v>
       </c>
-      <c r="V312" s="174">
+      <c r="V312" s="166">
         <v>0.23730000000000001</v>
       </c>
-      <c r="W312" s="174"/>
-      <c r="X312" s="179">
+      <c r="W312" s="166"/>
+      <c r="X312" s="171">
         <f t="shared" si="12"/>
         <v>1.9000000000000128E-3</v>
       </c>
-      <c r="Y312" s="174"/>
-      <c r="Z312" s="180"/>
-      <c r="AA312" s="181">
+      <c r="Y312" s="166"/>
+      <c r="Z312" s="172"/>
+      <c r="AA312" s="173">
         <f t="shared" si="11"/>
         <v>12.666666666666751</v>
       </c>
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A313" s="174" t="s">
+      <c r="A313" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="B313" s="175">
+      <c r="B313" s="167">
         <f t="shared" si="13"/>
         <v>310</v>
       </c>
-      <c r="C313" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D313" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E313" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F313" s="174"/>
-      <c r="G313" s="174"/>
-      <c r="H313" s="174"/>
-      <c r="I313" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J313" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K313" s="174"/>
-      <c r="L313" s="178">
+      <c r="C313" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E313" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F313" s="166"/>
+      <c r="G313" s="166"/>
+      <c r="H313" s="166"/>
+      <c r="I313" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J313" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K313" s="166"/>
+      <c r="L313" s="170">
         <v>140</v>
       </c>
-      <c r="M313" s="174"/>
-      <c r="N313" s="174"/>
-      <c r="O313" s="174"/>
-      <c r="P313" s="174"/>
-      <c r="Q313" s="174"/>
-      <c r="R313" s="174"/>
-      <c r="S313" s="174"/>
-      <c r="T313" s="174"/>
-      <c r="U313" s="174">
+      <c r="M313" s="166"/>
+      <c r="N313" s="166"/>
+      <c r="O313" s="166"/>
+      <c r="P313" s="166"/>
+      <c r="Q313" s="166"/>
+      <c r="R313" s="166"/>
+      <c r="S313" s="166"/>
+      <c r="T313" s="166"/>
+      <c r="U313" s="166">
         <v>0.2351</v>
       </c>
-      <c r="V313" s="174">
+      <c r="V313" s="166">
         <v>0.2414</v>
       </c>
-      <c r="W313" s="174"/>
-      <c r="X313" s="179">
+      <c r="W313" s="166"/>
+      <c r="X313" s="171">
         <f t="shared" si="12"/>
         <v>6.3E-3</v>
       </c>
-      <c r="Y313" s="174"/>
-      <c r="Z313" s="180"/>
-      <c r="AA313" s="181">
+      <c r="Y313" s="166"/>
+      <c r="Z313" s="172"/>
+      <c r="AA313" s="173">
         <f t="shared" si="11"/>
         <v>45.000000000000007</v>
       </c>
@@ -21704,113 +21704,113 @@
       </c>
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A326" s="174" t="s">
+      <c r="A326" s="166" t="s">
         <v>360</v>
       </c>
-      <c r="B326" s="175">
+      <c r="B326" s="167">
         <f t="shared" si="13"/>
         <v>323</v>
       </c>
-      <c r="C326" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D326" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E326" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F326" s="174"/>
-      <c r="G326" s="174"/>
-      <c r="H326" s="174"/>
-      <c r="I326" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J326" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K326" s="174"/>
-      <c r="L326" s="178">
+      <c r="C326" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E326" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F326" s="166"/>
+      <c r="G326" s="166"/>
+      <c r="H326" s="166"/>
+      <c r="I326" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J326" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K326" s="166"/>
+      <c r="L326" s="170">
         <v>150</v>
       </c>
-      <c r="M326" s="174"/>
-      <c r="N326" s="174"/>
-      <c r="O326" s="174"/>
-      <c r="P326" s="174"/>
-      <c r="Q326" s="174"/>
-      <c r="R326" s="174"/>
-      <c r="S326" s="174"/>
-      <c r="T326" s="174"/>
-      <c r="U326" s="174">
+      <c r="M326" s="166"/>
+      <c r="N326" s="166"/>
+      <c r="O326" s="166"/>
+      <c r="P326" s="166"/>
+      <c r="Q326" s="166"/>
+      <c r="R326" s="166"/>
+      <c r="S326" s="166"/>
+      <c r="T326" s="166"/>
+      <c r="U326" s="166">
         <v>0.2293</v>
       </c>
-      <c r="V326" s="174">
+      <c r="V326" s="166">
         <v>0.2356</v>
       </c>
-      <c r="W326" s="174"/>
-      <c r="X326" s="179">
+      <c r="W326" s="166"/>
+      <c r="X326" s="171">
         <f t="shared" si="12"/>
         <v>6.3E-3</v>
       </c>
-      <c r="Y326" s="174"/>
-      <c r="Z326" s="180"/>
-      <c r="AA326" s="181">
+      <c r="Y326" s="166"/>
+      <c r="Z326" s="172"/>
+      <c r="AA326" s="173">
         <f t="shared" ref="AA326:AA359" si="14">(X326/L326)*1000*1000</f>
         <v>41.999999999999993</v>
       </c>
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A327" s="174" t="s">
+      <c r="A327" s="166" t="s">
         <v>361</v>
       </c>
-      <c r="B327" s="175">
+      <c r="B327" s="167">
         <f t="shared" si="13"/>
         <v>324</v>
       </c>
-      <c r="C327" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D327" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E327" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F327" s="174"/>
-      <c r="G327" s="174"/>
-      <c r="H327" s="174"/>
-      <c r="I327" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J327" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K327" s="174"/>
-      <c r="L327" s="178">
+      <c r="C327" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E327" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F327" s="166"/>
+      <c r="G327" s="166"/>
+      <c r="H327" s="166"/>
+      <c r="I327" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J327" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K327" s="166"/>
+      <c r="L327" s="170">
         <v>155</v>
       </c>
-      <c r="M327" s="174"/>
-      <c r="N327" s="174"/>
-      <c r="O327" s="174"/>
-      <c r="P327" s="174"/>
-      <c r="Q327" s="174"/>
-      <c r="R327" s="174"/>
-      <c r="S327" s="174"/>
-      <c r="T327" s="174"/>
-      <c r="U327" s="174">
+      <c r="M327" s="166"/>
+      <c r="N327" s="166"/>
+      <c r="O327" s="166"/>
+      <c r="P327" s="166"/>
+      <c r="Q327" s="166"/>
+      <c r="R327" s="166"/>
+      <c r="S327" s="166"/>
+      <c r="T327" s="166"/>
+      <c r="U327" s="166">
         <v>0.2301</v>
       </c>
-      <c r="V327" s="174">
+      <c r="V327" s="166">
         <v>0.23280000000000001</v>
       </c>
-      <c r="W327" s="174"/>
-      <c r="X327" s="179">
+      <c r="W327" s="166"/>
+      <c r="X327" s="171">
         <f t="shared" si="12"/>
         <v>2.7000000000000079E-3</v>
       </c>
-      <c r="Y327" s="174"/>
-      <c r="Z327" s="180"/>
-      <c r="AA327" s="181">
+      <c r="Y327" s="166"/>
+      <c r="Z327" s="172"/>
+      <c r="AA327" s="173">
         <f t="shared" si="14"/>
         <v>17.419354838709729</v>
       </c>
@@ -21928,113 +21928,113 @@
       </c>
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A330" s="174" t="s">
+      <c r="A330" s="166" t="s">
         <v>364</v>
       </c>
-      <c r="B330" s="175">
+      <c r="B330" s="167">
         <f t="shared" si="13"/>
         <v>327</v>
       </c>
-      <c r="C330" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D330" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E330" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F330" s="174"/>
-      <c r="G330" s="174"/>
-      <c r="H330" s="174"/>
-      <c r="I330" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J330" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K330" s="174"/>
-      <c r="L330" s="178">
+      <c r="C330" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E330" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F330" s="166"/>
+      <c r="G330" s="166"/>
+      <c r="H330" s="166"/>
+      <c r="I330" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J330" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K330" s="166"/>
+      <c r="L330" s="170">
         <v>150</v>
       </c>
-      <c r="M330" s="174"/>
-      <c r="N330" s="174"/>
-      <c r="O330" s="174"/>
-      <c r="P330" s="174"/>
-      <c r="Q330" s="174"/>
-      <c r="R330" s="174"/>
-      <c r="S330" s="174"/>
-      <c r="T330" s="174"/>
-      <c r="U330" s="174">
+      <c r="M330" s="166"/>
+      <c r="N330" s="166"/>
+      <c r="O330" s="166"/>
+      <c r="P330" s="166"/>
+      <c r="Q330" s="166"/>
+      <c r="R330" s="166"/>
+      <c r="S330" s="166"/>
+      <c r="T330" s="166"/>
+      <c r="U330" s="166">
         <v>0.23319999999999999</v>
       </c>
-      <c r="V330" s="174">
+      <c r="V330" s="166">
         <v>0.2341</v>
       </c>
-      <c r="W330" s="174"/>
-      <c r="X330" s="179">
+      <c r="W330" s="166"/>
+      <c r="X330" s="171">
         <f t="shared" si="12"/>
         <v>9.000000000000119E-4</v>
       </c>
-      <c r="Y330" s="174"/>
-      <c r="Z330" s="180"/>
-      <c r="AA330" s="181">
+      <c r="Y330" s="166"/>
+      <c r="Z330" s="172"/>
+      <c r="AA330" s="173">
         <f t="shared" si="14"/>
         <v>6.000000000000079</v>
       </c>
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A331" s="174" t="s">
+      <c r="A331" s="166" t="s">
         <v>387</v>
       </c>
-      <c r="B331" s="175">
+      <c r="B331" s="167">
         <f t="shared" si="13"/>
         <v>328</v>
       </c>
-      <c r="C331" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D331" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E331" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F331" s="174"/>
-      <c r="G331" s="174"/>
-      <c r="H331" s="174"/>
-      <c r="I331" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J331" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K331" s="174"/>
-      <c r="L331" s="178">
+      <c r="C331" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E331" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F331" s="166"/>
+      <c r="G331" s="166"/>
+      <c r="H331" s="166"/>
+      <c r="I331" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J331" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K331" s="166"/>
+      <c r="L331" s="170">
         <v>150</v>
       </c>
-      <c r="M331" s="174"/>
-      <c r="N331" s="174"/>
-      <c r="O331" s="174"/>
-      <c r="P331" s="174"/>
-      <c r="Q331" s="174"/>
-      <c r="R331" s="174"/>
-      <c r="S331" s="174"/>
-      <c r="T331" s="174"/>
-      <c r="U331" s="174">
+      <c r="M331" s="166"/>
+      <c r="N331" s="166"/>
+      <c r="O331" s="166"/>
+      <c r="P331" s="166"/>
+      <c r="Q331" s="166"/>
+      <c r="R331" s="166"/>
+      <c r="S331" s="166"/>
+      <c r="T331" s="166"/>
+      <c r="U331" s="166">
         <v>0.23849999999999999</v>
       </c>
-      <c r="V331" s="174">
+      <c r="V331" s="166">
         <v>0.24149999999999999</v>
       </c>
-      <c r="W331" s="174"/>
-      <c r="X331" s="179">
+      <c r="W331" s="166"/>
+      <c r="X331" s="171">
         <f t="shared" si="12"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="Y331" s="174"/>
-      <c r="Z331" s="180"/>
-      <c r="AA331" s="181">
+      <c r="Y331" s="166"/>
+      <c r="Z331" s="172"/>
+      <c r="AA331" s="173">
         <f t="shared" si="14"/>
         <v>20.000000000000018</v>
       </c>
@@ -22320,113 +22320,113 @@
       </c>
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A337" s="174" t="s">
+      <c r="A337" s="166" t="s">
         <v>365</v>
       </c>
-      <c r="B337" s="175">
+      <c r="B337" s="167">
         <f t="shared" si="13"/>
         <v>334</v>
       </c>
-      <c r="C337" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D337" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E337" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F337" s="174"/>
-      <c r="G337" s="174"/>
-      <c r="H337" s="174"/>
-      <c r="I337" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J337" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K337" s="174"/>
-      <c r="L337" s="178">
+      <c r="C337" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E337" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F337" s="166"/>
+      <c r="G337" s="166"/>
+      <c r="H337" s="166"/>
+      <c r="I337" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J337" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K337" s="166"/>
+      <c r="L337" s="170">
         <v>150</v>
       </c>
-      <c r="M337" s="174"/>
-      <c r="N337" s="174"/>
-      <c r="O337" s="174"/>
-      <c r="P337" s="174"/>
-      <c r="Q337" s="174"/>
-      <c r="R337" s="174"/>
-      <c r="S337" s="174"/>
-      <c r="T337" s="174"/>
-      <c r="U337" s="174">
+      <c r="M337" s="166"/>
+      <c r="N337" s="166"/>
+      <c r="O337" s="166"/>
+      <c r="P337" s="166"/>
+      <c r="Q337" s="166"/>
+      <c r="R337" s="166"/>
+      <c r="S337" s="166"/>
+      <c r="T337" s="166"/>
+      <c r="U337" s="166">
         <v>0.23150000000000001</v>
       </c>
-      <c r="V337" s="174">
+      <c r="V337" s="166">
         <v>0.2331</v>
       </c>
-      <c r="W337" s="174"/>
-      <c r="X337" s="179">
+      <c r="W337" s="166"/>
+      <c r="X337" s="171">
         <f t="shared" si="12"/>
         <v>1.5999999999999903E-3</v>
       </c>
-      <c r="Y337" s="174"/>
-      <c r="Z337" s="180"/>
-      <c r="AA337" s="181">
+      <c r="Y337" s="166"/>
+      <c r="Z337" s="172"/>
+      <c r="AA337" s="173">
         <f t="shared" si="14"/>
         <v>10.666666666666602</v>
       </c>
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A338" s="174" t="s">
+      <c r="A338" s="166" t="s">
         <v>366</v>
       </c>
-      <c r="B338" s="175">
+      <c r="B338" s="167">
         <f t="shared" si="13"/>
         <v>335</v>
       </c>
-      <c r="C338" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D338" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E338" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F338" s="174"/>
-      <c r="G338" s="174"/>
-      <c r="H338" s="174"/>
-      <c r="I338" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J338" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K338" s="174"/>
-      <c r="L338" s="178">
+      <c r="C338" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E338" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F338" s="166"/>
+      <c r="G338" s="166"/>
+      <c r="H338" s="166"/>
+      <c r="I338" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J338" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K338" s="166"/>
+      <c r="L338" s="170">
         <v>160</v>
       </c>
-      <c r="M338" s="174"/>
-      <c r="N338" s="174"/>
-      <c r="O338" s="174"/>
-      <c r="P338" s="174"/>
-      <c r="Q338" s="174"/>
-      <c r="R338" s="174"/>
-      <c r="S338" s="174"/>
-      <c r="T338" s="174"/>
-      <c r="U338" s="174">
+      <c r="M338" s="166"/>
+      <c r="N338" s="166"/>
+      <c r="O338" s="166"/>
+      <c r="P338" s="166"/>
+      <c r="Q338" s="166"/>
+      <c r="R338" s="166"/>
+      <c r="S338" s="166"/>
+      <c r="T338" s="166"/>
+      <c r="U338" s="166">
         <v>0.23280000000000001</v>
       </c>
-      <c r="V338" s="174">
+      <c r="V338" s="166">
         <v>0.23669999999999999</v>
       </c>
-      <c r="W338" s="174"/>
-      <c r="X338" s="179">
+      <c r="W338" s="166"/>
+      <c r="X338" s="171">
         <f t="shared" si="12"/>
         <v>3.8999999999999868E-3</v>
       </c>
-      <c r="Y338" s="174"/>
-      <c r="Z338" s="180"/>
-      <c r="AA338" s="181">
+      <c r="Y338" s="166"/>
+      <c r="Z338" s="172"/>
+      <c r="AA338" s="173">
         <f t="shared" si="14"/>
         <v>24.374999999999918</v>
       </c>
@@ -22544,113 +22544,113 @@
       </c>
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A341" s="174" t="s">
+      <c r="A341" s="166" t="s">
         <v>369</v>
       </c>
-      <c r="B341" s="175">
+      <c r="B341" s="167">
         <f t="shared" si="13"/>
         <v>338</v>
       </c>
-      <c r="C341" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D341" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E341" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F341" s="174"/>
-      <c r="G341" s="174"/>
-      <c r="H341" s="174"/>
-      <c r="I341" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J341" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K341" s="174"/>
-      <c r="L341" s="178">
+      <c r="C341" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E341" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F341" s="166"/>
+      <c r="G341" s="166"/>
+      <c r="H341" s="166"/>
+      <c r="I341" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J341" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K341" s="166"/>
+      <c r="L341" s="170">
         <v>140</v>
       </c>
-      <c r="M341" s="174"/>
-      <c r="N341" s="174"/>
-      <c r="O341" s="174"/>
-      <c r="P341" s="174"/>
-      <c r="Q341" s="174"/>
-      <c r="R341" s="174"/>
-      <c r="S341" s="174"/>
-      <c r="T341" s="174"/>
-      <c r="U341" s="174">
+      <c r="M341" s="166"/>
+      <c r="N341" s="166"/>
+      <c r="O341" s="166"/>
+      <c r="P341" s="166"/>
+      <c r="Q341" s="166"/>
+      <c r="R341" s="166"/>
+      <c r="S341" s="166"/>
+      <c r="T341" s="166"/>
+      <c r="U341" s="166">
         <v>0.23089999999999999</v>
       </c>
-      <c r="V341" s="174">
+      <c r="V341" s="166">
         <v>0.23100000000000001</v>
       </c>
-      <c r="W341" s="174"/>
-      <c r="X341" s="179">
+      <c r="W341" s="166"/>
+      <c r="X341" s="171">
         <f t="shared" si="12"/>
         <v>1.0000000000001674E-4</v>
       </c>
-      <c r="Y341" s="174"/>
-      <c r="Z341" s="180"/>
-      <c r="AA341" s="181">
+      <c r="Y341" s="166"/>
+      <c r="Z341" s="172"/>
+      <c r="AA341" s="173">
         <f t="shared" si="14"/>
         <v>0.71428571428583387</v>
       </c>
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A342" s="174" t="s">
+      <c r="A342" s="166" t="s">
         <v>338</v>
       </c>
-      <c r="B342" s="175">
+      <c r="B342" s="167">
         <f t="shared" si="13"/>
         <v>339</v>
       </c>
-      <c r="C342" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D342" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E342" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F342" s="174"/>
-      <c r="G342" s="174"/>
-      <c r="H342" s="174"/>
-      <c r="I342" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J342" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K342" s="174"/>
-      <c r="L342" s="178">
+      <c r="C342" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E342" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342" s="166"/>
+      <c r="G342" s="166"/>
+      <c r="H342" s="166"/>
+      <c r="I342" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J342" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K342" s="166"/>
+      <c r="L342" s="170">
         <v>140</v>
       </c>
-      <c r="M342" s="174"/>
-      <c r="N342" s="174"/>
-      <c r="O342" s="174"/>
-      <c r="P342" s="174"/>
-      <c r="Q342" s="174"/>
-      <c r="R342" s="174"/>
-      <c r="S342" s="174"/>
-      <c r="T342" s="174"/>
-      <c r="U342" s="174">
+      <c r="M342" s="166"/>
+      <c r="N342" s="166"/>
+      <c r="O342" s="166"/>
+      <c r="P342" s="166"/>
+      <c r="Q342" s="166"/>
+      <c r="R342" s="166"/>
+      <c r="S342" s="166"/>
+      <c r="T342" s="166"/>
+      <c r="U342" s="166">
         <v>0.23469999999999999</v>
       </c>
-      <c r="V342" s="174">
+      <c r="V342" s="166">
         <v>0.23549999999999999</v>
       </c>
-      <c r="W342" s="183"/>
-      <c r="X342" s="179">
+      <c r="W342" s="175"/>
+      <c r="X342" s="171">
         <f t="shared" si="12"/>
         <v>7.9999999999999516E-4</v>
       </c>
-      <c r="Y342" s="174"/>
-      <c r="Z342" s="180"/>
-      <c r="AA342" s="181">
+      <c r="Y342" s="166"/>
+      <c r="Z342" s="172"/>
+      <c r="AA342" s="173">
         <f t="shared" si="14"/>
         <v>5.7142857142856798</v>
       </c>
@@ -22712,334 +22712,334 @@
       </c>
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A344" s="174" t="s">
+      <c r="A344" s="166" t="s">
         <v>371</v>
       </c>
-      <c r="B344" s="175">
+      <c r="B344" s="167">
         <f t="shared" si="13"/>
         <v>341</v>
       </c>
-      <c r="C344" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D344" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E344" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F344" s="174"/>
-      <c r="G344" s="174"/>
-      <c r="H344" s="174"/>
-      <c r="I344" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J344" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K344" s="174"/>
-      <c r="L344" s="178">
+      <c r="C344" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E344" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F344" s="166"/>
+      <c r="G344" s="166"/>
+      <c r="H344" s="166"/>
+      <c r="I344" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J344" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K344" s="166"/>
+      <c r="L344" s="170">
         <v>150</v>
       </c>
-      <c r="M344" s="174"/>
-      <c r="N344" s="174"/>
-      <c r="O344" s="174"/>
-      <c r="P344" s="174"/>
-      <c r="Q344" s="174"/>
-      <c r="R344" s="174"/>
-      <c r="S344" s="174"/>
-      <c r="T344" s="174"/>
-      <c r="U344" s="174">
+      <c r="M344" s="166"/>
+      <c r="N344" s="166"/>
+      <c r="O344" s="166"/>
+      <c r="P344" s="166"/>
+      <c r="Q344" s="166"/>
+      <c r="R344" s="166"/>
+      <c r="S344" s="166"/>
+      <c r="T344" s="166"/>
+      <c r="U344" s="166">
         <v>0.2329</v>
       </c>
-      <c r="V344" s="174">
+      <c r="V344" s="166">
         <v>0.23300000000000001</v>
       </c>
-      <c r="W344" s="174"/>
-      <c r="X344" s="179">
+      <c r="W344" s="166"/>
+      <c r="X344" s="171">
         <f t="shared" si="12"/>
         <v>1.0000000000001674E-4</v>
       </c>
-      <c r="Y344" s="174"/>
-      <c r="Z344" s="180"/>
-      <c r="AA344" s="181">
+      <c r="Y344" s="166"/>
+      <c r="Z344" s="172"/>
+      <c r="AA344" s="173">
         <f t="shared" si="14"/>
         <v>0.66666666666677832</v>
       </c>
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A345" s="174" t="s">
+      <c r="A345" s="166" t="s">
         <v>372</v>
       </c>
-      <c r="B345" s="175">
+      <c r="B345" s="167">
         <f t="shared" si="13"/>
         <v>342</v>
       </c>
-      <c r="C345" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D345" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E345" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F345" s="174"/>
-      <c r="G345" s="174"/>
-      <c r="H345" s="174"/>
-      <c r="I345" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J345" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K345" s="174"/>
-      <c r="L345" s="178" t="s">
+      <c r="C345" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D345" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E345" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F345" s="166"/>
+      <c r="G345" s="166"/>
+      <c r="H345" s="166"/>
+      <c r="I345" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J345" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K345" s="166"/>
+      <c r="L345" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="M345" s="174"/>
-      <c r="N345" s="174"/>
-      <c r="O345" s="174"/>
-      <c r="P345" s="174"/>
-      <c r="Q345" s="174"/>
-      <c r="R345" s="174"/>
-      <c r="S345" s="174"/>
-      <c r="T345" s="174"/>
-      <c r="U345" s="174">
+      <c r="M345" s="166"/>
+      <c r="N345" s="166"/>
+      <c r="O345" s="166"/>
+      <c r="P345" s="166"/>
+      <c r="Q345" s="166"/>
+      <c r="R345" s="166"/>
+      <c r="S345" s="166"/>
+      <c r="T345" s="166"/>
+      <c r="U345" s="166">
         <v>0.23180000000000001</v>
       </c>
-      <c r="V345" s="174">
+      <c r="V345" s="166">
         <v>0.23319999999999999</v>
       </c>
-      <c r="W345" s="174"/>
-      <c r="X345" s="179">
+      <c r="W345" s="166"/>
+      <c r="X345" s="171">
         <f t="shared" si="12"/>
         <v>1.3999999999999846E-3</v>
       </c>
-      <c r="Y345" s="174"/>
-      <c r="Z345" s="180"/>
-      <c r="AA345" s="181"/>
+      <c r="Y345" s="166"/>
+      <c r="Z345" s="172"/>
+      <c r="AA345" s="173"/>
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A346" s="184" t="s">
+      <c r="A346" s="176" t="s">
         <v>373</v>
       </c>
-      <c r="B346" s="175">
+      <c r="B346" s="167">
         <f t="shared" si="13"/>
         <v>343</v>
       </c>
-      <c r="C346" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D346" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E346" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F346" s="174"/>
-      <c r="G346" s="174"/>
-      <c r="H346" s="174"/>
-      <c r="I346" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J346" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K346" s="174"/>
-      <c r="L346" s="178">
+      <c r="C346" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E346" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F346" s="166"/>
+      <c r="G346" s="166"/>
+      <c r="H346" s="166"/>
+      <c r="I346" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J346" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K346" s="166"/>
+      <c r="L346" s="170">
         <v>140</v>
       </c>
-      <c r="M346" s="174"/>
-      <c r="N346" s="174"/>
-      <c r="O346" s="174"/>
-      <c r="P346" s="174"/>
-      <c r="Q346" s="174"/>
-      <c r="R346" s="174"/>
-      <c r="S346" s="174"/>
-      <c r="T346" s="174"/>
-      <c r="U346" s="174">
+      <c r="M346" s="166"/>
+      <c r="N346" s="166"/>
+      <c r="O346" s="166"/>
+      <c r="P346" s="166"/>
+      <c r="Q346" s="166"/>
+      <c r="R346" s="166"/>
+      <c r="S346" s="166"/>
+      <c r="T346" s="166"/>
+      <c r="U346" s="166">
         <v>0.23400000000000001</v>
       </c>
-      <c r="V346" s="174">
+      <c r="V346" s="166">
         <v>0.23710000000000001</v>
       </c>
-      <c r="W346" s="174"/>
-      <c r="X346" s="179">
+      <c r="W346" s="166"/>
+      <c r="X346" s="171">
         <f t="shared" si="12"/>
         <v>3.0999999999999917E-3</v>
       </c>
-      <c r="Y346" s="174"/>
-      <c r="Z346" s="180"/>
-      <c r="AA346" s="181">
+      <c r="Y346" s="166"/>
+      <c r="Z346" s="172"/>
+      <c r="AA346" s="173">
         <f t="shared" si="14"/>
         <v>22.142857142857082</v>
       </c>
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A347" s="174" t="s">
+      <c r="A347" s="166" t="s">
         <v>374</v>
       </c>
-      <c r="B347" s="175">
+      <c r="B347" s="167">
         <f t="shared" si="13"/>
         <v>344</v>
       </c>
-      <c r="C347" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D347" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E347" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F347" s="174"/>
-      <c r="G347" s="174"/>
-      <c r="H347" s="174"/>
-      <c r="I347" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J347" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K347" s="174"/>
-      <c r="L347" s="178">
+      <c r="C347" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E347" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" s="166"/>
+      <c r="G347" s="166"/>
+      <c r="H347" s="166"/>
+      <c r="I347" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J347" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K347" s="166"/>
+      <c r="L347" s="170">
         <v>150</v>
       </c>
-      <c r="M347" s="174"/>
-      <c r="N347" s="174"/>
-      <c r="O347" s="174"/>
-      <c r="P347" s="174"/>
-      <c r="Q347" s="174"/>
-      <c r="R347" s="174"/>
-      <c r="S347" s="174"/>
-      <c r="T347" s="174"/>
-      <c r="U347" s="174">
+      <c r="M347" s="166"/>
+      <c r="N347" s="166"/>
+      <c r="O347" s="166"/>
+      <c r="P347" s="166"/>
+      <c r="Q347" s="166"/>
+      <c r="R347" s="166"/>
+      <c r="S347" s="166"/>
+      <c r="T347" s="166"/>
+      <c r="U347" s="166">
         <v>0.23649999999999999</v>
       </c>
-      <c r="V347" s="174">
+      <c r="V347" s="166">
         <v>0.23799999999999999</v>
       </c>
-      <c r="W347" s="174"/>
-      <c r="X347" s="179">
+      <c r="W347" s="166"/>
+      <c r="X347" s="171">
         <f t="shared" si="12"/>
         <v>1.5000000000000013E-3</v>
       </c>
-      <c r="Y347" s="174"/>
-      <c r="Z347" s="180"/>
-      <c r="AA347" s="181">
+      <c r="Y347" s="166"/>
+      <c r="Z347" s="172"/>
+      <c r="AA347" s="173">
         <f t="shared" si="14"/>
         <v>10.000000000000009</v>
       </c>
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A348" s="174" t="s">
+      <c r="A348" s="166" t="s">
         <v>375</v>
       </c>
-      <c r="B348" s="175">
+      <c r="B348" s="167">
         <f t="shared" si="13"/>
         <v>345</v>
       </c>
-      <c r="C348" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D348" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E348" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F348" s="174"/>
-      <c r="G348" s="174"/>
-      <c r="H348" s="174"/>
-      <c r="I348" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J348" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K348" s="174"/>
-      <c r="L348" s="178">
+      <c r="C348" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E348" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F348" s="166"/>
+      <c r="G348" s="166"/>
+      <c r="H348" s="166"/>
+      <c r="I348" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J348" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K348" s="166"/>
+      <c r="L348" s="170">
         <v>140</v>
       </c>
-      <c r="M348" s="174"/>
-      <c r="N348" s="174"/>
-      <c r="O348" s="174"/>
-      <c r="P348" s="174"/>
-      <c r="Q348" s="174"/>
-      <c r="R348" s="174"/>
-      <c r="S348" s="174"/>
-      <c r="T348" s="174"/>
-      <c r="U348" s="174">
+      <c r="M348" s="166"/>
+      <c r="N348" s="166"/>
+      <c r="O348" s="166"/>
+      <c r="P348" s="166"/>
+      <c r="Q348" s="166"/>
+      <c r="R348" s="166"/>
+      <c r="S348" s="166"/>
+      <c r="T348" s="166"/>
+      <c r="U348" s="166">
         <v>0.23080000000000001</v>
       </c>
-      <c r="V348" s="174">
+      <c r="V348" s="166">
         <v>0.23169999999999999</v>
       </c>
-      <c r="W348" s="174"/>
-      <c r="X348" s="179">
+      <c r="W348" s="166"/>
+      <c r="X348" s="171">
         <f t="shared" si="12"/>
         <v>8.9999999999998415E-4</v>
       </c>
-      <c r="Y348" s="174"/>
-      <c r="Z348" s="180"/>
-      <c r="AA348" s="181">
+      <c r="Y348" s="166"/>
+      <c r="Z348" s="172"/>
+      <c r="AA348" s="173">
         <f t="shared" si="14"/>
         <v>6.4285714285713151</v>
       </c>
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A349" s="174" t="s">
+      <c r="A349" s="166" t="s">
         <v>376</v>
       </c>
-      <c r="B349" s="175">
+      <c r="B349" s="167">
         <f t="shared" si="13"/>
         <v>346</v>
       </c>
-      <c r="C349" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D349" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E349" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F349" s="174"/>
-      <c r="G349" s="174"/>
-      <c r="H349" s="174"/>
-      <c r="I349" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J349" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K349" s="174"/>
-      <c r="L349" s="178">
+      <c r="C349" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D349" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E349" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" s="166"/>
+      <c r="G349" s="166"/>
+      <c r="H349" s="166"/>
+      <c r="I349" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J349" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K349" s="166"/>
+      <c r="L349" s="170">
         <v>150</v>
       </c>
-      <c r="M349" s="174"/>
-      <c r="N349" s="174"/>
-      <c r="O349" s="174"/>
-      <c r="P349" s="174"/>
-      <c r="Q349" s="174"/>
-      <c r="R349" s="174"/>
-      <c r="S349" s="174"/>
-      <c r="T349" s="174"/>
-      <c r="U349" s="174">
+      <c r="M349" s="166"/>
+      <c r="N349" s="166"/>
+      <c r="O349" s="166"/>
+      <c r="P349" s="166"/>
+      <c r="Q349" s="166"/>
+      <c r="R349" s="166"/>
+      <c r="S349" s="166"/>
+      <c r="T349" s="166"/>
+      <c r="U349" s="166">
         <v>0.23319999999999999</v>
       </c>
-      <c r="V349" s="174">
+      <c r="V349" s="166">
         <v>0.2359</v>
       </c>
-      <c r="W349" s="174"/>
-      <c r="X349" s="179">
+      <c r="W349" s="166"/>
+      <c r="X349" s="171">
         <f t="shared" si="12"/>
         <v>2.7000000000000079E-3</v>
       </c>
-      <c r="Y349" s="174"/>
-      <c r="Z349" s="180"/>
-      <c r="AA349" s="181">
+      <c r="Y349" s="166"/>
+      <c r="Z349" s="172"/>
+      <c r="AA349" s="173">
         <f t="shared" si="14"/>
         <v>18.000000000000053</v>
       </c>
@@ -23213,113 +23213,113 @@
       </c>
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A353" s="174" t="s">
+      <c r="A353" s="166" t="s">
         <v>380</v>
       </c>
-      <c r="B353" s="175">
+      <c r="B353" s="167">
         <f t="shared" si="13"/>
         <v>350</v>
       </c>
-      <c r="C353" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D353" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E353" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F353" s="174"/>
-      <c r="G353" s="174"/>
-      <c r="H353" s="174"/>
-      <c r="I353" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J353" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K353" s="174"/>
-      <c r="L353" s="178">
+      <c r="C353" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E353" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F353" s="166"/>
+      <c r="G353" s="166"/>
+      <c r="H353" s="166"/>
+      <c r="I353" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J353" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K353" s="166"/>
+      <c r="L353" s="170">
         <v>150</v>
       </c>
-      <c r="M353" s="174"/>
-      <c r="N353" s="174"/>
-      <c r="O353" s="174"/>
-      <c r="P353" s="174"/>
-      <c r="Q353" s="174"/>
-      <c r="R353" s="174"/>
-      <c r="S353" s="174"/>
-      <c r="T353" s="174"/>
-      <c r="U353" s="174">
+      <c r="M353" s="166"/>
+      <c r="N353" s="166"/>
+      <c r="O353" s="166"/>
+      <c r="P353" s="166"/>
+      <c r="Q353" s="166"/>
+      <c r="R353" s="166"/>
+      <c r="S353" s="166"/>
+      <c r="T353" s="166"/>
+      <c r="U353" s="166">
         <v>0.23580000000000001</v>
       </c>
-      <c r="V353" s="174">
+      <c r="V353" s="166">
         <v>0.2389</v>
       </c>
-      <c r="W353" s="174"/>
-      <c r="X353" s="179">
+      <c r="W353" s="166"/>
+      <c r="X353" s="171">
         <f t="shared" si="12"/>
         <v>3.0999999999999917E-3</v>
       </c>
-      <c r="Y353" s="174"/>
-      <c r="Z353" s="180"/>
-      <c r="AA353" s="181">
+      <c r="Y353" s="166"/>
+      <c r="Z353" s="172"/>
+      <c r="AA353" s="173">
         <f t="shared" si="14"/>
         <v>20.666666666666611</v>
       </c>
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A354" s="174" t="s">
+      <c r="A354" s="166" t="s">
         <v>381</v>
       </c>
-      <c r="B354" s="175">
+      <c r="B354" s="167">
         <f t="shared" si="13"/>
         <v>351</v>
       </c>
-      <c r="C354" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D354" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="E354" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F354" s="174"/>
-      <c r="G354" s="174"/>
-      <c r="H354" s="174"/>
-      <c r="I354" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J354" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="K354" s="174"/>
-      <c r="L354" s="178">
+      <c r="C354" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D354" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E354" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F354" s="166"/>
+      <c r="G354" s="166"/>
+      <c r="H354" s="166"/>
+      <c r="I354" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J354" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="K354" s="166"/>
+      <c r="L354" s="170">
         <v>160</v>
       </c>
-      <c r="M354" s="174"/>
-      <c r="N354" s="174"/>
-      <c r="O354" s="174"/>
-      <c r="P354" s="174"/>
-      <c r="Q354" s="174"/>
-      <c r="R354" s="174"/>
-      <c r="S354" s="174"/>
-      <c r="T354" s="174"/>
-      <c r="U354" s="174">
+      <c r="M354" s="166"/>
+      <c r="N354" s="166"/>
+      <c r="O354" s="166"/>
+      <c r="P354" s="166"/>
+      <c r="Q354" s="166"/>
+      <c r="R354" s="166"/>
+      <c r="S354" s="166"/>
+      <c r="T354" s="166"/>
+      <c r="U354" s="166">
         <v>0.2319</v>
       </c>
-      <c r="V354" s="174">
+      <c r="V354" s="166">
         <v>0.23380000000000001</v>
       </c>
-      <c r="W354" s="174"/>
-      <c r="X354" s="179">
+      <c r="W354" s="166"/>
+      <c r="X354" s="171">
         <f t="shared" si="12"/>
         <v>1.9000000000000128E-3</v>
       </c>
-      <c r="Y354" s="174"/>
-      <c r="Z354" s="180"/>
-      <c r="AA354" s="181">
+      <c r="Y354" s="166"/>
+      <c r="Z354" s="172"/>
+      <c r="AA354" s="173">
         <f t="shared" si="14"/>
         <v>11.87500000000008</v>
       </c>
@@ -23549,57 +23549,57 @@
       </c>
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A359" s="174" t="s">
+      <c r="A359" s="166" t="s">
         <v>386</v>
       </c>
-      <c r="B359" s="175">
+      <c r="B359" s="167">
         <f t="shared" si="13"/>
         <v>356</v>
       </c>
-      <c r="C359" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D359" s="174" t="s">
-        <v>27</v>
-      </c>
-      <c r="E359" s="174" t="s">
-        <v>27</v>
-      </c>
-      <c r="F359" s="174"/>
-      <c r="G359" s="174"/>
-      <c r="H359" s="174"/>
-      <c r="I359" s="174" t="s">
-        <v>32</v>
-      </c>
-      <c r="J359" s="174" t="s">
-        <v>26</v>
-      </c>
-      <c r="K359" s="174"/>
-      <c r="L359" s="178">
+      <c r="C359" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" s="166" t="s">
+        <v>27</v>
+      </c>
+      <c r="E359" s="166" t="s">
+        <v>27</v>
+      </c>
+      <c r="F359" s="166"/>
+      <c r="G359" s="166"/>
+      <c r="H359" s="166"/>
+      <c r="I359" s="166" t="s">
+        <v>32</v>
+      </c>
+      <c r="J359" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="K359" s="166"/>
+      <c r="L359" s="170">
         <v>140</v>
       </c>
-      <c r="M359" s="174"/>
-      <c r="N359" s="174"/>
-      <c r="O359" s="174"/>
-      <c r="P359" s="174"/>
-      <c r="Q359" s="174"/>
-      <c r="R359" s="174"/>
-      <c r="S359" s="174"/>
-      <c r="T359" s="183"/>
-      <c r="U359" s="174">
+      <c r="M359" s="166"/>
+      <c r="N359" s="166"/>
+      <c r="O359" s="166"/>
+      <c r="P359" s="166"/>
+      <c r="Q359" s="166"/>
+      <c r="R359" s="166"/>
+      <c r="S359" s="166"/>
+      <c r="T359" s="175"/>
+      <c r="U359" s="166">
         <v>0.2354</v>
       </c>
-      <c r="V359" s="174">
+      <c r="V359" s="166">
         <v>0.2364</v>
       </c>
-      <c r="W359" s="174"/>
-      <c r="X359" s="179">
+      <c r="W359" s="166"/>
+      <c r="X359" s="171">
         <f t="shared" si="15"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="Y359" s="174"/>
-      <c r="Z359" s="180"/>
-      <c r="AA359" s="181">
+      <c r="Y359" s="166"/>
+      <c r="Z359" s="172"/>
+      <c r="AA359" s="173">
         <f t="shared" si="14"/>
         <v>7.1428571428571495</v>
       </c>
@@ -25817,13 +25817,13 @@
       </c>
       <c r="W426" s="24"/>
       <c r="X426" s="160">
-        <f t="shared" ref="X426:X483" si="16">V426-U426</f>
+        <f t="shared" ref="X426:X478" si="16">V426-U426</f>
         <v>0.11009999999999998</v>
       </c>
       <c r="Y426" s="12"/>
       <c r="Z426" s="74"/>
       <c r="AA426" s="145">
-        <f t="shared" ref="AA426:AA453" si="17">(X426/L426)*1000*1000</f>
+        <f t="shared" ref="AA426:AA448" si="17">(X426/L426)*1000*1000</f>
         <v>2246.9387755102039</v>
       </c>
     </row>
@@ -26545,42 +26545,42 @@
       <c r="A443" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="B443" s="175">
+      <c r="B443" s="167">
         <v>440</v>
       </c>
-      <c r="C443" s="178"/>
-      <c r="D443" s="178"/>
-      <c r="E443" s="178"/>
-      <c r="F443" s="178"/>
-      <c r="G443" s="178"/>
-      <c r="H443" s="178"/>
-      <c r="I443" s="178"/>
-      <c r="J443" s="178"/>
-      <c r="K443" s="178"/>
-      <c r="L443" s="178">
+      <c r="C443" s="170"/>
+      <c r="D443" s="170"/>
+      <c r="E443" s="170"/>
+      <c r="F443" s="170"/>
+      <c r="G443" s="170"/>
+      <c r="H443" s="170"/>
+      <c r="I443" s="170"/>
+      <c r="J443" s="170"/>
+      <c r="K443" s="170"/>
+      <c r="L443" s="170">
         <v>90</v>
       </c>
-      <c r="M443" s="178"/>
-      <c r="N443" s="178"/>
-      <c r="O443" s="178"/>
-      <c r="P443" s="178"/>
-      <c r="Q443" s="178"/>
-      <c r="R443" s="178"/>
-      <c r="S443" s="178"/>
-      <c r="T443" s="178"/>
-      <c r="U443" s="178">
+      <c r="M443" s="170"/>
+      <c r="N443" s="170"/>
+      <c r="O443" s="170"/>
+      <c r="P443" s="170"/>
+      <c r="Q443" s="170"/>
+      <c r="R443" s="170"/>
+      <c r="S443" s="170"/>
+      <c r="T443" s="170"/>
+      <c r="U443" s="170">
         <v>0.2349</v>
       </c>
-      <c r="V443" s="178">
+      <c r="V443" s="170">
         <v>0.24479999999999999</v>
       </c>
-      <c r="W443" s="178"/>
-      <c r="X443" s="179">
+      <c r="W443" s="170"/>
+      <c r="X443" s="171">
         <v>9.8999999999999921E-3</v>
       </c>
-      <c r="Y443" s="174"/>
-      <c r="Z443" s="180"/>
-      <c r="AA443" s="181">
+      <c r="Y443" s="166"/>
+      <c r="Z443" s="172"/>
+      <c r="AA443" s="173">
         <v>109.9999999999999</v>
       </c>
     </row>
@@ -26588,42 +26588,42 @@
       <c r="A444" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="B444" s="175">
+      <c r="B444" s="167">
         <v>441</v>
       </c>
-      <c r="C444" s="178"/>
-      <c r="D444" s="178"/>
-      <c r="E444" s="178"/>
-      <c r="F444" s="178"/>
-      <c r="G444" s="178"/>
-      <c r="H444" s="178"/>
-      <c r="I444" s="178"/>
-      <c r="J444" s="178"/>
-      <c r="K444" s="178"/>
-      <c r="L444" s="178">
+      <c r="C444" s="170"/>
+      <c r="D444" s="170"/>
+      <c r="E444" s="170"/>
+      <c r="F444" s="170"/>
+      <c r="G444" s="170"/>
+      <c r="H444" s="170"/>
+      <c r="I444" s="170"/>
+      <c r="J444" s="170"/>
+      <c r="K444" s="170"/>
+      <c r="L444" s="170">
         <v>90</v>
       </c>
-      <c r="M444" s="178"/>
-      <c r="N444" s="178"/>
-      <c r="O444" s="178"/>
-      <c r="P444" s="178"/>
-      <c r="Q444" s="178"/>
-      <c r="R444" s="178"/>
-      <c r="S444" s="178"/>
-      <c r="T444" s="178"/>
-      <c r="U444" s="178">
+      <c r="M444" s="170"/>
+      <c r="N444" s="170"/>
+      <c r="O444" s="170"/>
+      <c r="P444" s="170"/>
+      <c r="Q444" s="170"/>
+      <c r="R444" s="170"/>
+      <c r="S444" s="170"/>
+      <c r="T444" s="170"/>
+      <c r="U444" s="170">
         <v>0.23330000000000001</v>
       </c>
-      <c r="V444" s="178">
+      <c r="V444" s="170">
         <v>0.23810000000000001</v>
       </c>
-      <c r="W444" s="178"/>
-      <c r="X444" s="179">
+      <c r="W444" s="170"/>
+      <c r="X444" s="171">
         <v>4.7999999999999987E-3</v>
       </c>
-      <c r="Y444" s="174"/>
-      <c r="Z444" s="180"/>
-      <c r="AA444" s="181">
+      <c r="Y444" s="166"/>
+      <c r="Z444" s="172"/>
+      <c r="AA444" s="173">
         <v>53.333333333333321</v>
       </c>
     </row>
@@ -26631,42 +26631,42 @@
       <c r="A445" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="B445" s="175">
+      <c r="B445" s="167">
         <v>442</v>
       </c>
-      <c r="C445" s="178"/>
-      <c r="D445" s="178"/>
-      <c r="E445" s="178"/>
-      <c r="F445" s="178"/>
-      <c r="G445" s="178"/>
-      <c r="H445" s="178"/>
-      <c r="I445" s="178"/>
-      <c r="J445" s="178"/>
-      <c r="K445" s="178"/>
-      <c r="L445" s="178">
+      <c r="C445" s="170"/>
+      <c r="D445" s="170"/>
+      <c r="E445" s="170"/>
+      <c r="F445" s="170"/>
+      <c r="G445" s="170"/>
+      <c r="H445" s="170"/>
+      <c r="I445" s="170"/>
+      <c r="J445" s="170"/>
+      <c r="K445" s="170"/>
+      <c r="L445" s="170">
         <v>100</v>
       </c>
-      <c r="M445" s="178"/>
-      <c r="N445" s="178"/>
-      <c r="O445" s="178"/>
-      <c r="P445" s="178"/>
-      <c r="Q445" s="178"/>
-      <c r="R445" s="178"/>
-      <c r="S445" s="178"/>
-      <c r="T445" s="178"/>
-      <c r="U445" s="178">
+      <c r="M445" s="170"/>
+      <c r="N445" s="170"/>
+      <c r="O445" s="170"/>
+      <c r="P445" s="170"/>
+      <c r="Q445" s="170"/>
+      <c r="R445" s="170"/>
+      <c r="S445" s="170"/>
+      <c r="T445" s="170"/>
+      <c r="U445" s="170">
         <v>0.23699999999999999</v>
       </c>
-      <c r="V445" s="178">
+      <c r="V445" s="170">
         <v>0.245</v>
       </c>
-      <c r="W445" s="178"/>
-      <c r="X445" s="179">
+      <c r="W445" s="170"/>
+      <c r="X445" s="171">
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="Y445" s="174"/>
-      <c r="Z445" s="180"/>
-      <c r="AA445" s="181">
+      <c r="Y445" s="166"/>
+      <c r="Z445" s="172"/>
+      <c r="AA445" s="173">
         <v>80.000000000000071</v>
       </c>
     </row>
@@ -26674,42 +26674,42 @@
       <c r="A446" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="B446" s="175">
+      <c r="B446" s="167">
         <v>443</v>
       </c>
-      <c r="C446" s="178"/>
-      <c r="D446" s="178"/>
-      <c r="E446" s="178"/>
-      <c r="F446" s="178"/>
-      <c r="G446" s="178"/>
-      <c r="H446" s="178"/>
-      <c r="I446" s="178"/>
-      <c r="J446" s="178"/>
-      <c r="K446" s="178"/>
-      <c r="L446" s="178">
+      <c r="C446" s="170"/>
+      <c r="D446" s="170"/>
+      <c r="E446" s="170"/>
+      <c r="F446" s="170"/>
+      <c r="G446" s="170"/>
+      <c r="H446" s="170"/>
+      <c r="I446" s="170"/>
+      <c r="J446" s="170"/>
+      <c r="K446" s="170"/>
+      <c r="L446" s="170">
         <v>90</v>
       </c>
-      <c r="M446" s="178"/>
-      <c r="N446" s="178"/>
-      <c r="O446" s="178"/>
-      <c r="P446" s="178"/>
-      <c r="Q446" s="178"/>
-      <c r="R446" s="178"/>
-      <c r="S446" s="178"/>
-      <c r="T446" s="178"/>
-      <c r="U446" s="178">
+      <c r="M446" s="170"/>
+      <c r="N446" s="170"/>
+      <c r="O446" s="170"/>
+      <c r="P446" s="170"/>
+      <c r="Q446" s="170"/>
+      <c r="R446" s="170"/>
+      <c r="S446" s="170"/>
+      <c r="T446" s="170"/>
+      <c r="U446" s="170">
         <v>0.2404</v>
       </c>
-      <c r="V446" s="178">
+      <c r="V446" s="170">
         <v>0.24429999999999999</v>
       </c>
-      <c r="W446" s="178"/>
-      <c r="X446" s="179">
+      <c r="W446" s="170"/>
+      <c r="X446" s="171">
         <v>3.8999999999999868E-3</v>
       </c>
-      <c r="Y446" s="174"/>
-      <c r="Z446" s="180"/>
-      <c r="AA446" s="181">
+      <c r="Y446" s="166"/>
+      <c r="Z446" s="172"/>
+      <c r="AA446" s="173">
         <v>43.333333333333179</v>
       </c>
     </row>
@@ -26717,42 +26717,42 @@
       <c r="A447" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="B447" s="175">
+      <c r="B447" s="167">
         <v>444</v>
       </c>
-      <c r="C447" s="178"/>
-      <c r="D447" s="178"/>
-      <c r="E447" s="178"/>
-      <c r="F447" s="178"/>
-      <c r="G447" s="178"/>
-      <c r="H447" s="178"/>
-      <c r="I447" s="178"/>
-      <c r="J447" s="178"/>
-      <c r="K447" s="178"/>
-      <c r="L447" s="178">
+      <c r="C447" s="170"/>
+      <c r="D447" s="170"/>
+      <c r="E447" s="170"/>
+      <c r="F447" s="170"/>
+      <c r="G447" s="170"/>
+      <c r="H447" s="170"/>
+      <c r="I447" s="170"/>
+      <c r="J447" s="170"/>
+      <c r="K447" s="170"/>
+      <c r="L447" s="170">
         <v>90</v>
       </c>
-      <c r="M447" s="178"/>
-      <c r="N447" s="178"/>
-      <c r="O447" s="178"/>
-      <c r="P447" s="178"/>
-      <c r="Q447" s="178"/>
-      <c r="R447" s="178"/>
-      <c r="S447" s="178"/>
-      <c r="T447" s="178"/>
-      <c r="U447" s="178">
+      <c r="M447" s="170"/>
+      <c r="N447" s="170"/>
+      <c r="O447" s="170"/>
+      <c r="P447" s="170"/>
+      <c r="Q447" s="170"/>
+      <c r="R447" s="170"/>
+      <c r="S447" s="170"/>
+      <c r="T447" s="170"/>
+      <c r="U447" s="170">
         <v>0.23810000000000001</v>
       </c>
-      <c r="V447" s="178">
+      <c r="V447" s="170">
         <v>0.24640000000000001</v>
       </c>
-      <c r="W447" s="178"/>
-      <c r="X447" s="179">
+      <c r="W447" s="170"/>
+      <c r="X447" s="171">
         <v>8.3000000000000018E-3</v>
       </c>
-      <c r="Y447" s="174"/>
-      <c r="Z447" s="180"/>
-      <c r="AA447" s="181">
+      <c r="Y447" s="166"/>
+      <c r="Z447" s="172"/>
+      <c r="AA447" s="173">
         <v>92.222222222222243</v>
       </c>
     </row>
@@ -26805,42 +26805,42 @@
       <c r="A449" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="B449" s="175">
+      <c r="B449" s="167">
         <v>446</v>
       </c>
-      <c r="C449" s="178"/>
-      <c r="D449" s="178"/>
-      <c r="E449" s="178"/>
-      <c r="F449" s="178"/>
-      <c r="G449" s="178"/>
-      <c r="H449" s="178"/>
-      <c r="I449" s="178"/>
-      <c r="J449" s="178"/>
-      <c r="K449" s="178"/>
-      <c r="L449" s="178">
+      <c r="C449" s="170"/>
+      <c r="D449" s="170"/>
+      <c r="E449" s="170"/>
+      <c r="F449" s="170"/>
+      <c r="G449" s="170"/>
+      <c r="H449" s="170"/>
+      <c r="I449" s="170"/>
+      <c r="J449" s="170"/>
+      <c r="K449" s="170"/>
+      <c r="L449" s="170">
         <v>90</v>
       </c>
-      <c r="M449" s="178"/>
-      <c r="N449" s="178"/>
-      <c r="O449" s="178"/>
-      <c r="P449" s="178"/>
-      <c r="Q449" s="178"/>
-      <c r="R449" s="178"/>
-      <c r="S449" s="178"/>
-      <c r="T449" s="178"/>
-      <c r="U449" s="178">
+      <c r="M449" s="170"/>
+      <c r="N449" s="170"/>
+      <c r="O449" s="170"/>
+      <c r="P449" s="170"/>
+      <c r="Q449" s="170"/>
+      <c r="R449" s="170"/>
+      <c r="S449" s="170"/>
+      <c r="T449" s="170"/>
+      <c r="U449" s="170">
         <v>0.23680000000000001</v>
       </c>
-      <c r="V449" s="178">
+      <c r="V449" s="170">
         <v>0.24579999999999999</v>
       </c>
-      <c r="W449" s="178"/>
-      <c r="X449" s="179">
+      <c r="W449" s="170"/>
+      <c r="X449" s="171">
         <v>8.9999999999999802E-3</v>
       </c>
-      <c r="Y449" s="174"/>
-      <c r="Z449" s="180"/>
-      <c r="AA449" s="181">
+      <c r="Y449" s="166"/>
+      <c r="Z449" s="172"/>
+      <c r="AA449" s="173">
         <v>99.999999999999773</v>
       </c>
     </row>
@@ -26848,42 +26848,42 @@
       <c r="A450" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="B450" s="175">
+      <c r="B450" s="167">
         <v>447</v>
       </c>
-      <c r="C450" s="178"/>
-      <c r="D450" s="178"/>
-      <c r="E450" s="178"/>
-      <c r="F450" s="178"/>
-      <c r="G450" s="178"/>
-      <c r="H450" s="178"/>
-      <c r="I450" s="178"/>
-      <c r="J450" s="178"/>
-      <c r="K450" s="178"/>
-      <c r="L450" s="178">
+      <c r="C450" s="170"/>
+      <c r="D450" s="170"/>
+      <c r="E450" s="170"/>
+      <c r="F450" s="170"/>
+      <c r="G450" s="170"/>
+      <c r="H450" s="170"/>
+      <c r="I450" s="170"/>
+      <c r="J450" s="170"/>
+      <c r="K450" s="170"/>
+      <c r="L450" s="170">
         <v>90</v>
       </c>
-      <c r="M450" s="178"/>
-      <c r="N450" s="178"/>
-      <c r="O450" s="178"/>
-      <c r="P450" s="178"/>
-      <c r="Q450" s="178"/>
-      <c r="R450" s="178"/>
-      <c r="S450" s="178"/>
-      <c r="T450" s="178"/>
-      <c r="U450" s="178">
+      <c r="M450" s="170"/>
+      <c r="N450" s="170"/>
+      <c r="O450" s="170"/>
+      <c r="P450" s="170"/>
+      <c r="Q450" s="170"/>
+      <c r="R450" s="170"/>
+      <c r="S450" s="170"/>
+      <c r="T450" s="170"/>
+      <c r="U450" s="170">
         <v>0.23449999999999999</v>
       </c>
-      <c r="V450" s="178">
+      <c r="V450" s="170">
         <v>0.24399999999999999</v>
       </c>
-      <c r="W450" s="178"/>
-      <c r="X450" s="179">
+      <c r="W450" s="170"/>
+      <c r="X450" s="171">
         <v>9.5000000000000084E-3</v>
       </c>
-      <c r="Y450" s="174"/>
-      <c r="Z450" s="180"/>
-      <c r="AA450" s="181">
+      <c r="Y450" s="166"/>
+      <c r="Z450" s="172"/>
+      <c r="AA450" s="173">
         <v>105.55555555555566</v>
       </c>
     </row>
@@ -26891,42 +26891,42 @@
       <c r="A451" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="B451" s="175">
+      <c r="B451" s="167">
         <v>448</v>
       </c>
-      <c r="C451" s="178"/>
-      <c r="D451" s="178"/>
-      <c r="E451" s="178"/>
-      <c r="F451" s="178"/>
-      <c r="G451" s="178"/>
-      <c r="H451" s="178"/>
-      <c r="I451" s="178"/>
-      <c r="J451" s="178"/>
-      <c r="K451" s="178"/>
-      <c r="L451" s="178">
+      <c r="C451" s="170"/>
+      <c r="D451" s="170"/>
+      <c r="E451" s="170"/>
+      <c r="F451" s="170"/>
+      <c r="G451" s="170"/>
+      <c r="H451" s="170"/>
+      <c r="I451" s="170"/>
+      <c r="J451" s="170"/>
+      <c r="K451" s="170"/>
+      <c r="L451" s="170">
         <v>90</v>
       </c>
-      <c r="M451" s="178"/>
-      <c r="N451" s="178"/>
-      <c r="O451" s="178"/>
-      <c r="P451" s="178"/>
-      <c r="Q451" s="178"/>
-      <c r="R451" s="178"/>
-      <c r="S451" s="178"/>
-      <c r="T451" s="178"/>
-      <c r="U451" s="178">
+      <c r="M451" s="170"/>
+      <c r="N451" s="170"/>
+      <c r="O451" s="170"/>
+      <c r="P451" s="170"/>
+      <c r="Q451" s="170"/>
+      <c r="R451" s="170"/>
+      <c r="S451" s="170"/>
+      <c r="T451" s="170"/>
+      <c r="U451" s="170">
         <v>0.23069999999999999</v>
       </c>
-      <c r="V451" s="178">
+      <c r="V451" s="170">
         <v>0.23519999999999999</v>
       </c>
-      <c r="W451" s="178"/>
-      <c r="X451" s="179">
+      <c r="W451" s="170"/>
+      <c r="X451" s="171">
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="Y451" s="174"/>
-      <c r="Z451" s="180"/>
-      <c r="AA451" s="181">
+      <c r="Y451" s="166"/>
+      <c r="Z451" s="172"/>
+      <c r="AA451" s="173">
         <v>50.000000000000043</v>
       </c>
     </row>
@@ -26934,42 +26934,42 @@
       <c r="A452" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="B452" s="175">
+      <c r="B452" s="167">
         <v>449</v>
       </c>
-      <c r="C452" s="178"/>
-      <c r="D452" s="178"/>
-      <c r="E452" s="178"/>
-      <c r="F452" s="178"/>
-      <c r="G452" s="178"/>
-      <c r="H452" s="178"/>
-      <c r="I452" s="178"/>
-      <c r="J452" s="178"/>
-      <c r="K452" s="178"/>
-      <c r="L452" s="178">
+      <c r="C452" s="170"/>
+      <c r="D452" s="170"/>
+      <c r="E452" s="170"/>
+      <c r="F452" s="170"/>
+      <c r="G452" s="170"/>
+      <c r="H452" s="170"/>
+      <c r="I452" s="170"/>
+      <c r="J452" s="170"/>
+      <c r="K452" s="170"/>
+      <c r="L452" s="170">
         <v>90</v>
       </c>
-      <c r="M452" s="178"/>
-      <c r="N452" s="178"/>
-      <c r="O452" s="178"/>
-      <c r="P452" s="178"/>
-      <c r="Q452" s="178"/>
-      <c r="R452" s="178"/>
-      <c r="S452" s="178"/>
-      <c r="T452" s="178"/>
-      <c r="U452" s="178">
+      <c r="M452" s="170"/>
+      <c r="N452" s="170"/>
+      <c r="O452" s="170"/>
+      <c r="P452" s="170"/>
+      <c r="Q452" s="170"/>
+      <c r="R452" s="170"/>
+      <c r="S452" s="170"/>
+      <c r="T452" s="170"/>
+      <c r="U452" s="170">
         <v>0.23380000000000001</v>
       </c>
-      <c r="V452" s="178">
+      <c r="V452" s="170">
         <v>0.24</v>
       </c>
-      <c r="W452" s="178"/>
-      <c r="X452" s="179">
+      <c r="W452" s="170"/>
+      <c r="X452" s="171">
         <v>6.1999999999999833E-3</v>
       </c>
-      <c r="Y452" s="174"/>
-      <c r="Z452" s="180"/>
-      <c r="AA452" s="181">
+      <c r="Y452" s="166"/>
+      <c r="Z452" s="172"/>
+      <c r="AA452" s="173">
         <v>68.888888888888701</v>
       </c>
     </row>
@@ -26977,42 +26977,42 @@
       <c r="A453" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="B453" s="175">
+      <c r="B453" s="167">
         <v>450</v>
       </c>
-      <c r="C453" s="178"/>
-      <c r="D453" s="178"/>
-      <c r="E453" s="178"/>
-      <c r="F453" s="178"/>
-      <c r="G453" s="178"/>
-      <c r="H453" s="178"/>
-      <c r="I453" s="178"/>
-      <c r="J453" s="178"/>
-      <c r="K453" s="178"/>
-      <c r="L453" s="178">
+      <c r="C453" s="170"/>
+      <c r="D453" s="170"/>
+      <c r="E453" s="170"/>
+      <c r="F453" s="170"/>
+      <c r="G453" s="170"/>
+      <c r="H453" s="170"/>
+      <c r="I453" s="170"/>
+      <c r="J453" s="170"/>
+      <c r="K453" s="170"/>
+      <c r="L453" s="170">
         <v>90</v>
       </c>
-      <c r="M453" s="178"/>
-      <c r="N453" s="178"/>
-      <c r="O453" s="178"/>
-      <c r="P453" s="178"/>
-      <c r="Q453" s="178"/>
-      <c r="R453" s="178"/>
-      <c r="S453" s="178"/>
-      <c r="T453" s="178"/>
-      <c r="U453" s="178">
+      <c r="M453" s="170"/>
+      <c r="N453" s="170"/>
+      <c r="O453" s="170"/>
+      <c r="P453" s="170"/>
+      <c r="Q453" s="170"/>
+      <c r="R453" s="170"/>
+      <c r="S453" s="170"/>
+      <c r="T453" s="170"/>
+      <c r="U453" s="170">
         <v>0.23300000000000001</v>
       </c>
-      <c r="V453" s="178">
+      <c r="V453" s="170">
         <v>0.23760000000000001</v>
       </c>
-      <c r="W453" s="178"/>
-      <c r="X453" s="179">
+      <c r="W453" s="170"/>
+      <c r="X453" s="171">
         <v>4.599999999999993E-3</v>
       </c>
-      <c r="Y453" s="174"/>
-      <c r="Z453" s="180"/>
-      <c r="AA453" s="181">
+      <c r="Y453" s="166"/>
+      <c r="Z453" s="172"/>
+      <c r="AA453" s="173">
         <v>51.111111111111029</v>
       </c>
     </row>
@@ -27020,42 +27020,42 @@
       <c r="A454" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="B454" s="175">
+      <c r="B454" s="167">
         <v>451</v>
       </c>
-      <c r="C454" s="178"/>
-      <c r="D454" s="178"/>
-      <c r="E454" s="178"/>
-      <c r="F454" s="178"/>
-      <c r="G454" s="178"/>
-      <c r="H454" s="178"/>
-      <c r="I454" s="178"/>
-      <c r="J454" s="178"/>
-      <c r="K454" s="178"/>
-      <c r="L454" s="178">
+      <c r="C454" s="170"/>
+      <c r="D454" s="170"/>
+      <c r="E454" s="170"/>
+      <c r="F454" s="170"/>
+      <c r="G454" s="170"/>
+      <c r="H454" s="170"/>
+      <c r="I454" s="170"/>
+      <c r="J454" s="170"/>
+      <c r="K454" s="170"/>
+      <c r="L454" s="170">
         <v>95</v>
       </c>
-      <c r="M454" s="178"/>
-      <c r="N454" s="178"/>
-      <c r="O454" s="178"/>
-      <c r="P454" s="178"/>
-      <c r="Q454" s="178"/>
-      <c r="R454" s="178"/>
-      <c r="S454" s="178"/>
-      <c r="T454" s="178"/>
-      <c r="U454" s="178">
+      <c r="M454" s="170"/>
+      <c r="N454" s="170"/>
+      <c r="O454" s="170"/>
+      <c r="P454" s="170"/>
+      <c r="Q454" s="170"/>
+      <c r="R454" s="170"/>
+      <c r="S454" s="170"/>
+      <c r="T454" s="170"/>
+      <c r="U454" s="170">
         <v>0.2319</v>
       </c>
-      <c r="V454" s="178">
+      <c r="V454" s="170">
         <v>0.23619999999999999</v>
       </c>
-      <c r="W454" s="178"/>
-      <c r="X454" s="179">
+      <c r="W454" s="170"/>
+      <c r="X454" s="171">
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="Y454" s="174"/>
-      <c r="Z454" s="180"/>
-      <c r="AA454" s="181">
+      <c r="Y454" s="166"/>
+      <c r="Z454" s="172"/>
+      <c r="AA454" s="173">
         <v>45.263157894736821</v>
       </c>
     </row>
@@ -27063,42 +27063,42 @@
       <c r="A455" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="B455" s="175">
+      <c r="B455" s="167">
         <v>452</v>
       </c>
-      <c r="C455" s="178"/>
-      <c r="D455" s="178"/>
-      <c r="E455" s="178"/>
-      <c r="F455" s="178"/>
-      <c r="G455" s="178"/>
-      <c r="H455" s="178"/>
-      <c r="I455" s="178"/>
-      <c r="J455" s="178"/>
-      <c r="K455" s="178"/>
-      <c r="L455" s="178">
+      <c r="C455" s="170"/>
+      <c r="D455" s="170"/>
+      <c r="E455" s="170"/>
+      <c r="F455" s="170"/>
+      <c r="G455" s="170"/>
+      <c r="H455" s="170"/>
+      <c r="I455" s="170"/>
+      <c r="J455" s="170"/>
+      <c r="K455" s="170"/>
+      <c r="L455" s="170">
         <v>120</v>
       </c>
-      <c r="M455" s="178"/>
-      <c r="N455" s="178"/>
-      <c r="O455" s="178"/>
-      <c r="P455" s="178"/>
-      <c r="Q455" s="178"/>
-      <c r="R455" s="178"/>
-      <c r="S455" s="178"/>
-      <c r="T455" s="178"/>
-      <c r="U455" s="178">
+      <c r="M455" s="170"/>
+      <c r="N455" s="170"/>
+      <c r="O455" s="170"/>
+      <c r="P455" s="170"/>
+      <c r="Q455" s="170"/>
+      <c r="R455" s="170"/>
+      <c r="S455" s="170"/>
+      <c r="T455" s="170"/>
+      <c r="U455" s="170">
         <v>0.2349</v>
       </c>
-      <c r="V455" s="178">
+      <c r="V455" s="170">
         <v>0.23730000000000001</v>
       </c>
-      <c r="W455" s="178"/>
-      <c r="X455" s="179">
+      <c r="W455" s="170"/>
+      <c r="X455" s="171">
         <v>2.4000000000000132E-3</v>
       </c>
-      <c r="Y455" s="174"/>
-      <c r="Z455" s="180"/>
-      <c r="AA455" s="181">
+      <c r="Y455" s="166"/>
+      <c r="Z455" s="172"/>
+      <c r="AA455" s="173">
         <v>20.00000000000011</v>
       </c>
     </row>
@@ -27106,42 +27106,42 @@
       <c r="A456" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="B456" s="175">
+      <c r="B456" s="167">
         <v>453</v>
       </c>
-      <c r="C456" s="178"/>
-      <c r="D456" s="178"/>
-      <c r="E456" s="178"/>
-      <c r="F456" s="178"/>
-      <c r="G456" s="178"/>
-      <c r="H456" s="178"/>
-      <c r="I456" s="178"/>
-      <c r="J456" s="178"/>
-      <c r="K456" s="178"/>
-      <c r="L456" s="178">
+      <c r="C456" s="170"/>
+      <c r="D456" s="170"/>
+      <c r="E456" s="170"/>
+      <c r="F456" s="170"/>
+      <c r="G456" s="170"/>
+      <c r="H456" s="170"/>
+      <c r="I456" s="170"/>
+      <c r="J456" s="170"/>
+      <c r="K456" s="170"/>
+      <c r="L456" s="170">
         <v>110</v>
       </c>
-      <c r="M456" s="178"/>
-      <c r="N456" s="178"/>
-      <c r="O456" s="178"/>
-      <c r="P456" s="178"/>
-      <c r="Q456" s="178"/>
-      <c r="R456" s="178"/>
-      <c r="S456" s="178"/>
-      <c r="T456" s="178"/>
-      <c r="U456" s="178">
+      <c r="M456" s="170"/>
+      <c r="N456" s="170"/>
+      <c r="O456" s="170"/>
+      <c r="P456" s="170"/>
+      <c r="Q456" s="170"/>
+      <c r="R456" s="170"/>
+      <c r="S456" s="170"/>
+      <c r="T456" s="170"/>
+      <c r="U456" s="170">
         <v>0.2311</v>
       </c>
-      <c r="V456" s="178">
+      <c r="V456" s="170">
         <v>0.23280000000000001</v>
       </c>
-      <c r="W456" s="178"/>
-      <c r="X456" s="179">
+      <c r="W456" s="170"/>
+      <c r="X456" s="171">
         <v>1.7000000000000071E-3</v>
       </c>
-      <c r="Y456" s="174"/>
-      <c r="Z456" s="180"/>
-      <c r="AA456" s="181">
+      <c r="Y456" s="166"/>
+      <c r="Z456" s="172"/>
+      <c r="AA456" s="173">
         <v>15.454545454545519</v>
       </c>
     </row>
@@ -27149,42 +27149,42 @@
       <c r="A457" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="B457" s="175">
+      <c r="B457" s="167">
         <v>454</v>
       </c>
-      <c r="C457" s="178"/>
-      <c r="D457" s="178"/>
-      <c r="E457" s="178"/>
-      <c r="F457" s="178"/>
-      <c r="G457" s="178"/>
-      <c r="H457" s="178"/>
-      <c r="I457" s="178"/>
-      <c r="J457" s="178"/>
-      <c r="K457" s="178"/>
-      <c r="L457" s="178">
+      <c r="C457" s="170"/>
+      <c r="D457" s="170"/>
+      <c r="E457" s="170"/>
+      <c r="F457" s="170"/>
+      <c r="G457" s="170"/>
+      <c r="H457" s="170"/>
+      <c r="I457" s="170"/>
+      <c r="J457" s="170"/>
+      <c r="K457" s="170"/>
+      <c r="L457" s="170">
         <v>100</v>
       </c>
-      <c r="M457" s="178"/>
-      <c r="N457" s="178"/>
-      <c r="O457" s="178"/>
-      <c r="P457" s="178"/>
-      <c r="Q457" s="178"/>
-      <c r="R457" s="178"/>
-      <c r="S457" s="178"/>
-      <c r="T457" s="178"/>
-      <c r="U457" s="178">
+      <c r="M457" s="170"/>
+      <c r="N457" s="170"/>
+      <c r="O457" s="170"/>
+      <c r="P457" s="170"/>
+      <c r="Q457" s="170"/>
+      <c r="R457" s="170"/>
+      <c r="S457" s="170"/>
+      <c r="T457" s="170"/>
+      <c r="U457" s="170">
         <v>0.22989999999999999</v>
       </c>
-      <c r="V457" s="178">
+      <c r="V457" s="170">
         <v>0.23250000000000001</v>
       </c>
-      <c r="W457" s="178"/>
-      <c r="X457" s="179">
+      <c r="W457" s="170"/>
+      <c r="X457" s="171">
         <v>2.600000000000019E-3</v>
       </c>
-      <c r="Y457" s="174"/>
-      <c r="Z457" s="180"/>
-      <c r="AA457" s="181">
+      <c r="Y457" s="166"/>
+      <c r="Z457" s="172"/>
+      <c r="AA457" s="173">
         <v>26.000000000000188</v>
       </c>
     </row>
@@ -27192,42 +27192,42 @@
       <c r="A458" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="B458" s="175">
+      <c r="B458" s="167">
         <v>455</v>
       </c>
-      <c r="C458" s="178"/>
-      <c r="D458" s="178"/>
-      <c r="E458" s="178"/>
-      <c r="F458" s="178"/>
-      <c r="G458" s="178"/>
-      <c r="H458" s="178"/>
-      <c r="I458" s="178"/>
-      <c r="J458" s="178"/>
-      <c r="K458" s="178"/>
-      <c r="L458" s="178">
+      <c r="C458" s="170"/>
+      <c r="D458" s="170"/>
+      <c r="E458" s="170"/>
+      <c r="F458" s="170"/>
+      <c r="G458" s="170"/>
+      <c r="H458" s="170"/>
+      <c r="I458" s="170"/>
+      <c r="J458" s="170"/>
+      <c r="K458" s="170"/>
+      <c r="L458" s="170">
         <v>100</v>
       </c>
-      <c r="M458" s="178"/>
-      <c r="N458" s="178"/>
-      <c r="O458" s="178"/>
-      <c r="P458" s="178"/>
-      <c r="Q458" s="178"/>
-      <c r="R458" s="178"/>
-      <c r="S458" s="178"/>
-      <c r="T458" s="178"/>
-      <c r="U458" s="178">
+      <c r="M458" s="170"/>
+      <c r="N458" s="170"/>
+      <c r="O458" s="170"/>
+      <c r="P458" s="170"/>
+      <c r="Q458" s="170"/>
+      <c r="R458" s="170"/>
+      <c r="S458" s="170"/>
+      <c r="T458" s="170"/>
+      <c r="U458" s="170">
         <v>0.22919999999999999</v>
       </c>
-      <c r="V458" s="178">
+      <c r="V458" s="170">
         <v>0.23130000000000001</v>
       </c>
-      <c r="W458" s="178"/>
-      <c r="X458" s="179">
+      <c r="W458" s="170"/>
+      <c r="X458" s="171">
         <v>2.1000000000000185E-3</v>
       </c>
-      <c r="Y458" s="174"/>
-      <c r="Z458" s="180"/>
-      <c r="AA458" s="181">
+      <c r="Y458" s="166"/>
+      <c r="Z458" s="172"/>
+      <c r="AA458" s="173">
         <v>21.000000000000185</v>
       </c>
     </row>
@@ -27235,42 +27235,42 @@
       <c r="A459" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="B459" s="175">
+      <c r="B459" s="167">
         <v>456</v>
       </c>
-      <c r="C459" s="178"/>
-      <c r="D459" s="178"/>
-      <c r="E459" s="178"/>
-      <c r="F459" s="178"/>
-      <c r="G459" s="178"/>
-      <c r="H459" s="178"/>
-      <c r="I459" s="178"/>
-      <c r="J459" s="178"/>
-      <c r="K459" s="178"/>
-      <c r="L459" s="178">
+      <c r="C459" s="170"/>
+      <c r="D459" s="170"/>
+      <c r="E459" s="170"/>
+      <c r="F459" s="170"/>
+      <c r="G459" s="170"/>
+      <c r="H459" s="170"/>
+      <c r="I459" s="170"/>
+      <c r="J459" s="170"/>
+      <c r="K459" s="170"/>
+      <c r="L459" s="170">
         <v>260</v>
       </c>
-      <c r="M459" s="178"/>
-      <c r="N459" s="178"/>
-      <c r="O459" s="178"/>
-      <c r="P459" s="178"/>
-      <c r="Q459" s="178"/>
-      <c r="R459" s="178"/>
-      <c r="S459" s="178"/>
-      <c r="T459" s="178"/>
-      <c r="U459" s="178">
+      <c r="M459" s="170"/>
+      <c r="N459" s="170"/>
+      <c r="O459" s="170"/>
+      <c r="P459" s="170"/>
+      <c r="Q459" s="170"/>
+      <c r="R459" s="170"/>
+      <c r="S459" s="170"/>
+      <c r="T459" s="170"/>
+      <c r="U459" s="170">
         <v>0.2351</v>
       </c>
-      <c r="V459" s="178">
+      <c r="V459" s="170">
         <v>0.25490000000000002</v>
       </c>
-      <c r="W459" s="178"/>
-      <c r="X459" s="179">
+      <c r="W459" s="170"/>
+      <c r="X459" s="171">
         <v>1.9800000000000012E-2</v>
       </c>
-      <c r="Y459" s="174"/>
-      <c r="Z459" s="180"/>
-      <c r="AA459" s="181">
+      <c r="Y459" s="166"/>
+      <c r="Z459" s="172"/>
+      <c r="AA459" s="173">
         <v>76.153846153846203</v>
       </c>
     </row>
@@ -27278,42 +27278,42 @@
       <c r="A460" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="B460" s="175">
+      <c r="B460" s="167">
         <v>457</v>
       </c>
-      <c r="C460" s="178"/>
-      <c r="D460" s="178"/>
-      <c r="E460" s="178"/>
-      <c r="F460" s="178"/>
-      <c r="G460" s="178"/>
-      <c r="H460" s="178"/>
-      <c r="I460" s="178"/>
-      <c r="J460" s="178"/>
-      <c r="K460" s="178"/>
-      <c r="L460" s="178">
+      <c r="C460" s="170"/>
+      <c r="D460" s="170"/>
+      <c r="E460" s="170"/>
+      <c r="F460" s="170"/>
+      <c r="G460" s="170"/>
+      <c r="H460" s="170"/>
+      <c r="I460" s="170"/>
+      <c r="J460" s="170"/>
+      <c r="K460" s="170"/>
+      <c r="L460" s="170">
         <v>250</v>
       </c>
-      <c r="M460" s="178"/>
-      <c r="N460" s="178"/>
-      <c r="O460" s="178"/>
-      <c r="P460" s="178"/>
-      <c r="Q460" s="178"/>
-      <c r="R460" s="178"/>
-      <c r="S460" s="178"/>
-      <c r="T460" s="178"/>
-      <c r="U460" s="178">
+      <c r="M460" s="170"/>
+      <c r="N460" s="170"/>
+      <c r="O460" s="170"/>
+      <c r="P460" s="170"/>
+      <c r="Q460" s="170"/>
+      <c r="R460" s="170"/>
+      <c r="S460" s="170"/>
+      <c r="T460" s="170"/>
+      <c r="U460" s="170">
         <v>0.2339</v>
       </c>
-      <c r="V460" s="178">
+      <c r="V460" s="170">
         <v>0.2442</v>
       </c>
-      <c r="W460" s="178"/>
-      <c r="X460" s="179">
+      <c r="W460" s="170"/>
+      <c r="X460" s="171">
         <v>1.0300000000000004E-2</v>
       </c>
-      <c r="Y460" s="174"/>
-      <c r="Z460" s="180"/>
-      <c r="AA460" s="181">
+      <c r="Y460" s="166"/>
+      <c r="Z460" s="172"/>
+      <c r="AA460" s="173">
         <v>41.200000000000017</v>
       </c>
     </row>
@@ -27321,42 +27321,42 @@
       <c r="A461" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="B461" s="175">
+      <c r="B461" s="167">
         <v>458</v>
       </c>
-      <c r="C461" s="178"/>
-      <c r="D461" s="178"/>
-      <c r="E461" s="178"/>
-      <c r="F461" s="178"/>
-      <c r="G461" s="178"/>
-      <c r="H461" s="178"/>
-      <c r="I461" s="178"/>
-      <c r="J461" s="178"/>
-      <c r="K461" s="178"/>
-      <c r="L461" s="178">
+      <c r="C461" s="170"/>
+      <c r="D461" s="170"/>
+      <c r="E461" s="170"/>
+      <c r="F461" s="170"/>
+      <c r="G461" s="170"/>
+      <c r="H461" s="170"/>
+      <c r="I461" s="170"/>
+      <c r="J461" s="170"/>
+      <c r="K461" s="170"/>
+      <c r="L461" s="170">
         <v>250</v>
       </c>
-      <c r="M461" s="178"/>
-      <c r="N461" s="178"/>
-      <c r="O461" s="178"/>
-      <c r="P461" s="178"/>
-      <c r="Q461" s="178"/>
-      <c r="R461" s="178"/>
-      <c r="S461" s="178"/>
-      <c r="T461" s="178"/>
-      <c r="U461" s="178">
+      <c r="M461" s="170"/>
+      <c r="N461" s="170"/>
+      <c r="O461" s="170"/>
+      <c r="P461" s="170"/>
+      <c r="Q461" s="170"/>
+      <c r="R461" s="170"/>
+      <c r="S461" s="170"/>
+      <c r="T461" s="170"/>
+      <c r="U461" s="170">
         <v>0.23799999999999999</v>
       </c>
-      <c r="V461" s="178">
+      <c r="V461" s="170">
         <v>0.24790000000000001</v>
       </c>
-      <c r="W461" s="178"/>
-      <c r="X461" s="179">
+      <c r="W461" s="170"/>
+      <c r="X461" s="171">
         <v>9.9000000000000199E-3</v>
       </c>
-      <c r="Y461" s="174"/>
-      <c r="Z461" s="180"/>
-      <c r="AA461" s="181">
+      <c r="Y461" s="166"/>
+      <c r="Z461" s="172"/>
+      <c r="AA461" s="173">
         <v>39.60000000000008</v>
       </c>
     </row>
@@ -27364,42 +27364,42 @@
       <c r="A462" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="B462" s="175">
+      <c r="B462" s="167">
         <v>459</v>
       </c>
-      <c r="C462" s="178"/>
-      <c r="D462" s="178"/>
-      <c r="E462" s="178"/>
-      <c r="F462" s="178"/>
-      <c r="G462" s="178"/>
-      <c r="H462" s="178"/>
-      <c r="I462" s="178"/>
-      <c r="J462" s="178"/>
-      <c r="K462" s="178"/>
-      <c r="L462" s="178">
+      <c r="C462" s="170"/>
+      <c r="D462" s="170"/>
+      <c r="E462" s="170"/>
+      <c r="F462" s="170"/>
+      <c r="G462" s="170"/>
+      <c r="H462" s="170"/>
+      <c r="I462" s="170"/>
+      <c r="J462" s="170"/>
+      <c r="K462" s="170"/>
+      <c r="L462" s="170">
         <v>250</v>
       </c>
-      <c r="M462" s="178"/>
-      <c r="N462" s="178"/>
-      <c r="O462" s="178"/>
-      <c r="P462" s="178"/>
-      <c r="Q462" s="178"/>
-      <c r="R462" s="178"/>
-      <c r="S462" s="178"/>
-      <c r="T462" s="178"/>
-      <c r="U462" s="178">
+      <c r="M462" s="170"/>
+      <c r="N462" s="170"/>
+      <c r="O462" s="170"/>
+      <c r="P462" s="170"/>
+      <c r="Q462" s="170"/>
+      <c r="R462" s="170"/>
+      <c r="S462" s="170"/>
+      <c r="T462" s="170"/>
+      <c r="U462" s="170">
         <v>0.23469999999999999</v>
       </c>
-      <c r="V462" s="178">
+      <c r="V462" s="170">
         <v>0.24160000000000001</v>
       </c>
-      <c r="W462" s="178"/>
-      <c r="X462" s="179">
+      <c r="W462" s="170"/>
+      <c r="X462" s="171">
         <v>6.9000000000000172E-3</v>
       </c>
-      <c r="Y462" s="174"/>
-      <c r="Z462" s="180"/>
-      <c r="AA462" s="181">
+      <c r="Y462" s="166"/>
+      <c r="Z462" s="172"/>
+      <c r="AA462" s="173">
         <v>27.600000000000069</v>
       </c>
     </row>
@@ -27407,42 +27407,42 @@
       <c r="A463" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="B463" s="175">
+      <c r="B463" s="167">
         <v>460</v>
       </c>
-      <c r="C463" s="178"/>
-      <c r="D463" s="178"/>
-      <c r="E463" s="178"/>
-      <c r="F463" s="178"/>
-      <c r="G463" s="178"/>
-      <c r="H463" s="178"/>
-      <c r="I463" s="178"/>
-      <c r="J463" s="178"/>
-      <c r="K463" s="178"/>
-      <c r="L463" s="178">
+      <c r="C463" s="170"/>
+      <c r="D463" s="170"/>
+      <c r="E463" s="170"/>
+      <c r="F463" s="170"/>
+      <c r="G463" s="170"/>
+      <c r="H463" s="170"/>
+      <c r="I463" s="170"/>
+      <c r="J463" s="170"/>
+      <c r="K463" s="170"/>
+      <c r="L463" s="170">
         <v>240</v>
       </c>
-      <c r="M463" s="178"/>
-      <c r="N463" s="178"/>
-      <c r="O463" s="178"/>
-      <c r="P463" s="178"/>
-      <c r="Q463" s="178"/>
-      <c r="R463" s="178"/>
-      <c r="S463" s="178"/>
-      <c r="T463" s="178"/>
-      <c r="U463" s="178">
+      <c r="M463" s="170"/>
+      <c r="N463" s="170"/>
+      <c r="O463" s="170"/>
+      <c r="P463" s="170"/>
+      <c r="Q463" s="170"/>
+      <c r="R463" s="170"/>
+      <c r="S463" s="170"/>
+      <c r="T463" s="170"/>
+      <c r="U463" s="170">
         <v>0.2374</v>
       </c>
-      <c r="V463" s="178">
+      <c r="V463" s="170">
         <v>0.2424</v>
       </c>
-      <c r="W463" s="178"/>
-      <c r="X463" s="179">
+      <c r="W463" s="170"/>
+      <c r="X463" s="171">
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="Y463" s="174"/>
-      <c r="Z463" s="180"/>
-      <c r="AA463" s="181">
+      <c r="Y463" s="166"/>
+      <c r="Z463" s="172"/>
+      <c r="AA463" s="173">
         <v>20.833333333333353</v>
       </c>
     </row>
@@ -27450,42 +27450,42 @@
       <c r="A464" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="B464" s="175">
+      <c r="B464" s="167">
         <v>461</v>
       </c>
-      <c r="C464" s="178"/>
-      <c r="D464" s="178"/>
-      <c r="E464" s="178"/>
-      <c r="F464" s="178"/>
-      <c r="G464" s="178"/>
-      <c r="H464" s="178"/>
-      <c r="I464" s="178"/>
-      <c r="J464" s="178"/>
-      <c r="K464" s="178"/>
-      <c r="L464" s="178">
+      <c r="C464" s="170"/>
+      <c r="D464" s="170"/>
+      <c r="E464" s="170"/>
+      <c r="F464" s="170"/>
+      <c r="G464" s="170"/>
+      <c r="H464" s="170"/>
+      <c r="I464" s="170"/>
+      <c r="J464" s="170"/>
+      <c r="K464" s="170"/>
+      <c r="L464" s="170">
         <v>250</v>
       </c>
-      <c r="M464" s="178"/>
-      <c r="N464" s="178"/>
-      <c r="O464" s="178"/>
-      <c r="P464" s="178"/>
-      <c r="Q464" s="178"/>
-      <c r="R464" s="178"/>
-      <c r="S464" s="178"/>
-      <c r="T464" s="178"/>
-      <c r="U464" s="178">
+      <c r="M464" s="170"/>
+      <c r="N464" s="170"/>
+      <c r="O464" s="170"/>
+      <c r="P464" s="170"/>
+      <c r="Q464" s="170"/>
+      <c r="R464" s="170"/>
+      <c r="S464" s="170"/>
+      <c r="T464" s="170"/>
+      <c r="U464" s="170">
         <v>0.2374</v>
       </c>
-      <c r="V464" s="178">
+      <c r="V464" s="170">
         <v>0.2482</v>
       </c>
-      <c r="W464" s="178"/>
-      <c r="X464" s="179">
+      <c r="W464" s="170"/>
+      <c r="X464" s="171">
         <v>1.0800000000000004E-2</v>
       </c>
-      <c r="Y464" s="174"/>
-      <c r="Z464" s="180"/>
-      <c r="AA464" s="181">
+      <c r="Y464" s="166"/>
+      <c r="Z464" s="172"/>
+      <c r="AA464" s="173">
         <v>43.200000000000017</v>
       </c>
     </row>
@@ -27493,42 +27493,42 @@
       <c r="A465" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="B465" s="175">
+      <c r="B465" s="167">
         <v>462</v>
       </c>
-      <c r="C465" s="178"/>
-      <c r="D465" s="178"/>
-      <c r="E465" s="178"/>
-      <c r="F465" s="178"/>
-      <c r="G465" s="178"/>
-      <c r="H465" s="178"/>
-      <c r="I465" s="178"/>
-      <c r="J465" s="178"/>
-      <c r="K465" s="178"/>
-      <c r="L465" s="178">
+      <c r="C465" s="170"/>
+      <c r="D465" s="170"/>
+      <c r="E465" s="170"/>
+      <c r="F465" s="170"/>
+      <c r="G465" s="170"/>
+      <c r="H465" s="170"/>
+      <c r="I465" s="170"/>
+      <c r="J465" s="170"/>
+      <c r="K465" s="170"/>
+      <c r="L465" s="170">
         <v>260</v>
       </c>
-      <c r="M465" s="178"/>
-      <c r="N465" s="178"/>
-      <c r="O465" s="178"/>
-      <c r="P465" s="178"/>
-      <c r="Q465" s="178"/>
-      <c r="R465" s="178"/>
-      <c r="S465" s="178"/>
-      <c r="T465" s="178"/>
-      <c r="U465" s="178">
+      <c r="M465" s="170"/>
+      <c r="N465" s="170"/>
+      <c r="O465" s="170"/>
+      <c r="P465" s="170"/>
+      <c r="Q465" s="170"/>
+      <c r="R465" s="170"/>
+      <c r="S465" s="170"/>
+      <c r="T465" s="170"/>
+      <c r="U465" s="170">
         <v>0.2281</v>
       </c>
-      <c r="V465" s="178">
+      <c r="V465" s="170">
         <v>0.23569999999999999</v>
       </c>
-      <c r="W465" s="178"/>
-      <c r="X465" s="179">
+      <c r="W465" s="170"/>
+      <c r="X465" s="171">
         <v>7.5999999999999956E-3</v>
       </c>
-      <c r="Y465" s="174"/>
-      <c r="Z465" s="180"/>
-      <c r="AA465" s="181">
+      <c r="Y465" s="166"/>
+      <c r="Z465" s="172"/>
+      <c r="AA465" s="173">
         <v>29.230769230769212</v>
       </c>
     </row>
@@ -27536,42 +27536,42 @@
       <c r="A466" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="B466" s="175">
+      <c r="B466" s="167">
         <v>463</v>
       </c>
-      <c r="C466" s="178"/>
-      <c r="D466" s="178"/>
-      <c r="E466" s="178"/>
-      <c r="F466" s="178"/>
-      <c r="G466" s="178"/>
-      <c r="H466" s="178"/>
-      <c r="I466" s="178"/>
-      <c r="J466" s="178"/>
-      <c r="K466" s="178"/>
-      <c r="L466" s="178">
+      <c r="C466" s="170"/>
+      <c r="D466" s="170"/>
+      <c r="E466" s="170"/>
+      <c r="F466" s="170"/>
+      <c r="G466" s="170"/>
+      <c r="H466" s="170"/>
+      <c r="I466" s="170"/>
+      <c r="J466" s="170"/>
+      <c r="K466" s="170"/>
+      <c r="L466" s="170">
         <v>260</v>
       </c>
-      <c r="M466" s="178"/>
-      <c r="N466" s="178"/>
-      <c r="O466" s="178"/>
-      <c r="P466" s="178"/>
-      <c r="Q466" s="178"/>
-      <c r="R466" s="178"/>
-      <c r="S466" s="178"/>
-      <c r="T466" s="178"/>
-      <c r="U466" s="178">
+      <c r="M466" s="170"/>
+      <c r="N466" s="170"/>
+      <c r="O466" s="170"/>
+      <c r="P466" s="170"/>
+      <c r="Q466" s="170"/>
+      <c r="R466" s="170"/>
+      <c r="S466" s="170"/>
+      <c r="T466" s="170"/>
+      <c r="U466" s="170">
         <v>0.2384</v>
       </c>
-      <c r="V466" s="178">
+      <c r="V466" s="170">
         <v>0.24490000000000001</v>
       </c>
-      <c r="W466" s="178"/>
-      <c r="X466" s="179">
+      <c r="W466" s="170"/>
+      <c r="X466" s="171">
         <v>6.5000000000000058E-3</v>
       </c>
-      <c r="Y466" s="174"/>
-      <c r="Z466" s="180"/>
-      <c r="AA466" s="181">
+      <c r="Y466" s="166"/>
+      <c r="Z466" s="172"/>
+      <c r="AA466" s="173">
         <v>25.000000000000021</v>
       </c>
     </row>
@@ -27579,42 +27579,42 @@
       <c r="A467" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="B467" s="175">
+      <c r="B467" s="167">
         <v>464</v>
       </c>
-      <c r="C467" s="178"/>
-      <c r="D467" s="178"/>
-      <c r="E467" s="178"/>
-      <c r="F467" s="178"/>
-      <c r="G467" s="178"/>
-      <c r="H467" s="178"/>
-      <c r="I467" s="178"/>
-      <c r="J467" s="178"/>
-      <c r="K467" s="178"/>
-      <c r="L467" s="178">
+      <c r="C467" s="170"/>
+      <c r="D467" s="170"/>
+      <c r="E467" s="170"/>
+      <c r="F467" s="170"/>
+      <c r="G467" s="170"/>
+      <c r="H467" s="170"/>
+      <c r="I467" s="170"/>
+      <c r="J467" s="170"/>
+      <c r="K467" s="170"/>
+      <c r="L467" s="170">
         <v>240</v>
       </c>
-      <c r="M467" s="178"/>
-      <c r="N467" s="178"/>
-      <c r="O467" s="178"/>
-      <c r="P467" s="178"/>
-      <c r="Q467" s="178"/>
-      <c r="R467" s="178"/>
-      <c r="S467" s="178"/>
-      <c r="T467" s="178"/>
-      <c r="U467" s="178">
+      <c r="M467" s="170"/>
+      <c r="N467" s="170"/>
+      <c r="O467" s="170"/>
+      <c r="P467" s="170"/>
+      <c r="Q467" s="170"/>
+      <c r="R467" s="170"/>
+      <c r="S467" s="170"/>
+      <c r="T467" s="170"/>
+      <c r="U467" s="170">
         <v>0.23130000000000001</v>
       </c>
-      <c r="V467" s="178">
+      <c r="V467" s="170">
         <v>0.23699999999999999</v>
       </c>
-      <c r="W467" s="178"/>
-      <c r="X467" s="179">
+      <c r="W467" s="170"/>
+      <c r="X467" s="171">
         <v>5.6999999999999829E-3</v>
       </c>
-      <c r="Y467" s="174"/>
-      <c r="Z467" s="180"/>
-      <c r="AA467" s="181">
+      <c r="Y467" s="166"/>
+      <c r="Z467" s="172"/>
+      <c r="AA467" s="173">
         <v>23.749999999999932</v>
       </c>
     </row>
@@ -27622,42 +27622,42 @@
       <c r="A468" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="B468" s="175">
+      <c r="B468" s="167">
         <v>465</v>
       </c>
-      <c r="C468" s="178"/>
-      <c r="D468" s="178"/>
-      <c r="E468" s="178"/>
-      <c r="F468" s="178"/>
-      <c r="G468" s="178"/>
-      <c r="H468" s="178"/>
-      <c r="I468" s="178"/>
-      <c r="J468" s="178"/>
-      <c r="K468" s="178"/>
-      <c r="L468" s="178">
+      <c r="C468" s="170"/>
+      <c r="D468" s="170"/>
+      <c r="E468" s="170"/>
+      <c r="F468" s="170"/>
+      <c r="G468" s="170"/>
+      <c r="H468" s="170"/>
+      <c r="I468" s="170"/>
+      <c r="J468" s="170"/>
+      <c r="K468" s="170"/>
+      <c r="L468" s="170">
         <v>90</v>
       </c>
-      <c r="M468" s="178"/>
-      <c r="N468" s="178"/>
-      <c r="O468" s="178"/>
-      <c r="P468" s="178"/>
-      <c r="Q468" s="178"/>
-      <c r="R468" s="178"/>
-      <c r="S468" s="178"/>
-      <c r="T468" s="178"/>
-      <c r="U468" s="178">
+      <c r="M468" s="170"/>
+      <c r="N468" s="170"/>
+      <c r="O468" s="170"/>
+      <c r="P468" s="170"/>
+      <c r="Q468" s="170"/>
+      <c r="R468" s="170"/>
+      <c r="S468" s="170"/>
+      <c r="T468" s="170"/>
+      <c r="U468" s="170">
         <v>0.23319999999999999</v>
       </c>
-      <c r="V468" s="178">
+      <c r="V468" s="170">
         <v>0.23519999999999999</v>
       </c>
-      <c r="W468" s="178"/>
-      <c r="X468" s="179">
+      <c r="W468" s="170"/>
+      <c r="X468" s="171">
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="Y468" s="174"/>
-      <c r="Z468" s="180"/>
-      <c r="AA468" s="181">
+      <c r="Y468" s="166"/>
+      <c r="Z468" s="172"/>
+      <c r="AA468" s="173">
         <v>22.222222222222243</v>
       </c>
     </row>
@@ -27665,42 +27665,42 @@
       <c r="A469" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="B469" s="175">
+      <c r="B469" s="167">
         <v>466</v>
       </c>
-      <c r="C469" s="178"/>
-      <c r="D469" s="178"/>
-      <c r="E469" s="178"/>
-      <c r="F469" s="178"/>
-      <c r="G469" s="178"/>
-      <c r="H469" s="178"/>
-      <c r="I469" s="178"/>
-      <c r="J469" s="178"/>
-      <c r="K469" s="178"/>
-      <c r="L469" s="178">
+      <c r="C469" s="170"/>
+      <c r="D469" s="170"/>
+      <c r="E469" s="170"/>
+      <c r="F469" s="170"/>
+      <c r="G469" s="170"/>
+      <c r="H469" s="170"/>
+      <c r="I469" s="170"/>
+      <c r="J469" s="170"/>
+      <c r="K469" s="170"/>
+      <c r="L469" s="170">
         <v>90</v>
       </c>
-      <c r="M469" s="178"/>
-      <c r="N469" s="178"/>
-      <c r="O469" s="178"/>
-      <c r="P469" s="178"/>
-      <c r="Q469" s="178"/>
-      <c r="R469" s="178"/>
-      <c r="S469" s="178"/>
-      <c r="T469" s="178"/>
-      <c r="U469" s="178">
+      <c r="M469" s="170"/>
+      <c r="N469" s="170"/>
+      <c r="O469" s="170"/>
+      <c r="P469" s="170"/>
+      <c r="Q469" s="170"/>
+      <c r="R469" s="170"/>
+      <c r="S469" s="170"/>
+      <c r="T469" s="170"/>
+      <c r="U469" s="170">
         <v>0.2298</v>
       </c>
-      <c r="V469" s="178">
+      <c r="V469" s="170">
         <v>0.23180000000000001</v>
       </c>
-      <c r="W469" s="178"/>
-      <c r="X469" s="179">
+      <c r="W469" s="170"/>
+      <c r="X469" s="171">
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="Y469" s="174"/>
-      <c r="Z469" s="180"/>
-      <c r="AA469" s="181">
+      <c r="Y469" s="166"/>
+      <c r="Z469" s="172"/>
+      <c r="AA469" s="173">
         <v>22.222222222222243</v>
       </c>
     </row>
@@ -27708,42 +27708,42 @@
       <c r="A470" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B470" s="175">
+      <c r="B470" s="167">
         <v>467</v>
       </c>
-      <c r="C470" s="178"/>
-      <c r="D470" s="178"/>
-      <c r="E470" s="178"/>
-      <c r="F470" s="178"/>
-      <c r="G470" s="178"/>
-      <c r="H470" s="178"/>
-      <c r="I470" s="178"/>
-      <c r="J470" s="178"/>
-      <c r="K470" s="178"/>
-      <c r="L470" s="178">
+      <c r="C470" s="170"/>
+      <c r="D470" s="170"/>
+      <c r="E470" s="170"/>
+      <c r="F470" s="170"/>
+      <c r="G470" s="170"/>
+      <c r="H470" s="170"/>
+      <c r="I470" s="170"/>
+      <c r="J470" s="170"/>
+      <c r="K470" s="170"/>
+      <c r="L470" s="170">
         <v>105</v>
       </c>
-      <c r="M470" s="178"/>
-      <c r="N470" s="178"/>
-      <c r="O470" s="178"/>
-      <c r="P470" s="178"/>
-      <c r="Q470" s="178"/>
-      <c r="R470" s="178"/>
-      <c r="S470" s="178"/>
-      <c r="T470" s="178"/>
-      <c r="U470" s="178">
+      <c r="M470" s="170"/>
+      <c r="N470" s="170"/>
+      <c r="O470" s="170"/>
+      <c r="P470" s="170"/>
+      <c r="Q470" s="170"/>
+      <c r="R470" s="170"/>
+      <c r="S470" s="170"/>
+      <c r="T470" s="170"/>
+      <c r="U470" s="170">
         <v>0.2283</v>
       </c>
-      <c r="V470" s="178">
+      <c r="V470" s="170">
         <v>0.2306</v>
       </c>
-      <c r="W470" s="178"/>
-      <c r="X470" s="179">
+      <c r="W470" s="170"/>
+      <c r="X470" s="171">
         <v>2.2999999999999965E-3</v>
       </c>
-      <c r="Y470" s="174"/>
-      <c r="Z470" s="180"/>
-      <c r="AA470" s="181">
+      <c r="Y470" s="166"/>
+      <c r="Z470" s="172"/>
+      <c r="AA470" s="173">
         <v>21.90476190476187</v>
       </c>
     </row>
@@ -27751,42 +27751,42 @@
       <c r="A471" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="B471" s="175">
+      <c r="B471" s="167">
         <v>468</v>
       </c>
-      <c r="C471" s="178"/>
-      <c r="D471" s="178"/>
-      <c r="E471" s="178"/>
-      <c r="F471" s="178"/>
-      <c r="G471" s="178"/>
-      <c r="H471" s="178"/>
-      <c r="I471" s="178"/>
-      <c r="J471" s="178"/>
-      <c r="K471" s="178"/>
-      <c r="L471" s="178">
+      <c r="C471" s="170"/>
+      <c r="D471" s="170"/>
+      <c r="E471" s="170"/>
+      <c r="F471" s="170"/>
+      <c r="G471" s="170"/>
+      <c r="H471" s="170"/>
+      <c r="I471" s="170"/>
+      <c r="J471" s="170"/>
+      <c r="K471" s="170"/>
+      <c r="L471" s="170">
         <v>100</v>
       </c>
-      <c r="M471" s="178"/>
-      <c r="N471" s="178"/>
-      <c r="O471" s="178"/>
-      <c r="P471" s="178"/>
-      <c r="Q471" s="178"/>
-      <c r="R471" s="178"/>
-      <c r="S471" s="178"/>
-      <c r="T471" s="178"/>
-      <c r="U471" s="178">
+      <c r="M471" s="170"/>
+      <c r="N471" s="170"/>
+      <c r="O471" s="170"/>
+      <c r="P471" s="170"/>
+      <c r="Q471" s="170"/>
+      <c r="R471" s="170"/>
+      <c r="S471" s="170"/>
+      <c r="T471" s="170"/>
+      <c r="U471" s="170">
         <v>0.22900000000000001</v>
       </c>
-      <c r="V471" s="178">
+      <c r="V471" s="170">
         <v>0.23080000000000001</v>
       </c>
-      <c r="W471" s="178"/>
-      <c r="X471" s="179">
+      <c r="W471" s="170"/>
+      <c r="X471" s="171">
         <v>1.799999999999996E-3</v>
       </c>
-      <c r="Y471" s="174"/>
-      <c r="Z471" s="180"/>
-      <c r="AA471" s="181">
+      <c r="Y471" s="166"/>
+      <c r="Z471" s="172"/>
+      <c r="AA471" s="173">
         <v>17.999999999999961</v>
       </c>
     </row>
@@ -27794,42 +27794,42 @@
       <c r="A472" s="45" t="s">
         <v>485</v>
       </c>
-      <c r="B472" s="175">
+      <c r="B472" s="167">
         <v>469</v>
       </c>
-      <c r="C472" s="178"/>
-      <c r="D472" s="178"/>
-      <c r="E472" s="178"/>
-      <c r="F472" s="178"/>
-      <c r="G472" s="178"/>
-      <c r="H472" s="178"/>
-      <c r="I472" s="178"/>
-      <c r="J472" s="178"/>
-      <c r="K472" s="178"/>
-      <c r="L472" s="178">
+      <c r="C472" s="170"/>
+      <c r="D472" s="170"/>
+      <c r="E472" s="170"/>
+      <c r="F472" s="170"/>
+      <c r="G472" s="170"/>
+      <c r="H472" s="170"/>
+      <c r="I472" s="170"/>
+      <c r="J472" s="170"/>
+      <c r="K472" s="170"/>
+      <c r="L472" s="170">
         <v>200</v>
       </c>
-      <c r="M472" s="178"/>
-      <c r="N472" s="178"/>
-      <c r="O472" s="178"/>
-      <c r="P472" s="178"/>
-      <c r="Q472" s="178"/>
-      <c r="R472" s="178"/>
-      <c r="S472" s="178"/>
-      <c r="T472" s="178"/>
-      <c r="U472" s="178">
+      <c r="M472" s="170"/>
+      <c r="N472" s="170"/>
+      <c r="O472" s="170"/>
+      <c r="P472" s="170"/>
+      <c r="Q472" s="170"/>
+      <c r="R472" s="170"/>
+      <c r="S472" s="170"/>
+      <c r="T472" s="170"/>
+      <c r="U472" s="170">
         <v>0.23630000000000001</v>
       </c>
-      <c r="V472" s="178">
+      <c r="V472" s="170">
         <v>0.2404</v>
       </c>
-      <c r="W472" s="178"/>
-      <c r="X472" s="179">
+      <c r="W472" s="170"/>
+      <c r="X472" s="171">
         <v>4.0999999999999925E-3</v>
       </c>
-      <c r="Y472" s="174"/>
-      <c r="Z472" s="180"/>
-      <c r="AA472" s="181">
+      <c r="Y472" s="166"/>
+      <c r="Z472" s="172"/>
+      <c r="AA472" s="173">
         <v>20.499999999999964</v>
       </c>
     </row>
@@ -27837,42 +27837,42 @@
       <c r="A473" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B473" s="175">
+      <c r="B473" s="167">
         <v>470</v>
       </c>
-      <c r="C473" s="178"/>
-      <c r="D473" s="178"/>
-      <c r="E473" s="178"/>
-      <c r="F473" s="178"/>
-      <c r="G473" s="178"/>
-      <c r="H473" s="178"/>
-      <c r="I473" s="178"/>
-      <c r="J473" s="178"/>
-      <c r="K473" s="178"/>
-      <c r="L473" s="178">
+      <c r="C473" s="170"/>
+      <c r="D473" s="170"/>
+      <c r="E473" s="170"/>
+      <c r="F473" s="170"/>
+      <c r="G473" s="170"/>
+      <c r="H473" s="170"/>
+      <c r="I473" s="170"/>
+      <c r="J473" s="170"/>
+      <c r="K473" s="170"/>
+      <c r="L473" s="170">
         <v>215</v>
       </c>
-      <c r="M473" s="178"/>
-      <c r="N473" s="178"/>
-      <c r="O473" s="178"/>
-      <c r="P473" s="178"/>
-      <c r="Q473" s="178"/>
-      <c r="R473" s="178"/>
-      <c r="S473" s="178"/>
-      <c r="T473" s="178"/>
-      <c r="U473" s="178">
+      <c r="M473" s="170"/>
+      <c r="N473" s="170"/>
+      <c r="O473" s="170"/>
+      <c r="P473" s="170"/>
+      <c r="Q473" s="170"/>
+      <c r="R473" s="170"/>
+      <c r="S473" s="170"/>
+      <c r="T473" s="170"/>
+      <c r="U473" s="170">
         <v>0.2341</v>
       </c>
-      <c r="V473" s="178">
+      <c r="V473" s="170">
         <v>0.23680000000000001</v>
       </c>
-      <c r="W473" s="178"/>
-      <c r="X473" s="179">
+      <c r="W473" s="170"/>
+      <c r="X473" s="171">
         <v>2.7000000000000079E-3</v>
       </c>
-      <c r="Y473" s="174"/>
-      <c r="Z473" s="180"/>
-      <c r="AA473" s="181">
+      <c r="Y473" s="166"/>
+      <c r="Z473" s="172"/>
+      <c r="AA473" s="173">
         <v>12.558139534883757</v>
       </c>
     </row>
@@ -27880,42 +27880,42 @@
       <c r="A474" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="B474" s="175">
+      <c r="B474" s="167">
         <v>471</v>
       </c>
-      <c r="C474" s="178"/>
-      <c r="D474" s="178"/>
-      <c r="E474" s="178"/>
-      <c r="F474" s="178"/>
-      <c r="G474" s="178"/>
-      <c r="H474" s="178"/>
-      <c r="I474" s="178"/>
-      <c r="J474" s="178"/>
-      <c r="K474" s="178"/>
-      <c r="L474" s="178">
+      <c r="C474" s="170"/>
+      <c r="D474" s="170"/>
+      <c r="E474" s="170"/>
+      <c r="F474" s="170"/>
+      <c r="G474" s="170"/>
+      <c r="H474" s="170"/>
+      <c r="I474" s="170"/>
+      <c r="J474" s="170"/>
+      <c r="K474" s="170"/>
+      <c r="L474" s="170">
         <v>250</v>
       </c>
-      <c r="M474" s="178"/>
-      <c r="N474" s="178"/>
-      <c r="O474" s="178"/>
-      <c r="P474" s="178"/>
-      <c r="Q474" s="178"/>
-      <c r="R474" s="178"/>
-      <c r="S474" s="178"/>
-      <c r="T474" s="178"/>
-      <c r="U474" s="178">
+      <c r="M474" s="170"/>
+      <c r="N474" s="170"/>
+      <c r="O474" s="170"/>
+      <c r="P474" s="170"/>
+      <c r="Q474" s="170"/>
+      <c r="R474" s="170"/>
+      <c r="S474" s="170"/>
+      <c r="T474" s="170"/>
+      <c r="U474" s="170">
         <v>0.22919999999999999</v>
       </c>
-      <c r="V474" s="178">
+      <c r="V474" s="170">
         <v>0.23369999999999999</v>
       </c>
-      <c r="W474" s="178"/>
-      <c r="X474" s="179">
+      <c r="W474" s="170"/>
+      <c r="X474" s="171">
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="Y474" s="174"/>
-      <c r="Z474" s="180"/>
-      <c r="AA474" s="181">
+      <c r="Y474" s="166"/>
+      <c r="Z474" s="172"/>
+      <c r="AA474" s="173">
         <v>18.000000000000014</v>
       </c>
     </row>
@@ -27923,42 +27923,42 @@
       <c r="A475" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="B475" s="175">
+      <c r="B475" s="167">
         <v>472</v>
       </c>
-      <c r="C475" s="178"/>
-      <c r="D475" s="178"/>
-      <c r="E475" s="178"/>
-      <c r="F475" s="178"/>
-      <c r="G475" s="178"/>
-      <c r="H475" s="178"/>
-      <c r="I475" s="178"/>
-      <c r="J475" s="178"/>
-      <c r="K475" s="178"/>
-      <c r="L475" s="178">
+      <c r="C475" s="170"/>
+      <c r="D475" s="170"/>
+      <c r="E475" s="170"/>
+      <c r="F475" s="170"/>
+      <c r="G475" s="170"/>
+      <c r="H475" s="170"/>
+      <c r="I475" s="170"/>
+      <c r="J475" s="170"/>
+      <c r="K475" s="170"/>
+      <c r="L475" s="170">
         <v>250</v>
       </c>
-      <c r="M475" s="178"/>
-      <c r="N475" s="178"/>
-      <c r="O475" s="178"/>
-      <c r="P475" s="178"/>
-      <c r="Q475" s="178"/>
-      <c r="R475" s="178"/>
-      <c r="S475" s="178"/>
-      <c r="T475" s="178"/>
-      <c r="U475" s="178">
+      <c r="M475" s="170"/>
+      <c r="N475" s="170"/>
+      <c r="O475" s="170"/>
+      <c r="P475" s="170"/>
+      <c r="Q475" s="170"/>
+      <c r="R475" s="170"/>
+      <c r="S475" s="170"/>
+      <c r="T475" s="170"/>
+      <c r="U475" s="170">
         <v>0.23760000000000001</v>
       </c>
-      <c r="V475" s="178">
+      <c r="V475" s="170">
         <v>0.24260000000000001</v>
       </c>
-      <c r="W475" s="178"/>
-      <c r="X475" s="179">
+      <c r="W475" s="170"/>
+      <c r="X475" s="171">
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="Y475" s="174"/>
-      <c r="Z475" s="180"/>
-      <c r="AA475" s="181">
+      <c r="Y475" s="166"/>
+      <c r="Z475" s="172"/>
+      <c r="AA475" s="173">
         <v>20.000000000000018</v>
       </c>
     </row>
@@ -28003,7 +28003,7 @@
       <c r="Y476" s="45"/>
       <c r="Z476" s="126"/>
       <c r="AA476" s="145">
-        <f t="shared" ref="AA454:AA508" si="18">(X476/L476)*1000*1000</f>
+        <f t="shared" ref="AA476:AA508" si="18">(X476/L476)*1000*1000</f>
         <v>16.666666666666682</v>
       </c>
     </row>
@@ -28101,42 +28101,42 @@
       <c r="A479" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="B479" s="175">
+      <c r="B479" s="167">
         <v>476</v>
       </c>
-      <c r="C479" s="178"/>
-      <c r="D479" s="178"/>
-      <c r="E479" s="178"/>
-      <c r="F479" s="178"/>
-      <c r="G479" s="178"/>
-      <c r="H479" s="178"/>
-      <c r="I479" s="178"/>
-      <c r="J479" s="178"/>
-      <c r="K479" s="178"/>
-      <c r="L479" s="178">
+      <c r="C479" s="170"/>
+      <c r="D479" s="170"/>
+      <c r="E479" s="170"/>
+      <c r="F479" s="170"/>
+      <c r="G479" s="170"/>
+      <c r="H479" s="170"/>
+      <c r="I479" s="170"/>
+      <c r="J479" s="170"/>
+      <c r="K479" s="170"/>
+      <c r="L479" s="170">
         <v>190</v>
       </c>
-      <c r="M479" s="178"/>
-      <c r="N479" s="178"/>
-      <c r="O479" s="178"/>
-      <c r="P479" s="178"/>
-      <c r="Q479" s="178"/>
-      <c r="R479" s="178"/>
-      <c r="S479" s="178"/>
-      <c r="T479" s="178"/>
-      <c r="U479" s="178">
+      <c r="M479" s="170"/>
+      <c r="N479" s="170"/>
+      <c r="O479" s="170"/>
+      <c r="P479" s="170"/>
+      <c r="Q479" s="170"/>
+      <c r="R479" s="170"/>
+      <c r="S479" s="170"/>
+      <c r="T479" s="170"/>
+      <c r="U479" s="170">
         <v>0.23569999999999999</v>
       </c>
-      <c r="V479" s="178">
+      <c r="V479" s="170">
         <v>0.2505</v>
       </c>
-      <c r="W479" s="178"/>
-      <c r="X479" s="179">
+      <c r="W479" s="170"/>
+      <c r="X479" s="171">
         <v>1.4800000000000008E-2</v>
       </c>
-      <c r="Y479" s="174"/>
-      <c r="Z479" s="180"/>
-      <c r="AA479" s="181">
+      <c r="Y479" s="166"/>
+      <c r="Z479" s="172"/>
+      <c r="AA479" s="173">
         <v>77.894736842105289</v>
       </c>
     </row>
@@ -28144,42 +28144,42 @@
       <c r="A480" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="B480" s="175">
+      <c r="B480" s="167">
         <v>477</v>
       </c>
-      <c r="C480" s="178"/>
-      <c r="D480" s="178"/>
-      <c r="E480" s="178"/>
-      <c r="F480" s="178"/>
-      <c r="G480" s="178"/>
-      <c r="H480" s="178"/>
-      <c r="I480" s="178"/>
-      <c r="J480" s="178"/>
-      <c r="K480" s="178"/>
-      <c r="L480" s="178">
+      <c r="C480" s="170"/>
+      <c r="D480" s="170"/>
+      <c r="E480" s="170"/>
+      <c r="F480" s="170"/>
+      <c r="G480" s="170"/>
+      <c r="H480" s="170"/>
+      <c r="I480" s="170"/>
+      <c r="J480" s="170"/>
+      <c r="K480" s="170"/>
+      <c r="L480" s="170">
         <v>200</v>
       </c>
-      <c r="M480" s="178"/>
-      <c r="N480" s="178"/>
-      <c r="O480" s="178"/>
-      <c r="P480" s="178"/>
-      <c r="Q480" s="178"/>
-      <c r="R480" s="178"/>
-      <c r="S480" s="178"/>
-      <c r="T480" s="178"/>
-      <c r="U480" s="178">
+      <c r="M480" s="170"/>
+      <c r="N480" s="170"/>
+      <c r="O480" s="170"/>
+      <c r="P480" s="170"/>
+      <c r="Q480" s="170"/>
+      <c r="R480" s="170"/>
+      <c r="S480" s="170"/>
+      <c r="T480" s="170"/>
+      <c r="U480" s="170">
         <v>0.23250000000000001</v>
       </c>
-      <c r="V480" s="178">
+      <c r="V480" s="170">
         <v>0.24110000000000001</v>
       </c>
-      <c r="W480" s="178"/>
-      <c r="X480" s="179">
+      <c r="W480" s="170"/>
+      <c r="X480" s="171">
         <v>8.5999999999999965E-3</v>
       </c>
-      <c r="Y480" s="174"/>
-      <c r="Z480" s="180"/>
-      <c r="AA480" s="181">
+      <c r="Y480" s="166"/>
+      <c r="Z480" s="172"/>
+      <c r="AA480" s="173">
         <v>42.999999999999986</v>
       </c>
     </row>
@@ -28187,42 +28187,42 @@
       <c r="A481" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="B481" s="175">
+      <c r="B481" s="167">
         <v>478</v>
       </c>
-      <c r="C481" s="178"/>
-      <c r="D481" s="178"/>
-      <c r="E481" s="178"/>
-      <c r="F481" s="178"/>
-      <c r="G481" s="178"/>
-      <c r="H481" s="178"/>
-      <c r="I481" s="178"/>
-      <c r="J481" s="178"/>
-      <c r="K481" s="178"/>
-      <c r="L481" s="178">
+      <c r="C481" s="170"/>
+      <c r="D481" s="170"/>
+      <c r="E481" s="170"/>
+      <c r="F481" s="170"/>
+      <c r="G481" s="170"/>
+      <c r="H481" s="170"/>
+      <c r="I481" s="170"/>
+      <c r="J481" s="170"/>
+      <c r="K481" s="170"/>
+      <c r="L481" s="170">
         <v>200</v>
       </c>
-      <c r="M481" s="178"/>
-      <c r="N481" s="178"/>
-      <c r="O481" s="178"/>
-      <c r="P481" s="178"/>
-      <c r="Q481" s="178"/>
-      <c r="R481" s="178"/>
-      <c r="S481" s="178"/>
-      <c r="T481" s="178"/>
-      <c r="U481" s="178">
+      <c r="M481" s="170"/>
+      <c r="N481" s="170"/>
+      <c r="O481" s="170"/>
+      <c r="P481" s="170"/>
+      <c r="Q481" s="170"/>
+      <c r="R481" s="170"/>
+      <c r="S481" s="170"/>
+      <c r="T481" s="170"/>
+      <c r="U481" s="170">
         <v>0.2399</v>
       </c>
-      <c r="V481" s="178">
+      <c r="V481" s="170">
         <v>0.24709999999999999</v>
       </c>
-      <c r="W481" s="178"/>
-      <c r="X481" s="179">
+      <c r="W481" s="170"/>
+      <c r="X481" s="171">
         <v>7.1999999999999842E-3</v>
       </c>
-      <c r="Y481" s="174"/>
-      <c r="Z481" s="180"/>
-      <c r="AA481" s="181">
+      <c r="Y481" s="166"/>
+      <c r="Z481" s="172"/>
+      <c r="AA481" s="173">
         <v>35.999999999999922</v>
       </c>
     </row>
@@ -28230,42 +28230,42 @@
       <c r="A482" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="B482" s="175">
+      <c r="B482" s="167">
         <v>479</v>
       </c>
-      <c r="C482" s="178"/>
-      <c r="D482" s="178"/>
-      <c r="E482" s="178"/>
-      <c r="F482" s="178"/>
-      <c r="G482" s="178"/>
-      <c r="H482" s="178"/>
-      <c r="I482" s="178"/>
-      <c r="J482" s="178"/>
-      <c r="K482" s="178"/>
-      <c r="L482" s="178">
+      <c r="C482" s="170"/>
+      <c r="D482" s="170"/>
+      <c r="E482" s="170"/>
+      <c r="F482" s="170"/>
+      <c r="G482" s="170"/>
+      <c r="H482" s="170"/>
+      <c r="I482" s="170"/>
+      <c r="J482" s="170"/>
+      <c r="K482" s="170"/>
+      <c r="L482" s="170">
         <v>215</v>
       </c>
-      <c r="M482" s="178"/>
-      <c r="N482" s="178"/>
-      <c r="O482" s="178"/>
-      <c r="P482" s="178"/>
-      <c r="Q482" s="178"/>
-      <c r="R482" s="178"/>
-      <c r="S482" s="178"/>
-      <c r="T482" s="178"/>
-      <c r="U482" s="178">
+      <c r="M482" s="170"/>
+      <c r="N482" s="170"/>
+      <c r="O482" s="170"/>
+      <c r="P482" s="170"/>
+      <c r="Q482" s="170"/>
+      <c r="R482" s="170"/>
+      <c r="S482" s="170"/>
+      <c r="T482" s="170"/>
+      <c r="U482" s="170">
         <v>0.2288</v>
       </c>
-      <c r="V482" s="178">
+      <c r="V482" s="170">
         <v>0.23499999999999999</v>
       </c>
-      <c r="W482" s="178"/>
-      <c r="X482" s="179">
+      <c r="W482" s="170"/>
+      <c r="X482" s="171">
         <v>6.1999999999999833E-3</v>
       </c>
-      <c r="Y482" s="174"/>
-      <c r="Z482" s="180"/>
-      <c r="AA482" s="181">
+      <c r="Y482" s="166"/>
+      <c r="Z482" s="172"/>
+      <c r="AA482" s="173">
         <v>28.837209302325505</v>
       </c>
     </row>
@@ -28273,42 +28273,42 @@
       <c r="A483" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="B483" s="175">
+      <c r="B483" s="167">
         <v>480</v>
       </c>
-      <c r="C483" s="178"/>
-      <c r="D483" s="178"/>
-      <c r="E483" s="178"/>
-      <c r="F483" s="178"/>
-      <c r="G483" s="178"/>
-      <c r="H483" s="178"/>
-      <c r="I483" s="178"/>
-      <c r="J483" s="178"/>
-      <c r="K483" s="178"/>
-      <c r="L483" s="178">
+      <c r="C483" s="170"/>
+      <c r="D483" s="170"/>
+      <c r="E483" s="170"/>
+      <c r="F483" s="170"/>
+      <c r="G483" s="170"/>
+      <c r="H483" s="170"/>
+      <c r="I483" s="170"/>
+      <c r="J483" s="170"/>
+      <c r="K483" s="170"/>
+      <c r="L483" s="170">
         <v>220</v>
       </c>
-      <c r="M483" s="178"/>
-      <c r="N483" s="178"/>
-      <c r="O483" s="178"/>
-      <c r="P483" s="178"/>
-      <c r="Q483" s="178"/>
-      <c r="R483" s="178"/>
-      <c r="S483" s="178"/>
-      <c r="T483" s="178"/>
-      <c r="U483" s="178">
+      <c r="M483" s="170"/>
+      <c r="N483" s="170"/>
+      <c r="O483" s="170"/>
+      <c r="P483" s="170"/>
+      <c r="Q483" s="170"/>
+      <c r="R483" s="170"/>
+      <c r="S483" s="170"/>
+      <c r="T483" s="170"/>
+      <c r="U483" s="170">
         <v>0.23330000000000001</v>
       </c>
-      <c r="V483" s="178">
+      <c r="V483" s="170">
         <v>0.23980000000000001</v>
       </c>
-      <c r="W483" s="178"/>
-      <c r="X483" s="179">
+      <c r="W483" s="170"/>
+      <c r="X483" s="171">
         <v>6.5000000000000058E-3</v>
       </c>
-      <c r="Y483" s="174"/>
-      <c r="Z483" s="180"/>
-      <c r="AA483" s="181">
+      <c r="Y483" s="166"/>
+      <c r="Z483" s="172"/>
+      <c r="AA483" s="173">
         <v>29.545454545454572</v>
       </c>
     </row>
@@ -28316,43 +28316,43 @@
       <c r="A484" s="59" t="s">
         <v>488</v>
       </c>
-      <c r="B484" s="175">
+      <c r="B484" s="167">
         <v>481</v>
       </c>
-      <c r="C484" s="178"/>
-      <c r="D484" s="178"/>
-      <c r="E484" s="178"/>
-      <c r="F484" s="178"/>
-      <c r="G484" s="178"/>
-      <c r="H484" s="178"/>
-      <c r="I484" s="178"/>
-      <c r="J484" s="178"/>
-      <c r="K484" s="178"/>
-      <c r="L484" s="178">
+      <c r="C484" s="170"/>
+      <c r="D484" s="170"/>
+      <c r="E484" s="170"/>
+      <c r="F484" s="170"/>
+      <c r="G484" s="170"/>
+      <c r="H484" s="170"/>
+      <c r="I484" s="170"/>
+      <c r="J484" s="170"/>
+      <c r="K484" s="170"/>
+      <c r="L484" s="170">
         <v>190</v>
       </c>
-      <c r="M484" s="178"/>
-      <c r="N484" s="178"/>
-      <c r="O484" s="178"/>
-      <c r="P484" s="178"/>
-      <c r="Q484" s="178"/>
-      <c r="R484" s="178"/>
-      <c r="S484" s="178"/>
-      <c r="T484" s="178"/>
-      <c r="U484" s="178">
+      <c r="M484" s="170"/>
+      <c r="N484" s="170"/>
+      <c r="O484" s="170"/>
+      <c r="P484" s="170"/>
+      <c r="Q484" s="170"/>
+      <c r="R484" s="170"/>
+      <c r="S484" s="170"/>
+      <c r="T484" s="170"/>
+      <c r="U484" s="170">
         <v>0.2316</v>
       </c>
-      <c r="V484" s="178">
+      <c r="V484" s="170">
         <v>0.23669999999999999</v>
       </c>
-      <c r="W484" s="178"/>
-      <c r="X484" s="179">
+      <c r="W484" s="170"/>
+      <c r="X484" s="171">
         <f t="shared" ref="X484:X508" si="19">V484-U484</f>
         <v>5.0999999999999934E-3</v>
       </c>
-      <c r="Y484" s="174"/>
-      <c r="Z484" s="180"/>
-      <c r="AA484" s="181">
+      <c r="Y484" s="166"/>
+      <c r="Z484" s="172"/>
+      <c r="AA484" s="173">
         <f t="shared" si="18"/>
         <v>26.842105263157862</v>
       </c>
@@ -28361,43 +28361,43 @@
       <c r="A485" s="59" t="s">
         <v>489</v>
       </c>
-      <c r="B485" s="175">
+      <c r="B485" s="167">
         <v>482</v>
       </c>
-      <c r="C485" s="178"/>
-      <c r="D485" s="178"/>
-      <c r="E485" s="178"/>
-      <c r="F485" s="178"/>
-      <c r="G485" s="178"/>
-      <c r="H485" s="178"/>
-      <c r="I485" s="178"/>
-      <c r="J485" s="178"/>
-      <c r="K485" s="178"/>
-      <c r="L485" s="178">
+      <c r="C485" s="170"/>
+      <c r="D485" s="170"/>
+      <c r="E485" s="170"/>
+      <c r="F485" s="170"/>
+      <c r="G485" s="170"/>
+      <c r="H485" s="170"/>
+      <c r="I485" s="170"/>
+      <c r="J485" s="170"/>
+      <c r="K485" s="170"/>
+      <c r="L485" s="170">
         <v>200</v>
       </c>
-      <c r="M485" s="178"/>
-      <c r="N485" s="178"/>
-      <c r="O485" s="178"/>
-      <c r="P485" s="178"/>
-      <c r="Q485" s="178"/>
-      <c r="R485" s="178"/>
-      <c r="S485" s="178"/>
-      <c r="T485" s="178"/>
-      <c r="U485" s="178">
+      <c r="M485" s="170"/>
+      <c r="N485" s="170"/>
+      <c r="O485" s="170"/>
+      <c r="P485" s="170"/>
+      <c r="Q485" s="170"/>
+      <c r="R485" s="170"/>
+      <c r="S485" s="170"/>
+      <c r="T485" s="170"/>
+      <c r="U485" s="170">
         <v>0.22189999999999999</v>
       </c>
-      <c r="V485" s="178">
+      <c r="V485" s="170">
         <v>0.22670000000000001</v>
       </c>
-      <c r="W485" s="178"/>
-      <c r="X485" s="179">
+      <c r="W485" s="170"/>
+      <c r="X485" s="171">
         <f t="shared" si="19"/>
         <v>4.8000000000000265E-3</v>
       </c>
-      <c r="Y485" s="174"/>
-      <c r="Z485" s="180"/>
-      <c r="AA485" s="181">
+      <c r="Y485" s="166"/>
+      <c r="Z485" s="172"/>
+      <c r="AA485" s="173">
         <f t="shared" si="18"/>
         <v>24.000000000000131</v>
       </c>
@@ -28451,42 +28451,42 @@
       <c r="A487" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="B487" s="175">
+      <c r="B487" s="167">
         <v>484</v>
       </c>
-      <c r="C487" s="174"/>
-      <c r="D487" s="174"/>
-      <c r="E487" s="174"/>
-      <c r="F487" s="174"/>
-      <c r="G487" s="174"/>
-      <c r="H487" s="174"/>
-      <c r="I487" s="174"/>
-      <c r="J487" s="174"/>
-      <c r="K487" s="174"/>
-      <c r="L487" s="178">
+      <c r="C487" s="166"/>
+      <c r="D487" s="166"/>
+      <c r="E487" s="166"/>
+      <c r="F487" s="166"/>
+      <c r="G487" s="166"/>
+      <c r="H487" s="166"/>
+      <c r="I487" s="166"/>
+      <c r="J487" s="166"/>
+      <c r="K487" s="166"/>
+      <c r="L487" s="170">
         <v>250</v>
       </c>
-      <c r="M487" s="174"/>
-      <c r="N487" s="174"/>
-      <c r="O487" s="174"/>
-      <c r="P487" s="174"/>
-      <c r="Q487" s="174"/>
-      <c r="R487" s="174"/>
-      <c r="S487" s="174"/>
-      <c r="T487" s="174"/>
-      <c r="U487" s="178">
+      <c r="M487" s="166"/>
+      <c r="N487" s="166"/>
+      <c r="O487" s="166"/>
+      <c r="P487" s="166"/>
+      <c r="Q487" s="166"/>
+      <c r="R487" s="166"/>
+      <c r="S487" s="166"/>
+      <c r="T487" s="166"/>
+      <c r="U487" s="170">
         <v>0.23899999999999999</v>
       </c>
-      <c r="V487" s="178">
+      <c r="V487" s="170">
         <v>0.24840000000000001</v>
       </c>
-      <c r="W487" s="178"/>
-      <c r="X487" s="186">
+      <c r="W487" s="170"/>
+      <c r="X487" s="178">
         <v>9.4000000000000195E-3</v>
       </c>
-      <c r="Y487" s="174"/>
-      <c r="Z487" s="174"/>
-      <c r="AA487" s="181">
+      <c r="Y487" s="166"/>
+      <c r="Z487" s="166"/>
+      <c r="AA487" s="173">
         <v>37.60000000000008</v>
       </c>
     </row>
@@ -28494,42 +28494,42 @@
       <c r="A488" s="69" t="s">
         <v>472</v>
       </c>
-      <c r="B488" s="175">
+      <c r="B488" s="167">
         <v>485</v>
       </c>
-      <c r="C488" s="174"/>
-      <c r="D488" s="174"/>
-      <c r="E488" s="174"/>
-      <c r="F488" s="174"/>
-      <c r="G488" s="174"/>
-      <c r="H488" s="174"/>
-      <c r="I488" s="174"/>
-      <c r="J488" s="174"/>
-      <c r="K488" s="174"/>
-      <c r="L488" s="178">
+      <c r="C488" s="166"/>
+      <c r="D488" s="166"/>
+      <c r="E488" s="166"/>
+      <c r="F488" s="166"/>
+      <c r="G488" s="166"/>
+      <c r="H488" s="166"/>
+      <c r="I488" s="166"/>
+      <c r="J488" s="166"/>
+      <c r="K488" s="166"/>
+      <c r="L488" s="170">
         <v>260</v>
       </c>
-      <c r="M488" s="174"/>
-      <c r="N488" s="174"/>
-      <c r="O488" s="174"/>
-      <c r="P488" s="174"/>
-      <c r="Q488" s="174"/>
-      <c r="R488" s="174"/>
-      <c r="S488" s="174"/>
-      <c r="T488" s="174"/>
-      <c r="U488" s="178">
+      <c r="M488" s="166"/>
+      <c r="N488" s="166"/>
+      <c r="O488" s="166"/>
+      <c r="P488" s="166"/>
+      <c r="Q488" s="166"/>
+      <c r="R488" s="166"/>
+      <c r="S488" s="166"/>
+      <c r="T488" s="166"/>
+      <c r="U488" s="170">
         <v>0.2356</v>
       </c>
-      <c r="V488" s="178">
+      <c r="V488" s="170">
         <v>0.24379999999999999</v>
       </c>
-      <c r="W488" s="178"/>
-      <c r="X488" s="186">
+      <c r="W488" s="170"/>
+      <c r="X488" s="178">
         <v>8.1999999999999851E-3</v>
       </c>
-      <c r="Y488" s="174"/>
-      <c r="Z488" s="174"/>
-      <c r="AA488" s="181">
+      <c r="Y488" s="166"/>
+      <c r="Z488" s="166"/>
+      <c r="AA488" s="173">
         <v>31.53846153846148</v>
       </c>
     </row>
@@ -28537,42 +28537,42 @@
       <c r="A489" s="69" t="s">
         <v>473</v>
       </c>
-      <c r="B489" s="175">
+      <c r="B489" s="167">
         <v>486</v>
       </c>
-      <c r="C489" s="174"/>
-      <c r="D489" s="174"/>
-      <c r="E489" s="174"/>
-      <c r="F489" s="174"/>
-      <c r="G489" s="174"/>
-      <c r="H489" s="174"/>
-      <c r="I489" s="174"/>
-      <c r="J489" s="174"/>
-      <c r="K489" s="174"/>
-      <c r="L489" s="178">
+      <c r="C489" s="166"/>
+      <c r="D489" s="166"/>
+      <c r="E489" s="166"/>
+      <c r="F489" s="166"/>
+      <c r="G489" s="166"/>
+      <c r="H489" s="166"/>
+      <c r="I489" s="166"/>
+      <c r="J489" s="166"/>
+      <c r="K489" s="166"/>
+      <c r="L489" s="170">
         <v>260</v>
       </c>
-      <c r="M489" s="174"/>
-      <c r="N489" s="174"/>
-      <c r="O489" s="174"/>
-      <c r="P489" s="174"/>
-      <c r="Q489" s="174"/>
-      <c r="R489" s="174"/>
-      <c r="S489" s="174"/>
-      <c r="T489" s="174"/>
-      <c r="U489" s="178">
+      <c r="M489" s="166"/>
+      <c r="N489" s="166"/>
+      <c r="O489" s="166"/>
+      <c r="P489" s="166"/>
+      <c r="Q489" s="166"/>
+      <c r="R489" s="166"/>
+      <c r="S489" s="166"/>
+      <c r="T489" s="166"/>
+      <c r="U489" s="170">
         <v>0.23300000000000001</v>
       </c>
-      <c r="V489" s="178">
+      <c r="V489" s="170">
         <v>0.24030000000000001</v>
       </c>
-      <c r="W489" s="178"/>
-      <c r="X489" s="186">
+      <c r="W489" s="170"/>
+      <c r="X489" s="178">
         <v>7.3000000000000009E-3</v>
       </c>
-      <c r="Y489" s="174"/>
-      <c r="Z489" s="174"/>
-      <c r="AA489" s="181">
+      <c r="Y489" s="166"/>
+      <c r="Z489" s="166"/>
+      <c r="AA489" s="173">
         <v>28.076923076923084</v>
       </c>
     </row>
@@ -28715,42 +28715,42 @@
       <c r="A493" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="B493" s="175">
+      <c r="B493" s="167">
         <v>490</v>
       </c>
-      <c r="C493" s="174"/>
-      <c r="D493" s="174"/>
-      <c r="E493" s="174"/>
-      <c r="F493" s="174"/>
-      <c r="G493" s="174"/>
-      <c r="H493" s="174"/>
-      <c r="I493" s="174"/>
-      <c r="J493" s="174"/>
-      <c r="K493" s="174"/>
-      <c r="L493" s="178">
+      <c r="C493" s="166"/>
+      <c r="D493" s="166"/>
+      <c r="E493" s="166"/>
+      <c r="F493" s="166"/>
+      <c r="G493" s="166"/>
+      <c r="H493" s="166"/>
+      <c r="I493" s="166"/>
+      <c r="J493" s="166"/>
+      <c r="K493" s="166"/>
+      <c r="L493" s="170">
         <v>260</v>
       </c>
-      <c r="M493" s="174"/>
-      <c r="N493" s="174"/>
-      <c r="O493" s="174"/>
-      <c r="P493" s="174"/>
-      <c r="Q493" s="174"/>
-      <c r="R493" s="174"/>
-      <c r="S493" s="174"/>
-      <c r="T493" s="174"/>
-      <c r="U493" s="178">
+      <c r="M493" s="166"/>
+      <c r="N493" s="166"/>
+      <c r="O493" s="166"/>
+      <c r="P493" s="166"/>
+      <c r="Q493" s="166"/>
+      <c r="R493" s="166"/>
+      <c r="S493" s="166"/>
+      <c r="T493" s="166"/>
+      <c r="U493" s="170">
         <v>0.23469999999999999</v>
       </c>
-      <c r="V493" s="178">
+      <c r="V493" s="170">
         <v>0.2427</v>
       </c>
-      <c r="W493" s="178"/>
-      <c r="X493" s="186">
+      <c r="W493" s="170"/>
+      <c r="X493" s="178">
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="Y493" s="174"/>
-      <c r="Z493" s="174"/>
-      <c r="AA493" s="181">
+      <c r="Y493" s="166"/>
+      <c r="Z493" s="166"/>
+      <c r="AA493" s="173">
         <v>30.769230769230795</v>
       </c>
     </row>
@@ -28758,42 +28758,42 @@
       <c r="A494" s="69" t="s">
         <v>479</v>
       </c>
-      <c r="B494" s="175">
+      <c r="B494" s="167">
         <v>491</v>
       </c>
-      <c r="C494" s="174"/>
-      <c r="D494" s="174"/>
-      <c r="E494" s="174"/>
-      <c r="F494" s="174"/>
-      <c r="G494" s="174"/>
-      <c r="H494" s="174"/>
-      <c r="I494" s="174"/>
-      <c r="J494" s="174"/>
-      <c r="K494" s="174"/>
-      <c r="L494" s="178">
+      <c r="C494" s="166"/>
+      <c r="D494" s="166"/>
+      <c r="E494" s="166"/>
+      <c r="F494" s="166"/>
+      <c r="G494" s="166"/>
+      <c r="H494" s="166"/>
+      <c r="I494" s="166"/>
+      <c r="J494" s="166"/>
+      <c r="K494" s="166"/>
+      <c r="L494" s="170">
         <v>265</v>
       </c>
-      <c r="M494" s="174"/>
-      <c r="N494" s="174"/>
-      <c r="O494" s="174"/>
-      <c r="P494" s="174"/>
-      <c r="Q494" s="174"/>
-      <c r="R494" s="174"/>
-      <c r="S494" s="174"/>
-      <c r="T494" s="174"/>
-      <c r="U494" s="178">
+      <c r="M494" s="166"/>
+      <c r="N494" s="166"/>
+      <c r="O494" s="166"/>
+      <c r="P494" s="166"/>
+      <c r="Q494" s="166"/>
+      <c r="R494" s="166"/>
+      <c r="S494" s="166"/>
+      <c r="T494" s="166"/>
+      <c r="U494" s="170">
         <v>0.24060000000000001</v>
       </c>
-      <c r="V494" s="178">
+      <c r="V494" s="170">
         <v>0.24859999999999999</v>
       </c>
-      <c r="W494" s="178"/>
-      <c r="X494" s="186">
+      <c r="W494" s="170"/>
+      <c r="X494" s="178">
         <v>7.9999999999999793E-3</v>
       </c>
-      <c r="Y494" s="174"/>
-      <c r="Z494" s="174"/>
-      <c r="AA494" s="181">
+      <c r="Y494" s="166"/>
+      <c r="Z494" s="166"/>
+      <c r="AA494" s="173">
         <v>30.188679245282938</v>
       </c>
     </row>
@@ -28801,42 +28801,42 @@
       <c r="A495" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="B495" s="175">
+      <c r="B495" s="167">
         <v>492</v>
       </c>
-      <c r="C495" s="174"/>
-      <c r="D495" s="174"/>
-      <c r="E495" s="174"/>
-      <c r="F495" s="174"/>
-      <c r="G495" s="174"/>
-      <c r="H495" s="174"/>
-      <c r="I495" s="174"/>
-      <c r="J495" s="174"/>
-      <c r="K495" s="174"/>
-      <c r="L495" s="178">
+      <c r="C495" s="166"/>
+      <c r="D495" s="166"/>
+      <c r="E495" s="166"/>
+      <c r="F495" s="166"/>
+      <c r="G495" s="166"/>
+      <c r="H495" s="166"/>
+      <c r="I495" s="166"/>
+      <c r="J495" s="166"/>
+      <c r="K495" s="166"/>
+      <c r="L495" s="170">
         <v>240</v>
       </c>
-      <c r="M495" s="174"/>
-      <c r="N495" s="174"/>
-      <c r="O495" s="174"/>
-      <c r="P495" s="174"/>
-      <c r="Q495" s="174"/>
-      <c r="R495" s="174"/>
-      <c r="S495" s="174"/>
-      <c r="T495" s="174"/>
-      <c r="U495" s="178">
+      <c r="M495" s="166"/>
+      <c r="N495" s="166"/>
+      <c r="O495" s="166"/>
+      <c r="P495" s="166"/>
+      <c r="Q495" s="166"/>
+      <c r="R495" s="166"/>
+      <c r="S495" s="166"/>
+      <c r="T495" s="166"/>
+      <c r="U495" s="170">
         <v>0.2384</v>
       </c>
-      <c r="V495" s="178">
+      <c r="V495" s="170">
         <v>0.24540000000000001</v>
       </c>
-      <c r="W495" s="178"/>
-      <c r="X495" s="186">
+      <c r="W495" s="170"/>
+      <c r="X495" s="178">
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="Y495" s="174"/>
-      <c r="Z495" s="174"/>
-      <c r="AA495" s="181">
+      <c r="Y495" s="166"/>
+      <c r="Z495" s="166"/>
+      <c r="AA495" s="173">
         <v>29.166666666666696</v>
       </c>
     </row>
@@ -28844,43 +28844,43 @@
       <c r="A496" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="B496" s="175">
+      <c r="B496" s="167">
         <v>493</v>
       </c>
-      <c r="C496" s="174"/>
-      <c r="D496" s="174"/>
-      <c r="E496" s="174"/>
-      <c r="F496" s="174"/>
-      <c r="G496" s="174"/>
-      <c r="H496" s="174"/>
-      <c r="I496" s="174"/>
-      <c r="J496" s="174"/>
-      <c r="K496" s="174"/>
-      <c r="L496" s="178">
+      <c r="C496" s="166"/>
+      <c r="D496" s="166"/>
+      <c r="E496" s="166"/>
+      <c r="F496" s="166"/>
+      <c r="G496" s="166"/>
+      <c r="H496" s="166"/>
+      <c r="I496" s="166"/>
+      <c r="J496" s="166"/>
+      <c r="K496" s="166"/>
+      <c r="L496" s="170">
         <v>240</v>
       </c>
-      <c r="M496" s="174"/>
-      <c r="N496" s="174"/>
-      <c r="O496" s="174"/>
-      <c r="P496" s="174"/>
-      <c r="Q496" s="174"/>
-      <c r="R496" s="174"/>
-      <c r="S496" s="174"/>
-      <c r="T496" s="174"/>
-      <c r="U496" s="178">
+      <c r="M496" s="166"/>
+      <c r="N496" s="166"/>
+      <c r="O496" s="166"/>
+      <c r="P496" s="166"/>
+      <c r="Q496" s="166"/>
+      <c r="R496" s="166"/>
+      <c r="S496" s="166"/>
+      <c r="T496" s="166"/>
+      <c r="U496" s="170">
         <v>0.23369999999999999</v>
       </c>
-      <c r="V496" s="178">
+      <c r="V496" s="170">
         <v>0.23860000000000001</v>
       </c>
-      <c r="W496" s="178"/>
-      <c r="X496" s="186">
+      <c r="W496" s="170"/>
+      <c r="X496" s="178">
         <f t="shared" si="19"/>
         <v>4.9000000000000155E-3</v>
       </c>
-      <c r="Y496" s="174"/>
-      <c r="Z496" s="174"/>
-      <c r="AA496" s="181">
+      <c r="Y496" s="166"/>
+      <c r="Z496" s="166"/>
+      <c r="AA496" s="173">
         <f t="shared" si="18"/>
         <v>20.416666666666732</v>
       </c>
@@ -28889,43 +28889,43 @@
       <c r="A497" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="B497" s="175">
+      <c r="B497" s="167">
         <v>494</v>
       </c>
-      <c r="C497" s="174"/>
-      <c r="D497" s="174"/>
-      <c r="E497" s="174"/>
-      <c r="F497" s="174"/>
-      <c r="G497" s="174"/>
-      <c r="H497" s="174"/>
-      <c r="I497" s="174"/>
-      <c r="J497" s="174"/>
-      <c r="K497" s="174"/>
-      <c r="L497" s="178">
+      <c r="C497" s="166"/>
+      <c r="D497" s="166"/>
+      <c r="E497" s="166"/>
+      <c r="F497" s="166"/>
+      <c r="G497" s="166"/>
+      <c r="H497" s="166"/>
+      <c r="I497" s="166"/>
+      <c r="J497" s="166"/>
+      <c r="K497" s="166"/>
+      <c r="L497" s="170">
         <v>250</v>
       </c>
-      <c r="M497" s="174"/>
-      <c r="N497" s="174"/>
-      <c r="O497" s="174"/>
-      <c r="P497" s="174"/>
-      <c r="Q497" s="174"/>
-      <c r="R497" s="174"/>
-      <c r="S497" s="174"/>
-      <c r="T497" s="174"/>
-      <c r="U497" s="178">
+      <c r="M497" s="166"/>
+      <c r="N497" s="166"/>
+      <c r="O497" s="166"/>
+      <c r="P497" s="166"/>
+      <c r="Q497" s="166"/>
+      <c r="R497" s="166"/>
+      <c r="S497" s="166"/>
+      <c r="T497" s="166"/>
+      <c r="U497" s="170">
         <v>0.2354</v>
       </c>
-      <c r="V497" s="178">
+      <c r="V497" s="170">
         <v>0.2399</v>
       </c>
-      <c r="W497" s="178"/>
-      <c r="X497" s="186">
+      <c r="W497" s="170"/>
+      <c r="X497" s="178">
         <f t="shared" si="19"/>
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="Y497" s="174"/>
-      <c r="Z497" s="174"/>
-      <c r="AA497" s="181">
+      <c r="Y497" s="166"/>
+      <c r="Z497" s="166"/>
+      <c r="AA497" s="173">
         <f t="shared" si="18"/>
         <v>18.000000000000014</v>
       </c>
